--- a/management/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/management/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -19,7 +19,7 @@
     <definedName name="Excel_BuiltIn_Print_Titles">NA()</definedName>
     <definedName name="Holiday" localSheetId="0">Setting!$C$5:$C$104</definedName>
     <definedName name="Holiday">Setting!$C$5:$C$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master-Detail'!$1:$10</definedName>
     <definedName name="syupo">[1]リスト!$H$2:$H$4</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>○</t>
     <phoneticPr fontId="3"/>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Document</t>
+  </si>
+  <si>
+    <t>Review + Comment</t>
   </si>
 </sst>
 </file>
@@ -1659,6 +1662,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1677,10 +1686,124 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1689,126 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,7 +1879,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="309">
+  <dxfs count="333">
     <dxf>
       <fill>
         <patternFill>
@@ -2174,6 +2177,132 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF7D"/>
         </patternFill>
       </fill>
@@ -2216,63 +2345,105 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4689,13 +4860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ58"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="10" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="V55" sqref="V55"/>
+      <selection pane="bottomRight" activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -4740,10 +4911,10 @@
       <c r="H1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="147"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="46"/>
       <c r="L1" s="47" t="s">
         <v>47</v>
@@ -4751,8 +4922,8 @@
       <c r="M1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="50"/>
       <c r="R1" s="50"/>
@@ -4823,7 +4994,7 @@
       <c r="AG2" s="44"/>
       <c r="AH2" s="58" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," mm/dd/yyyy")</f>
-        <v>Date： 06/17/2015</v>
+        <v>Date： 06/18/2015</v>
       </c>
       <c r="AI2" s="44"/>
     </row>
@@ -4834,28 +5005,28 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="61">
-        <f ca="1">COUNTIF(N15:N58,"=△") + COUNTIF(N15:N58,"=○") +COUNTIF(N15:N58,"=★") + COUNTIF(N15:N58,"=◇")+ COUNTIF(N15:N58,"=▲")</f>
+        <f ca="1">COUNTIF(N15:N62,"=△") + COUNTIF(N15:N62,"=○") +COUNTIF(N15:N62,"=★") + COUNTIF(N15:N62,"=◇")+ COUNTIF(N15:N62,"=▲")</f>
+        <v>16</v>
+      </c>
+      <c r="I3" s="61">
+        <f ca="1">COUNTIF(N15:N62,"=○")</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="61">
+        <f ca="1">COUNTIF(N15:N62,"=△") + COUNTIF(N15:N62,"=▲")  +  COUNTIF(N15:N62,"=★")</f>
         <v>15</v>
       </c>
-      <c r="I3" s="61">
-        <f ca="1">COUNTIF(N15:N58,"=○")</f>
+      <c r="K3" s="61">
+        <f ca="1">COUNTIF(N15:N62,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="61">
-        <f ca="1">COUNTIF(N15:N58,"=△") + COUNTIF(N15:N58,"=▲")  +  COUNTIF(N15:N58,"=★")</f>
-        <v>15</v>
-      </c>
-      <c r="K3" s="61">
-        <f ca="1">COUNTIF(N15:N58,"=◇")</f>
+      <c r="L3" s="61">
+        <f ca="1">COUNTIF(N15:N62,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="61">
-        <f ca="1">COUNTIF(N15:N58,"=▲")</f>
-        <v>0</v>
-      </c>
       <c r="M3" s="61">
-        <f ca="1">COUNTIF(N15:N58,"=★")</f>
-        <v>0</v>
+        <f ca="1">COUNTIF(N15:N62,"=★")</f>
+        <v>1</v>
       </c>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
@@ -4969,19 +5140,19 @@
     </row>
     <row r="7" spans="1:36" ht="18.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="144" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="146"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -4998,27 +5169,27 @@
     </row>
     <row r="8" spans="1:36" ht="18.75" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="72">
-        <f>MIN(I15:I58)</f>
+        <f>MIN(I15:I62)</f>
         <v>42172</v>
       </c>
       <c r="J8" s="72">
-        <f>MAX(J15:J58)</f>
+        <f>MAX(J15:J62)</f>
         <v>42174</v>
       </c>
       <c r="K8" s="72">
-        <f>IF(MIN(K15:K58)=DATE(1900,1,0),"",MIN(K15:K58))</f>
+        <f>IF(MIN(K15:K62)=DATE(1900,1,0),"",MIN(K15:K62))</f>
         <v>42172</v>
       </c>
       <c r="L8" s="72">
-        <f>IF(MAX(L15:L58)=DATE(1900,1,0),"",MAX(L15:L58))</f>
+        <f>IF(MAX(L15:L62)=DATE(1900,1,0),"",MAX(L15:L62))</f>
         <v>42172</v>
       </c>
       <c r="M8" s="73"/>
@@ -5026,16 +5197,16 @@
         <f>TEXT(T9,"yyyy")</f>
         <v>2015</v>
       </c>
-      <c r="O8" s="132">
-        <f>SUM(P15:P58)</f>
-        <v>15</v>
-      </c>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="132">
-        <f>SUM(R15:R58)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="133"/>
+      <c r="O8" s="146">
+        <f>SUM(P15:P62)</f>
+        <v>16</v>
+      </c>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="146">
+        <f>SUM(R15:R62)</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="147"/>
       <c r="S8" s="75">
         <v>6</v>
       </c>
@@ -5092,52 +5263,52 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH8" s="120" t="s">
+      <c r="AH8" s="138" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="151" t="s">
+      <c r="H9" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="125" t="s">
+      <c r="I9" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="125" t="s">
+      <c r="J9" s="140"/>
+      <c r="K9" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="127"/>
-      <c r="M9" s="128" t="s">
+      <c r="L9" s="141"/>
+      <c r="M9" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="129"/>
-      <c r="O9" s="134" t="s">
+      <c r="N9" s="143"/>
+      <c r="O9" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="136" t="s">
+      <c r="P9" s="149"/>
+      <c r="Q9" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="135"/>
+      <c r="R9" s="149"/>
       <c r="S9" s="77">
         <v>42171</v>
       </c>
@@ -5183,16 +5354,16 @@
       <c r="AG9" s="77">
         <v>42185</v>
       </c>
-      <c r="AH9" s="120"/>
+      <c r="AH9" s="138"/>
     </row>
     <row r="10" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B10" s="124"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="152"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="137"/>
       <c r="I10" s="78" t="s">
         <v>18</v>
       </c>
@@ -5205,8 +5376,8 @@
       <c r="L10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="130"/>
-      <c r="N10" s="131"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="145"/>
       <c r="O10" s="82" t="s">
         <v>3</v>
       </c>
@@ -5279,7 +5450,7 @@
         <f t="shared" si="2"/>
         <v>42185</v>
       </c>
-      <c r="AH10" s="120"/>
+      <c r="AH10" s="138"/>
     </row>
     <row r="11" spans="1:36" ht="13.5" customHeight="1">
       <c r="B11" s="100">
@@ -5291,7 +5462,7 @@
       <c r="E11" s="104"/>
       <c r="F11" s="106"/>
       <c r="G11" s="106"/>
-      <c r="H11" s="118"/>
+      <c r="H11" s="151"/>
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
@@ -5341,7 +5512,7 @@
       <c r="E12" s="105"/>
       <c r="F12" s="107"/>
       <c r="G12" s="107"/>
-      <c r="H12" s="119"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
@@ -5379,7 +5550,7 @@
       <c r="E13" s="104"/>
       <c r="F13" s="106"/>
       <c r="G13" s="106"/>
-      <c r="H13" s="118"/>
+      <c r="H13" s="151"/>
       <c r="I13" s="89"/>
       <c r="J13" s="89"/>
       <c r="K13" s="89"/>
@@ -5429,7 +5600,7 @@
       <c r="E14" s="105"/>
       <c r="F14" s="107"/>
       <c r="G14" s="107"/>
-      <c r="H14" s="119"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
@@ -5458,7 +5629,7 @@
       <c r="AH14" s="99"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B15" s="116">
+      <c r="B15" s="110">
         <f>(ROW()-10)/2+0.5</f>
         <v>3</v>
       </c>
@@ -5489,23 +5660,23 @@
       </c>
       <c r="L15" s="89"/>
       <c r="M15" s="91"/>
-      <c r="N15" s="110" t="str">
+      <c r="N15" s="112" t="str">
         <f ca="1">IF(B15="","",IF(AND(I15="",J15="",K15="",L15=""),"",IF(OR(I15="",J15=""),"?",IF(AND(I15&lt;&gt;"",J15&lt;&gt;"",K15&lt;&gt;"",L15&lt;&gt;"",M15=100),"○",IF(AND(I15&lt;=TODAY(),J15&gt;=TODAY(),K15=""),"▲",  IF(J15&lt;TODAY(),"★",IF(K15&lt;&gt;"","△",IF(AND(I15&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O15" s="112">
+      <c r="O15" s="114">
         <f>IF(COUNTA(S15:X15)=0,"",SUMPRODUCT(--(ISNUMBER(S15:X15)),S15:X15)+ (COUNTA(S15:X15)-COUNT(S15:X15))*8)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="114">
+      <c r="P15" s="116">
         <f>IF(O15="","",ROUND(O15/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="112" t="str">
+      <c r="Q15" s="114" t="str">
         <f>IF(COUNTA(S16:X16)=0,"",SUMPRODUCT(--(ISNUMBER(S16:X16)),S16:X16)+ (COUNTA(S16:X16)-COUNT(S16:X16))*8)</f>
         <v/>
       </c>
-      <c r="R15" s="114" t="str">
+      <c r="R15" s="116" t="str">
         <f t="shared" ref="R15" si="8">IF(Q15="","",ROUND(Q15/8,2))</f>
         <v/>
       </c>
@@ -5529,7 +5700,7 @@
       <c r="AH15" s="99"/>
     </row>
     <row r="16" spans="1:36" ht="13.5" customHeight="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="103"/>
       <c r="D16" s="105"/>
       <c r="E16" s="105"/>
@@ -5541,11 +5712,11 @@
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
       <c r="M16" s="92"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="115"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="117"/>
       <c r="S16" s="86"/>
       <c r="T16" s="86"/>
       <c r="U16" s="86"/>
@@ -5854,7 +6025,7 @@
       <c r="AH22" s="99"/>
     </row>
     <row r="23" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B23" s="116">
+      <c r="B23" s="110">
         <f>(ROW()-10)/2+0.5</f>
         <v>7</v>
       </c>
@@ -5883,23 +6054,23 @@
       </c>
       <c r="L23" s="89"/>
       <c r="M23" s="91"/>
-      <c r="N23" s="110" t="str">
+      <c r="N23" s="112" t="str">
         <f ca="1">IF(B23="","",IF(AND(I23="",J23="",K23="",L23=""),"",IF(OR(I23="",J23=""),"?",IF(AND(I23&lt;&gt;"",J23&lt;&gt;"",K23&lt;&gt;"",L23&lt;&gt;"",M23=100),"○",IF(AND(I23&lt;=TODAY(),J23&gt;=TODAY(),K23=""),"▲",  IF(J23&lt;TODAY(),"★",IF(K23&lt;&gt;"","△",IF(AND(I23&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O23" s="112">
+      <c r="O23" s="114">
         <f>IF(COUNTA(S23:X23)=0,"",SUMPRODUCT(--(ISNUMBER(S23:X23)),S23:X23)+ (COUNTA(S23:X23)-COUNT(S23:X23))*8)</f>
         <v>8</v>
       </c>
-      <c r="P23" s="114">
+      <c r="P23" s="116">
         <f>IF(O23="","",ROUND(O23/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="112" t="str">
+      <c r="Q23" s="114" t="str">
         <f>IF(COUNTA(S24:X24)=0,"",SUMPRODUCT(--(ISNUMBER(S24:X24)),S24:X24)+ (COUNTA(S24:X24)-COUNT(S24:X24))*8)</f>
         <v/>
       </c>
-      <c r="R23" s="114" t="str">
+      <c r="R23" s="116" t="str">
         <f t="shared" ref="R23" si="17">IF(Q23="","",ROUND(Q23/8,2))</f>
         <v/>
       </c>
@@ -5923,7 +6094,7 @@
       <c r="AH23" s="99"/>
     </row>
     <row r="24" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B24" s="117"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="103"/>
       <c r="D24" s="105"/>
       <c r="E24" s="105"/>
@@ -5935,11 +6106,11 @@
       <c r="K24" s="90"/>
       <c r="L24" s="90"/>
       <c r="M24" s="92"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="115"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="117"/>
       <c r="S24" s="86"/>
       <c r="T24" s="86"/>
       <c r="U24" s="86"/>
@@ -6060,7 +6231,7 @@
       <c r="AH26" s="99"/>
     </row>
     <row r="27" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B27" s="116">
+      <c r="B27" s="110">
         <f>(ROW()-10)/2+0.5</f>
         <v>9</v>
       </c>
@@ -6087,23 +6258,23 @@
       </c>
       <c r="L27" s="89"/>
       <c r="M27" s="91"/>
-      <c r="N27" s="110" t="str">
+      <c r="N27" s="112" t="str">
         <f ca="1">IF(B27="","",IF(AND(I27="",J27="",K27="",L27=""),"",IF(OR(I27="",J27=""),"?",IF(AND(I27&lt;&gt;"",J27&lt;&gt;"",K27&lt;&gt;"",L27&lt;&gt;"",M27=100),"○",IF(AND(I27&lt;=TODAY(),J27&gt;=TODAY(),K27=""),"▲",  IF(J27&lt;TODAY(),"★",IF(K27&lt;&gt;"","△",IF(AND(I27&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O27" s="112">
+      <c r="O27" s="114">
         <f>IF(COUNTA(S27:X27)=0,"",SUMPRODUCT(--(ISNUMBER(S27:X27)),S27:X27)+ (COUNTA(S27:X27)-COUNT(S27:X27))*8)</f>
         <v>8</v>
       </c>
-      <c r="P27" s="114">
+      <c r="P27" s="116">
         <f>IF(O27="","",ROUND(O27/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="112" t="str">
+      <c r="Q27" s="114" t="str">
         <f>IF(COUNTA(S28:X28)=0,"",SUMPRODUCT(--(ISNUMBER(S28:X28)),S28:X28)+ (COUNTA(S28:X28)-COUNT(S28:X28))*8)</f>
         <v/>
       </c>
-      <c r="R27" s="114" t="str">
+      <c r="R27" s="116" t="str">
         <f t="shared" ref="R27" si="21">IF(Q27="","",ROUND(Q27/8,2))</f>
         <v/>
       </c>
@@ -6127,7 +6298,7 @@
       <c r="AH27" s="99"/>
     </row>
     <row r="28" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B28" s="117"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="103"/>
       <c r="D28" s="105"/>
       <c r="E28" s="105"/>
@@ -6139,11 +6310,11 @@
       <c r="K28" s="90"/>
       <c r="L28" s="90"/>
       <c r="M28" s="92"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="115"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="117"/>
       <c r="S28" s="86"/>
       <c r="T28" s="86"/>
       <c r="U28" s="86"/>
@@ -6337,7 +6508,7 @@
       <c r="AH32" s="99"/>
     </row>
     <row r="33" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B33" s="116">
+      <c r="B33" s="110">
         <f>(ROW()-10)/2+0.5</f>
         <v>12</v>
       </c>
@@ -6366,23 +6537,23 @@
       </c>
       <c r="L33" s="89"/>
       <c r="M33" s="91"/>
-      <c r="N33" s="110" t="str">
+      <c r="N33" s="112" t="str">
         <f ca="1">IF(B33="","",IF(AND(I33="",J33="",K33="",L33=""),"",IF(OR(I33="",J33=""),"?",IF(AND(I33&lt;&gt;"",J33&lt;&gt;"",K33&lt;&gt;"",L33&lt;&gt;"",M33=100),"○",IF(AND(I33&lt;=TODAY(),J33&gt;=TODAY(),K33=""),"▲",  IF(J33&lt;TODAY(),"★",IF(K33&lt;&gt;"","△",IF(AND(I33&lt;&gt;""),"◇",""))))))))</f>
         <v>△</v>
       </c>
-      <c r="O33" s="112">
+      <c r="O33" s="114">
         <f>IF(COUNTA(S33:X33)=0,"",SUMPRODUCT(--(ISNUMBER(S33:X33)),S33:X33)+ (COUNTA(S33:X33)-COUNT(S33:X33))*8)</f>
         <v>8</v>
       </c>
-      <c r="P33" s="114">
+      <c r="P33" s="116">
         <f>IF(O33="","",ROUND(O33/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="112" t="str">
+      <c r="Q33" s="114" t="str">
         <f>IF(COUNTA(S34:X34)=0,"",SUMPRODUCT(--(ISNUMBER(S34:X34)),S34:X34)+ (COUNTA(S34:X34)-COUNT(S34:X34))*8)</f>
         <v/>
       </c>
-      <c r="R33" s="114" t="str">
+      <c r="R33" s="116" t="str">
         <f t="shared" ref="R33" si="25">IF(Q33="","",ROUND(Q33/8,2))</f>
         <v/>
       </c>
@@ -6406,7 +6577,7 @@
       <c r="AH33" s="99"/>
     </row>
     <row r="34" spans="2:34" ht="13.5" customHeight="1">
-      <c r="B34" s="117"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="103"/>
       <c r="D34" s="105"/>
       <c r="E34" s="105"/>
@@ -6418,11 +6589,11 @@
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
       <c r="M34" s="92"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="115"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="117"/>
       <c r="S34" s="86"/>
       <c r="T34" s="86"/>
       <c r="U34" s="86"/>
@@ -7028,7 +7199,7 @@
       <c r="M47" s="91"/>
       <c r="N47" s="93" t="str">
         <f ca="1">IF(B47="","",IF(AND(I47="",J47="",K47="",L47=""),"",IF(OR(I47="",J47=""),"?",IF(AND(I47&lt;&gt;"",J47&lt;&gt;"",K47&lt;&gt;"",L47&lt;&gt;"",M47=100),"○",IF(AND(I47&lt;=TODAY(),J47&gt;=TODAY(),K47=""),"▲",  IF(J47&lt;TODAY(),"★",IF(K47&lt;&gt;"","△",IF(AND(I47&lt;&gt;""),"◇",""))))))))</f>
-        <v>△</v>
+        <v>★</v>
       </c>
       <c r="O47" s="95">
         <f>IF(COUNTA(S47:X47)=0,"",SUMPRODUCT(--(ISNUMBER(S47:X47)),S47:X47)+ (COUNTA(S47:X47)-COUNT(S47:X47))*8)</f>
@@ -7381,10 +7552,12 @@
       <c r="L55" s="89">
         <v>42172</v>
       </c>
-      <c r="M55" s="91"/>
+      <c r="M55" s="91">
+        <v>100</v>
+      </c>
       <c r="N55" s="93" t="str">
         <f ca="1">IF(B55="","",IF(AND(I55="",J55="",K55="",L55=""),"",IF(OR(I55="",J55=""),"?",IF(AND(I55&lt;&gt;"",J55&lt;&gt;"",K55&lt;&gt;"",L55&lt;&gt;"",M55=100),"○",IF(AND(I55&lt;=TODAY(),J55&gt;=TODAY(),K55=""),"▲",  IF(J55&lt;TODAY(),"★",IF(K55&lt;&gt;"","△",IF(AND(I55&lt;&gt;""),"◇",""))))))))</f>
-        <v>△</v>
+        <v>○</v>
       </c>
       <c r="O55" s="95">
         <f>IF(COUNTA(S55:X55)=0,"",SUMPRODUCT(--(ISNUMBER(S55:X55)),S55:X55)+ (COUNTA(S55:X55)-COUNT(S55:X55))*8)</f>
@@ -7394,13 +7567,13 @@
         <f t="shared" ref="P55" si="44">IF(O55="","",ROUND(O55/8,2))</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="95" t="str">
+      <c r="Q55" s="95">
         <f>IF(COUNTA(S56:X56)=0,"",SUMPRODUCT(--(ISNUMBER(S56:X56)),S56:X56)+ (COUNTA(S56:X56)-COUNT(S56:X56))*8)</f>
-        <v/>
-      </c>
-      <c r="R55" s="97" t="str">
+        <v>8</v>
+      </c>
+      <c r="R55" s="97">
         <f t="shared" ref="R55" si="45">IF(Q55="","",ROUND(Q55/8,2))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S55" s="85"/>
       <c r="T55" s="85">
@@ -7440,7 +7613,9 @@
       <c r="Q56" s="96"/>
       <c r="R56" s="98"/>
       <c r="S56" s="86"/>
-      <c r="T56" s="86"/>
+      <c r="T56" s="86">
+        <v>8</v>
+      </c>
       <c r="U56" s="86"/>
       <c r="V56" s="86"/>
       <c r="W56" s="86"/>
@@ -7456,9 +7631,9 @@
       <c r="AG56" s="86"/>
       <c r="AH56" s="99"/>
     </row>
-    <row r="57" spans="2:34" ht="50.1" customHeight="1">
+    <row r="57" spans="2:34" ht="13.5" customHeight="1">
       <c r="B57" s="100">
-        <f t="shared" ref="B57" si="46">(ROW()-10)/2+0.5</f>
+        <f>(ROW()-10)/2+0.5</f>
         <v>24</v>
       </c>
       <c r="C57" s="102"/>
@@ -7529,103 +7704,563 @@
       <c r="AG58" s="86"/>
       <c r="AH58" s="99"/>
     </row>
+    <row r="59" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B59" s="100">
+        <f t="shared" ref="B59" si="46">(ROW()-10)/2+0.5</f>
+        <v>25</v>
+      </c>
+      <c r="C59" s="102"/>
+      <c r="D59" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="106"/>
+      <c r="H59" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="89">
+        <v>42173</v>
+      </c>
+      <c r="J59" s="89">
+        <v>42174</v>
+      </c>
+      <c r="K59" s="89">
+        <v>42173</v>
+      </c>
+      <c r="L59" s="89"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="93" t="str">
+        <f ca="1">IF(B59="","",IF(AND(I59="",J59="",K59="",L59=""),"",IF(OR(I59="",J59=""),"?",IF(AND(I59&lt;&gt;"",J59&lt;&gt;"",K59&lt;&gt;"",L59&lt;&gt;"",M59=100),"○",IF(AND(I59&lt;=TODAY(),J59&gt;=TODAY(),K59=""),"▲",  IF(J59&lt;TODAY(),"★",IF(K59&lt;&gt;"","△",IF(AND(I59&lt;&gt;""),"◇",""))))))))</f>
+        <v>△</v>
+      </c>
+      <c r="O59" s="95">
+        <f>IF(COUNTA(S59:X59)=0,"",SUMPRODUCT(--(ISNUMBER(S59:X59)),S59:X59)+ (COUNTA(S59:X59)-COUNT(S59:X59))*8)</f>
+        <v>8</v>
+      </c>
+      <c r="P59" s="97">
+        <f t="shared" ref="P59" si="47">IF(O59="","",ROUND(O59/8,2))</f>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="95" t="str">
+        <f>IF(COUNTA(S60:X60)=0,"",SUMPRODUCT(--(ISNUMBER(S60:X60)),S60:X60)+ (COUNTA(S60:X60)-COUNT(S60:X60))*8)</f>
+        <v/>
+      </c>
+      <c r="R59" s="97" t="str">
+        <f t="shared" ref="R59" si="48">IF(Q59="","",ROUND(Q59/8,2))</f>
+        <v/>
+      </c>
+      <c r="S59" s="85"/>
+      <c r="T59" s="85"/>
+      <c r="U59" s="85">
+        <v>8</v>
+      </c>
+      <c r="V59" s="85"/>
+      <c r="W59" s="85"/>
+      <c r="X59" s="85"/>
+      <c r="Y59" s="85"/>
+      <c r="Z59" s="85"/>
+      <c r="AA59" s="85"/>
+      <c r="AB59" s="85"/>
+      <c r="AC59" s="85"/>
+      <c r="AD59" s="85"/>
+      <c r="AE59" s="85"/>
+      <c r="AF59" s="85"/>
+      <c r="AG59" s="85"/>
+      <c r="AH59" s="99"/>
+    </row>
+    <row r="60" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B60" s="101"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="98"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="86"/>
+      <c r="T60" s="86"/>
+      <c r="U60" s="86"/>
+      <c r="V60" s="86"/>
+      <c r="W60" s="86"/>
+      <c r="X60" s="86"/>
+      <c r="Y60" s="86"/>
+      <c r="Z60" s="86"/>
+      <c r="AA60" s="86"/>
+      <c r="AB60" s="86"/>
+      <c r="AC60" s="86"/>
+      <c r="AD60" s="86"/>
+      <c r="AE60" s="86"/>
+      <c r="AF60" s="86"/>
+      <c r="AG60" s="86"/>
+      <c r="AH60" s="99"/>
+    </row>
+    <row r="61" spans="2:34" ht="50.1" customHeight="1">
+      <c r="B61" s="100">
+        <f t="shared" ref="B61" si="49">(ROW()-10)/2+0.5</f>
+        <v>26</v>
+      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="95"/>
+      <c r="R61" s="97"/>
+      <c r="S61" s="85"/>
+      <c r="T61" s="85"/>
+      <c r="U61" s="85"/>
+      <c r="V61" s="85"/>
+      <c r="W61" s="85"/>
+      <c r="X61" s="85"/>
+      <c r="Y61" s="85"/>
+      <c r="Z61" s="85"/>
+      <c r="AA61" s="85"/>
+      <c r="AB61" s="85"/>
+      <c r="AC61" s="85"/>
+      <c r="AD61" s="85"/>
+      <c r="AE61" s="85"/>
+      <c r="AF61" s="85"/>
+      <c r="AG61" s="85"/>
+      <c r="AH61" s="99"/>
+    </row>
+    <row r="62" spans="2:34" ht="13.5" customHeight="1">
+      <c r="B62" s="101"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="94"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="98"/>
+      <c r="S62" s="86"/>
+      <c r="T62" s="86"/>
+      <c r="U62" s="86"/>
+      <c r="V62" s="86"/>
+      <c r="W62" s="86"/>
+      <c r="X62" s="86"/>
+      <c r="Y62" s="86"/>
+      <c r="Z62" s="86"/>
+      <c r="AA62" s="86"/>
+      <c r="AB62" s="86"/>
+      <c r="AC62" s="86"/>
+      <c r="AD62" s="86"/>
+      <c r="AE62" s="86"/>
+      <c r="AF62" s="86"/>
+      <c r="AG62" s="86"/>
+      <c r="AH62" s="99"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A10:AJ10">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
-  <mergeCells count="451">
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="AH53:AH54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AH41:AH42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
+  <mergeCells count="487">
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="AH59:AH60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="AH57:AH58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="AH49:AH50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="AH45:AH46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="AH61:AH62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="AH21:AH22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="P29:P30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
@@ -7650,1354 +8285,1217 @@
     <mergeCell ref="AH31:AH32"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="AH25:AH26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="AH21:AH22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="AH57:AH58"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="AH45:AH46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="AH49:AH50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="AH41:AH42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="AH53:AH54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="AH55:AH56"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">
-    <cfRule type="expression" dxfId="308" priority="51275" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="51305" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="51276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="51306" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:AG10">
-    <cfRule type="expression" dxfId="306" priority="51277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="51307" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="51278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="51308" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="51279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="51309" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12:X14 S22:AG22 S24:AG24 S26:AG26 S42:AG42 S40:AG40 S44:AG44 S16:AG16 S20:AG20 S28:AG32 S58:AG58 S52:AG52 S50:AG50">
-    <cfRule type="expression" dxfId="303" priority="65788" stopIfTrue="1">
+  <conditionalFormatting sqref="S12:X14 S22:AG22 S24:AG24 S26:AG26 S42:AG42 S40:AG40 S44:AG44 S16:AG16 S20:AG20 S28:AG32 S62:AG62 S52:AG52 S50:AG50">
+    <cfRule type="expression" dxfId="327" priority="65818" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="65789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="65819" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=S$9,S$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="65790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="65820" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=S$9,S$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:R58 B21:G24 I21:R24 B11:R14 B19:E20 B15:E16 G15:R16 G19:R20 J47:J48 M47:R48 B47:G48">
-    <cfRule type="expression" dxfId="300" priority="65806" stopIfTrue="1">
+  <conditionalFormatting sqref="B61:R62 B21:G24 I21:R24 B11:R14 B19:E20 B15:E16 G15:R16 G19:R20 J47:J48 M47:R48 B47:G48">
+    <cfRule type="expression" dxfId="324" priority="65836" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$L11&lt;&gt;"",$M11=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="65807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="65837" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$J11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="65808" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="65838" stopIfTrue="1">
       <formula>IF(OR(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$M11&lt;100),AND($I11&lt;&gt;"",$J11&lt;&gt;"",TODAY()&gt;=$I11)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:AG43 S39:AG39 S41:AG41 S57:AG57 S51:AG51">
-    <cfRule type="expression" dxfId="297" priority="65983" stopIfTrue="1">
+  <conditionalFormatting sqref="S43:AG43 S39:AG39 S41:AG41 S61:AG61 S51:AG51">
+    <cfRule type="expression" dxfId="321" priority="66013" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="65984" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="66014" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"", $I39&lt;=S$9,S$9&lt;=$J39),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="65985" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="66015" stopIfTrue="1">
       <formula>IF(AND($B39="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:X15">
-    <cfRule type="expression" dxfId="294" priority="65995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="66025" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="65996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="66026" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=S$9,S$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="65997" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="66027" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=S$9,S$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:X11">
-    <cfRule type="expression" dxfId="291" priority="66037" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="66067" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="66038" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="66068" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=S$9,S$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="66039" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="66069" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AD8">
-    <cfRule type="expression" dxfId="288" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="399" stopIfTrue="1">
       <formula>IF(TEXT(Y$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="400" stopIfTrue="1">
       <formula>OR(IF(TEXT(Y$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AD14">
-    <cfRule type="expression" dxfId="286" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="393" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="394" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=Y$9,Y$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="395" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=Y$9,Y$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AD15">
-    <cfRule type="expression" dxfId="283" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="387" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="388" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=Y$9,Y$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="389" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=Y$9,Y$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:AD11">
-    <cfRule type="expression" dxfId="280" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="384" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="385" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=Y$9,Y$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="386" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AG8">
-    <cfRule type="expression" dxfId="277" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="370" stopIfTrue="1">
       <formula>IF(TEXT(AE$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="371" stopIfTrue="1">
       <formula>OR(IF(TEXT(AE$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AG14">
-    <cfRule type="expression" dxfId="275" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="367" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="368" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=AE$9,AE$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="369" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=AE$9,AE$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AG15">
-    <cfRule type="expression" dxfId="272" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="361" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="362" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=AE$9,AE$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="363" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=AE$9,AE$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AG11">
-    <cfRule type="expression" dxfId="269" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="358" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="359" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=AE$9,AE$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="360" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="expression" dxfId="266" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="343" stopIfTrue="1">
       <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="344" stopIfTrue="1">
       <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="345" stopIfTrue="1">
       <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H22">
-    <cfRule type="expression" dxfId="263" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="340" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="341" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="342" stopIfTrue="1">
       <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:R32 B25:G32 I27:I30 M25:R30 J39:J44 M39:R44 B39:G44">
-    <cfRule type="expression" dxfId="260" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="313" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="314" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="315" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H40">
-    <cfRule type="expression" dxfId="257" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="271" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="272" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="273" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="expression" dxfId="254" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="286" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="287" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="288" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H26">
-    <cfRule type="expression" dxfId="251" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="283" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="284" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="285" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H30">
-    <cfRule type="expression" dxfId="248" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="280" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="281" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="282" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H32">
-    <cfRule type="expression" dxfId="245" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="277" stopIfTrue="1">
       <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="278" stopIfTrue="1">
       <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="279" stopIfTrue="1">
       <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H44">
-    <cfRule type="expression" dxfId="242" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="268" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="269" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="270" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="expression" dxfId="239" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="274" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="275" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="276" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21:AG21 S25:AG25 S49:AG49">
-    <cfRule type="expression" dxfId="236" priority="66064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="66094" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="66065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="66095" stopIfTrue="1">
       <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"", $I21&lt;=S$9,S$9&lt;=$J21),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="66066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="66096" stopIfTrue="1">
       <formula>IF(AND($B21="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23:AG23 S27:AG27">
-    <cfRule type="expression" dxfId="233" priority="66079" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="66109" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="66080" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="66110" stopIfTrue="1">
       <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"", $I23&lt;=S$9,S$9&lt;=$J23),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="66081" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="66111" stopIfTrue="1">
       <formula>IF(AND($B23="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I26">
-    <cfRule type="expression" dxfId="230" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="265" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="266" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="267" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="227" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="241" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="242" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="243" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K26">
-    <cfRule type="expression" dxfId="224" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="259" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="260" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="261" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L30">
-    <cfRule type="expression" dxfId="221" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="232" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="233" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="234" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L26">
-    <cfRule type="expression" dxfId="218" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="253" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="254" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="255" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J26">
-    <cfRule type="expression" dxfId="215" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="250" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="251" stopIfTrue="1">
       <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="252" stopIfTrue="1">
       <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J28">
-    <cfRule type="expression" dxfId="212" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="247" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="248" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="249" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="209" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="244" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="245" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="246" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="206" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="238" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="239" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="240" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L28">
-    <cfRule type="expression" dxfId="203" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="235" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="236" stopIfTrue="1">
       <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="237" stopIfTrue="1">
       <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:AG19">
-    <cfRule type="expression" dxfId="200" priority="66085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="66115" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="66086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="66116" stopIfTrue="1">
       <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"", $I19&lt;=S$9,S$9&lt;=$J19),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="66087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="66117" stopIfTrue="1">
       <formula>IF(AND($B19="", $K16&lt;&gt;"",$K16&lt;=S$9,S$9&lt;=$L16),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AG18">
-    <cfRule type="expression" dxfId="197" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="229" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="230" stopIfTrue="1">
       <formula>IF(AND($B18&lt;&gt;"",$I18&lt;&gt;"", $I18&lt;=S$9,S$9&lt;=$J18),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="231" stopIfTrue="1">
       <formula>IF(AND($B18="", $K17&lt;&gt;"",$K17&lt;=S$9,S$9&lt;=$L17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E18 G17:R18">
-    <cfRule type="expression" dxfId="194" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="226" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="227" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="228" stopIfTrue="1">
       <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AG17">
-    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="223" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="224" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"", $I17&lt;=S$9,S$9&lt;=$J17),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="225" stopIfTrue="1">
       <formula>IF(AND($B17="", $K14&lt;&gt;"",$K14&lt;=S$9,S$9&lt;=$L14),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="188" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="220" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$L15&lt;&gt;"",$M15=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="221" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$J15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="222" stopIfTrue="1">
       <formula>IF(OR(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$M15&lt;100),AND($I15&lt;&gt;"",$J15&lt;&gt;"",TODAY()&gt;=$I15)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:AG38">
-    <cfRule type="expression" dxfId="185" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="217" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="218" stopIfTrue="1">
       <formula>IF(AND($B34&lt;&gt;"",$I34&lt;&gt;"", $I34&lt;=S$9,S$9&lt;=$J34),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="219" stopIfTrue="1">
       <formula>IF(AND($B34="", $K33&lt;&gt;"",$K33&lt;=S$9,S$9&lt;=$L33),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:R38 B35:G38 I33:I36 M33:R36 B33:C34 E33:G34">
-    <cfRule type="expression" dxfId="182" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="214" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="215" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="216" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="expression" dxfId="179" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="211" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="212" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="213" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H36">
-    <cfRule type="expression" dxfId="176" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="208" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="209" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="210" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H38">
-    <cfRule type="expression" dxfId="173" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="205" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="206" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="207" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:AG33">
-    <cfRule type="expression" dxfId="170" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="202" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="203" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"", $I33&lt;=S$9,S$9&lt;=$J33),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="204" stopIfTrue="1">
       <formula>IF(AND($B33="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="167" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="199" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="200" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="201" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L36">
-    <cfRule type="expression" dxfId="164" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="196" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="197" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="198" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:J34">
-    <cfRule type="expression" dxfId="161" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="193" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="194" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="195" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36">
-    <cfRule type="expression" dxfId="158" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="190" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="191" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="192" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
-    <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="187" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="188" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="189" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:L34">
-    <cfRule type="expression" dxfId="152" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="184" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="185" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="186" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I40">
-    <cfRule type="expression" dxfId="149" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="181" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="182" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="183" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
-    <cfRule type="expression" dxfId="146" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="178" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="179" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="180" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:I44">
-    <cfRule type="expression" dxfId="143" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="175" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="176" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="177" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K40">
-    <cfRule type="expression" dxfId="140" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="172" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="173" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="174" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:K42">
-    <cfRule type="expression" dxfId="137" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="169" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="170" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="171" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:K44">
-    <cfRule type="expression" dxfId="134" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="166" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="167" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="168" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L40">
-    <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="163" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="164" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="165" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:L42">
-    <cfRule type="expression" dxfId="128" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="160" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="162" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:L44">
-    <cfRule type="expression" dxfId="125" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="157" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="158" stopIfTrue="1">
       <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="159" stopIfTrue="1">
       <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D34">
-    <cfRule type="expression" dxfId="122" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="154" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="155" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="156" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:AG48">
-    <cfRule type="expression" dxfId="119" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="151" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="152" stopIfTrue="1">
       <formula>IF(AND($B48&lt;&gt;"",$I48&lt;&gt;"", $I48&lt;=S$9,S$9&lt;=$J48),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="153" stopIfTrue="1">
       <formula>IF(AND($B48="", $K47&lt;&gt;"",$K47&lt;=S$9,S$9&lt;=$L47),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:AG47">
-    <cfRule type="expression" dxfId="116" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="148" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"", $I47&lt;=S$9,S$9&lt;=$J47),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="150" stopIfTrue="1">
       <formula>IF(AND($B47="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="113" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="142" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="143" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="144" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45:AG46">
-    <cfRule type="expression" dxfId="110" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="133" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="134" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"", $I45&lt;=S$9,S$9&lt;=$J45),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="135" stopIfTrue="1">
       <formula>IF(AND($B45="", $K44&lt;&gt;"",$K44&lt;=S$9,S$9&lt;=$L44),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:R46 B45:G46">
-    <cfRule type="expression" dxfId="107" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="130" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="131" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="132" stopIfTrue="1">
       <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="104" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="127" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="128" stopIfTrue="1">
       <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="129" stopIfTrue="1">
       <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I48">
-    <cfRule type="expression" dxfId="101" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="124" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="125" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="126" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:K48">
-    <cfRule type="expression" dxfId="98" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="115" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="116" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="117" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:L48">
-    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="106" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="107" stopIfTrue="1">
       <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="108" stopIfTrue="1">
       <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="92" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="97" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="98" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="99" stopIfTrue="1">
       <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="expression" dxfId="89" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="94" stopIfTrue="1">
       <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="95" stopIfTrue="1">
       <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="96" stopIfTrue="1">
       <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:J52 M51:R52 B51:G52">
-    <cfRule type="expression" dxfId="86" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="85" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="86" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="87" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:H52">
-    <cfRule type="expression" dxfId="83" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="82" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="83" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="84" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:R50 B49:G50">
-    <cfRule type="expression" dxfId="80" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="76" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="77" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="78" stopIfTrue="1">
       <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H50">
-    <cfRule type="expression" dxfId="77" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="73" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="74" stopIfTrue="1">
       <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="75" stopIfTrue="1">
       <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I52">
-    <cfRule type="expression" dxfId="74" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="70" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="71" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="72" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:K52">
-    <cfRule type="expression" dxfId="71" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="67" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="68" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="69" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:L52">
-    <cfRule type="expression" dxfId="68" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="64" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="65" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="66" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:AG56 S54:AG54">
-    <cfRule type="expression" dxfId="65" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="61" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="62" stopIfTrue="1">
       <formula>IF(AND($B54&lt;&gt;"",$I54&lt;&gt;"", $I54&lt;=S$9,S$9&lt;=$J54),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="63" stopIfTrue="1">
       <formula>IF(AND($B54="", $K53&lt;&gt;"",$K53&lt;=S$9,S$9&lt;=$L53),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:AG55">
+    <cfRule type="expression" dxfId="86" priority="58" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="59" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"", $I55&lt;=S$9,S$9&lt;=$J55),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="60" stopIfTrue="1">
+      <formula>IF(AND($B55="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:AG53">
+    <cfRule type="expression" dxfId="83" priority="55" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="56" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"", $I53&lt;=S$9,S$9&lt;=$J53),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="57" stopIfTrue="1">
+      <formula>IF(AND($B53="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J56 M55:R56 B55:G56">
+    <cfRule type="expression" dxfId="80" priority="52" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="53" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="54" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="expression" dxfId="77" priority="49" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="50" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="51" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:R54 B53:G54">
+    <cfRule type="expression" dxfId="74" priority="46" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="47" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="48" stopIfTrue="1">
+      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H54">
+    <cfRule type="expression" dxfId="71" priority="43" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="44" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="45" stopIfTrue="1">
+      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I56">
+    <cfRule type="expression" dxfId="68" priority="40" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="41" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="42" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:K56">
+    <cfRule type="expression" dxfId="65" priority="37" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="38" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="39" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:L56">
+    <cfRule type="expression" dxfId="62" priority="31" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="32" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="33" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S60:AG60 S58:AG58">
     <cfRule type="expression" dxfId="59" priority="28" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="29" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"", $I55&lt;=S$9,S$9&lt;=$J55),TRUE,FALSE)</formula>
+      <formula>IF(AND($B58&lt;&gt;"",$I58&lt;&gt;"", $I58&lt;=S$9,S$9&lt;=$J58),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="30" stopIfTrue="1">
-      <formula>IF(AND($B55="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+      <formula>IF(AND($B58="", $K57&lt;&gt;"",$K57&lt;=S$9,S$9&lt;=$L57),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:AG53">
+  <conditionalFormatting sqref="S59:AG59">
     <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"", $I53&lt;=S$9,S$9&lt;=$J53),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"", $I59&lt;=S$9,S$9&lt;=$J59),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
-      <formula>IF(AND($B53="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J56 M55:R56 B55:G56">
+  <conditionalFormatting sqref="S57:AG57">
     <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"", $I57&lt;=S$9,S$9&lt;=$J57),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+      <formula>IF(AND($B57="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56">
+  <conditionalFormatting sqref="J59:J60 M59:R60 B59:G60">
     <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:R54 B53:G54">
+  <conditionalFormatting sqref="H59:H60">
     <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
-      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
+  <conditionalFormatting sqref="I57:R58 B57:G58">
     <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
-      <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I56">
+  <conditionalFormatting sqref="H57:H58">
     <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:K56">
+  <conditionalFormatting sqref="I59:I60">
     <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55:L56">
+  <conditionalFormatting sqref="K59:K60">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:L60">
     <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M58">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11 M13:M62">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H60">
       <formula1>"XuanDT2,DongDL1,DuongTD1,TuyenTV1,TuanNT22,NamMH,QuyetND2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/management/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/management/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -15,11 +15,11 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Master-Detail'!$A$10:$AJ$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Master-Detail'!$A$10:$AJ$128</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles">NA()</definedName>
     <definedName name="Holiday" localSheetId="0">Setting!$C$5:$C$104</definedName>
     <definedName name="Holiday">Setting!$C$5:$C$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$B$1:$AJ$128</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Master-Detail'!$A$1:$AJ$126</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Master-Detail'!$1:$10</definedName>
     <definedName name="syupo">[1]リスト!$H$2:$H$4</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
   <si>
     <t>○</t>
     <phoneticPr fontId="3"/>
@@ -370,34 +370,13 @@
     <t>Thông tin tham khảo chi tiết</t>
   </si>
   <si>
-    <t>Group master</t>
-  </si>
-  <si>
     <t>Layout Library</t>
-  </si>
-  <si>
-    <t>Layout Group</t>
-  </si>
-  <si>
-    <t>Create group</t>
-  </si>
-  <si>
-    <t>Edit group</t>
   </si>
   <si>
     <t>Demo code</t>
   </si>
   <si>
     <t>Library category</t>
-  </si>
-  <si>
-    <t>Preview detail group</t>
-  </si>
-  <si>
-    <t>Layout group detail</t>
-  </si>
-  <si>
-    <t>Group master detail</t>
   </si>
   <si>
     <t>Vocabulary content</t>
@@ -413,6 +392,27 @@
   </si>
   <si>
     <t>Result group screen</t>
+  </si>
+  <si>
+    <t>Layout Learning</t>
+  </si>
+  <si>
+    <t>Learning master</t>
+  </si>
+  <si>
+    <t>Create Learning</t>
+  </si>
+  <si>
+    <t>Edit Learning</t>
+  </si>
+  <si>
+    <t>Preview detail Learning</t>
+  </si>
+  <si>
+    <t>Layout Learning detail</t>
+  </si>
+  <si>
+    <t>Learning master detail</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1933,196 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="996">
+  <dxfs count="1023">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9558,10 +9747,10 @@
   <dimension ref="A1:AJ128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="14" ySplit="10" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="10" topLeftCell="O65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41:H42"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I103:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15" customHeight="1"/>
@@ -9569,7 +9758,7 @@
     <col min="1" max="1" width="1.375" style="42" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="42" customWidth="1"/>
     <col min="3" max="3" width="3.25" style="42" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="42" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="42" customWidth="1"/>
@@ -9705,11 +9894,11 @@
       </c>
       <c r="I3" s="61">
         <f ca="1">COUNTIF(N15:N128,"=○")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="61">
         <f ca="1">COUNTIF(N15:N128,"=△") + COUNTIF(N15:N128,"=▲")  +  COUNTIF(N15:N128,"=★")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="61">
         <f ca="1">COUNTIF(N15:N128,"=◇")</f>
@@ -9717,11 +9906,11 @@
       </c>
       <c r="L3" s="61">
         <f ca="1">COUNTIF(N15:N128,"=▲")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M3" s="61">
         <f ca="1">COUNTIF(N15:N128,"=★")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
@@ -9877,7 +10066,7 @@
       </c>
       <c r="J8" s="72">
         <f>MAX(J15:J128)</f>
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="K8" s="72">
         <f>IF(MIN(K15:K128)=DATE(1900,1,0),"",MIN(K15:K128))</f>
@@ -9885,7 +10074,7 @@
       </c>
       <c r="L8" s="72">
         <f>IF(MAX(L15:L128)=DATE(1900,1,0),"",MAX(L15:L128))</f>
-        <v>42174</v>
+        <v>42177</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="74" t="str">
@@ -11074,12 +11263,14 @@
       <c r="J29" s="89">
         <v>42177</v>
       </c>
-      <c r="K29" s="89"/>
+      <c r="K29" s="89">
+        <v>42177</v>
+      </c>
       <c r="L29" s="89"/>
       <c r="M29" s="91"/>
       <c r="N29" s="110" t="str">
         <f ca="1">IF(B29="","",IF(AND(I29="",J29="",K29="",L29=""),"",IF(OR(I29="",J29=""),"?",IF(AND(I29&lt;&gt;"",J29&lt;&gt;"",K29&lt;&gt;"",L29&lt;&gt;"",M29=100),"○",IF(AND(I29&lt;=TODAY(),J29&gt;=TODAY(),K29=""),"▲",  IF(J29&lt;TODAY(),"★",IF(K29&lt;&gt;"","△",IF(AND(I29&lt;&gt;""),"◇",""))))))))</f>
-        <v>▲</v>
+        <v>△</v>
       </c>
       <c r="O29" s="112" t="str">
         <f>IF(COUNTA(S29:X29)=0,"",SUMPRODUCT(--(ISNUMBER(S29:X29)),S29:X29)+ (COUNTA(S29:X29)-COUNT(S29:X29))*8)</f>
@@ -11172,12 +11363,14 @@
       <c r="J31" s="89">
         <v>42177</v>
       </c>
-      <c r="K31" s="89"/>
+      <c r="K31" s="89">
+        <v>42177</v>
+      </c>
       <c r="L31" s="89"/>
       <c r="M31" s="91"/>
       <c r="N31" s="93" t="str">
         <f ca="1">IF(B31="","",IF(AND(I31="",J31="",K31="",L31=""),"",IF(OR(I31="",J31=""),"?",IF(AND(I31&lt;&gt;"",J31&lt;&gt;"",K31&lt;&gt;"",L31&lt;&gt;"",M31=100),"○",IF(AND(I31&lt;=TODAY(),J31&gt;=TODAY(),K31=""),"▲",  IF(J31&lt;TODAY(),"★",IF(K31&lt;&gt;"","△",IF(AND(I31&lt;&gt;""),"◇",""))))))))</f>
-        <v>▲</v>
+        <v>△</v>
       </c>
       <c r="O31" s="95">
         <f>IF(COUNTA(S31:X31)=0,"",SUMPRODUCT(--(ISNUMBER(S31:X31)),S31:X31)+ (COUNTA(S31:X31)-COUNT(S31:X31))*8)</f>
@@ -11681,15 +11874,11 @@
       <c r="K41" s="89">
         <v>42172</v>
       </c>
-      <c r="L41" s="89">
-        <v>42174</v>
-      </c>
-      <c r="M41" s="91">
-        <v>100</v>
-      </c>
+      <c r="L41" s="89"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="93" t="str">
         <f ca="1">IF(B41="","",IF(AND(I41="",J41="",K41="",L41=""),"",IF(OR(I41="",J41=""),"?",IF(AND(I41&lt;&gt;"",J41&lt;&gt;"",K41&lt;&gt;"",L41&lt;&gt;"",M41=100),"○",IF(AND(I41&lt;=TODAY(),J41&gt;=TODAY(),K41=""),"▲",  IF(J41&lt;TODAY(),"★",IF(K41&lt;&gt;"","△",IF(AND(I41&lt;&gt;""),"◇",""))))))))</f>
-        <v>○</v>
+        <v>★</v>
       </c>
       <c r="O41" s="95">
         <f>IF(COUNTA(S41:X41)=0,"",SUMPRODUCT(--(ISNUMBER(S41:X41)),S41:X41)+ (COUNTA(S41:X41)-COUNT(S41:X41))*8)</f>
@@ -12042,19 +12231,23 @@
         <v>77</v>
       </c>
       <c r="G49" s="106"/>
-      <c r="H49" s="108"/>
+      <c r="H49" s="108" t="s">
+        <v>65</v>
+      </c>
       <c r="I49" s="89">
         <v>42177</v>
       </c>
       <c r="J49" s="89">
-        <v>42180</v>
-      </c>
-      <c r="K49" s="89"/>
+        <v>42179</v>
+      </c>
+      <c r="K49" s="89">
+        <v>42177</v>
+      </c>
       <c r="L49" s="89"/>
       <c r="M49" s="91"/>
       <c r="N49" s="110" t="str">
         <f ca="1">IF(B49="","",IF(AND(I49="",J49="",K49="",L49=""),"",IF(OR(I49="",J49=""),"?",IF(AND(I49&lt;&gt;"",J49&lt;&gt;"",K49&lt;&gt;"",L49&lt;&gt;"",M49=100),"○",IF(AND(I49&lt;=TODAY(),J49&gt;=TODAY(),K49=""),"▲",  IF(J49&lt;TODAY(),"★",IF(K49&lt;&gt;"","△",IF(AND(I49&lt;&gt;""),"◇",""))))))))</f>
-        <v>▲</v>
+        <v>△</v>
       </c>
       <c r="O49" s="112">
         <f>IF(COUNTA(S49:X49)=0,"",SUMPRODUCT(--(ISNUMBER(S49:X49)),S49:X49)+ (COUNTA(S49:X49)-COUNT(S49:X49))*8)</f>
@@ -12140,10 +12333,10 @@
       <c r="G51" s="106"/>
       <c r="H51" s="108"/>
       <c r="I51" s="89">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="J51" s="89">
-        <v>42181</v>
+        <v>42180</v>
       </c>
       <c r="K51" s="89"/>
       <c r="L51" s="89"/>
@@ -12302,7 +12495,7 @@
       </c>
       <c r="C55" s="102"/>
       <c r="D55" s="104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="104" t="s">
         <v>86</v>
@@ -12411,7 +12604,7 @@
       <c r="C57" s="102"/>
       <c r="D57" s="104"/>
       <c r="E57" s="104" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F57" s="106" t="s">
         <v>77</v>
@@ -12535,8 +12728,12 @@
       <c r="K59" s="89">
         <v>42174</v>
       </c>
-      <c r="L59" s="89"/>
-      <c r="M59" s="91"/>
+      <c r="L59" s="89">
+        <v>42177</v>
+      </c>
+      <c r="M59" s="91">
+        <v>80</v>
+      </c>
       <c r="N59" s="93" t="str">
         <f ca="1">IF(B59="","",IF(AND(I59="",J59="",K59="",L59=""),"",IF(OR(I59="",J59=""),"?",IF(AND(I59&lt;&gt;"",J59&lt;&gt;"",K59&lt;&gt;"",L59&lt;&gt;"",M59=100),"○",IF(AND(I59&lt;=TODAY(),J59&gt;=TODAY(),K59=""),"▲",  IF(J59&lt;TODAY(),"★",IF(K59&lt;&gt;"","△",IF(AND(I59&lt;&gt;""),"◇",""))))))))</f>
         <v>★</v>
@@ -12634,12 +12831,14 @@
       <c r="J61" s="89">
         <v>42177</v>
       </c>
-      <c r="K61" s="89"/>
+      <c r="K61" s="89">
+        <v>42177</v>
+      </c>
       <c r="L61" s="89"/>
       <c r="M61" s="91"/>
       <c r="N61" s="110" t="str">
         <f ca="1">IF(B61="","",IF(AND(I61="",J61="",K61="",L61=""),"",IF(OR(I61="",J61=""),"?",IF(AND(I61&lt;&gt;"",J61&lt;&gt;"",K61&lt;&gt;"",L61&lt;&gt;"",M61=100),"○",IF(AND(I61&lt;=TODAY(),J61&gt;=TODAY(),K61=""),"▲",  IF(J61&lt;TODAY(),"★",IF(K61&lt;&gt;"","△",IF(AND(I61&lt;&gt;""),"◇",""))))))))</f>
-        <v>▲</v>
+        <v>△</v>
       </c>
       <c r="O61" s="112">
         <f>IF(COUNTA(S61:X61)=0,"",SUMPRODUCT(--(ISNUMBER(S61:X61)),S61:X61)+ (COUNTA(S61:X61)-COUNT(S61:X61))*8)</f>
@@ -12810,15 +13009,11 @@
       <c r="K65" s="89">
         <v>42174</v>
       </c>
-      <c r="L65" s="89">
-        <v>42174</v>
-      </c>
-      <c r="M65" s="91">
-        <v>100</v>
-      </c>
+      <c r="L65" s="89"/>
+      <c r="M65" s="91"/>
       <c r="N65" s="110" t="str">
         <f ca="1">IF(B65="","",IF(AND(I65="",J65="",K65="",L65=""),"",IF(OR(I65="",J65=""),"?",IF(AND(I65&lt;&gt;"",J65&lt;&gt;"",K65&lt;&gt;"",L65&lt;&gt;"",M65=100),"○",IF(AND(I65&lt;=TODAY(),J65&gt;=TODAY(),K65=""),"▲",  IF(J65&lt;TODAY(),"★",IF(K65&lt;&gt;"","△",IF(AND(I65&lt;&gt;""),"◇",""))))))))</f>
-        <v>○</v>
+        <v>★</v>
       </c>
       <c r="O65" s="112">
         <f>IF(COUNTA(S65:X65)=0,"",SUMPRODUCT(--(ISNUMBER(S65:X65)),S65:X65)+ (COUNTA(S65:X65)-COUNT(S65:X65))*8)</f>
@@ -12898,7 +13093,7 @@
       <c r="C67" s="102"/>
       <c r="D67" s="104"/>
       <c r="E67" s="104" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F67" s="106" t="s">
         <v>56</v>
@@ -12916,15 +13111,11 @@
       <c r="K67" s="89">
         <v>42174</v>
       </c>
-      <c r="L67" s="89">
-        <v>42174</v>
-      </c>
-      <c r="M67" s="91">
-        <v>100</v>
-      </c>
+      <c r="L67" s="89"/>
+      <c r="M67" s="91"/>
       <c r="N67" s="110" t="str">
         <f ca="1">IF(B67="","",IF(AND(I67="",J67="",K67="",L67=""),"",IF(OR(I67="",J67=""),"?",IF(AND(I67&lt;&gt;"",J67&lt;&gt;"",K67&lt;&gt;"",L67&lt;&gt;"",M67=100),"○",IF(AND(I67&lt;=TODAY(),J67&gt;=TODAY(),K67=""),"▲",  IF(J67&lt;TODAY(),"★",IF(K67&lt;&gt;"","△",IF(AND(I67&lt;&gt;""),"◇",""))))))))</f>
-        <v>○</v>
+        <v>★</v>
       </c>
       <c r="O67" s="112">
         <f>IF(COUNTA(S67:X67)=0,"",SUMPRODUCT(--(ISNUMBER(S67:X67)),S67:X67)+ (COUNTA(S67:X67)-COUNT(S67:X67))*8)</f>
@@ -13272,10 +13463,10 @@
       </c>
       <c r="C75" s="102"/>
       <c r="D75" s="104" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E75" s="104" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F75" s="106" t="s">
         <v>77</v>
@@ -13381,14 +13572,14 @@
       <c r="C77" s="102"/>
       <c r="D77" s="104"/>
       <c r="E77" s="104" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F77" s="106" t="s">
         <v>77</v>
       </c>
       <c r="G77" s="106"/>
       <c r="H77" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I77" s="89">
         <v>42172</v>
@@ -13483,14 +13674,14 @@
       <c r="C79" s="102"/>
       <c r="D79" s="104"/>
       <c r="E79" s="104" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F79" s="106" t="s">
         <v>77</v>
       </c>
       <c r="G79" s="106"/>
       <c r="H79" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I79" s="89">
         <v>42177</v>
@@ -13583,14 +13774,14 @@
       <c r="C81" s="102"/>
       <c r="D81" s="104"/>
       <c r="E81" s="104" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F81" s="106" t="s">
         <v>77</v>
       </c>
       <c r="G81" s="106"/>
       <c r="H81" s="108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I81" s="89">
         <v>42178</v>
@@ -13756,7 +13947,7 @@
       <c r="C85" s="102"/>
       <c r="D85" s="104"/>
       <c r="E85" s="104" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F85" s="106" t="s">
         <v>56</v>
@@ -13854,7 +14045,7 @@
       <c r="C87" s="102"/>
       <c r="D87" s="104"/>
       <c r="E87" s="104" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F87" s="106" t="s">
         <v>56</v>
@@ -13952,7 +14143,7 @@
       <c r="C89" s="102"/>
       <c r="D89" s="104"/>
       <c r="E89" s="104" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F89" s="106" t="s">
         <v>56</v>
@@ -14050,7 +14241,7 @@
       <c r="C91" s="102"/>
       <c r="D91" s="104"/>
       <c r="E91" s="104" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F91" s="106" t="s">
         <v>56</v>
@@ -14220,10 +14411,10 @@
       </c>
       <c r="C95" s="102"/>
       <c r="D95" s="104" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E95" s="104" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F95" s="106" t="s">
         <v>77</v>
@@ -14329,7 +14520,7 @@
       <c r="C97" s="102"/>
       <c r="D97" s="104"/>
       <c r="E97" s="104" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F97" s="106" t="s">
         <v>77</v>
@@ -14429,7 +14620,7 @@
       <c r="C99" s="102"/>
       <c r="D99" s="104"/>
       <c r="E99" s="104" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F99" s="106" t="s">
         <v>77</v>
@@ -14529,7 +14720,7 @@
       <c r="C101" s="102"/>
       <c r="D101" s="104"/>
       <c r="E101" s="104" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F101" s="106" t="s">
         <v>77</v>
@@ -14629,7 +14820,7 @@
       <c r="C103" s="102"/>
       <c r="D103" s="104"/>
       <c r="E103" s="104" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F103" s="106" t="s">
         <v>77</v>
@@ -14877,7 +15068,7 @@
         <v>73</v>
       </c>
       <c r="E109" s="104" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F109" s="106" t="s">
         <v>73</v>
@@ -15255,7 +15446,7 @@
       </c>
       <c r="C117" s="102"/>
       <c r="D117" s="104" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E117" s="104" t="s">
         <v>76</v>
@@ -15279,10 +15470,12 @@
       <c r="L117" s="89">
         <v>42174</v>
       </c>
-      <c r="M117" s="91"/>
+      <c r="M117" s="91">
+        <v>100</v>
+      </c>
       <c r="N117" s="93" t="str">
         <f ca="1">IF(B117="","",IF(AND(I117="",J117="",K117="",L117=""),"",IF(OR(I117="",J117=""),"?",IF(AND(I117&lt;&gt;"",J117&lt;&gt;"",K117&lt;&gt;"",L117&lt;&gt;"",M117=100),"○",IF(AND(I117&lt;=TODAY(),J117&gt;=TODAY(),K117=""),"▲",  IF(J117&lt;TODAY(),"★",IF(K117&lt;&gt;"","△",IF(AND(I117&lt;&gt;""),"◇",""))))))))</f>
-        <v>★</v>
+        <v>○</v>
       </c>
       <c r="O117" s="95">
         <f>IF(COUNTA(S117:X117)=0,"",SUMPRODUCT(--(ISNUMBER(S117:X117)),S117:X117)+ (COUNTA(S117:X117)-COUNT(S117:X117))*8)</f>
@@ -15793,7 +15986,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A10:AJ10">
+  <autoFilter ref="A10:AJ128">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <dataConsolidate/>
@@ -16882,3558 +17075,3580 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">
-    <cfRule type="expression" dxfId="995" priority="52619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1022" priority="52634" stopIfTrue="1">
       <formula>IF(TEXT(S$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="52620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1021" priority="52635" stopIfTrue="1">
       <formula>OR(IF(TEXT(S$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:AG10">
-    <cfRule type="expression" dxfId="993" priority="52621" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1020" priority="52636" stopIfTrue="1">
       <formula>IF(S$9=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="52622" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1019" priority="52637" stopIfTrue="1">
       <formula>IF(WEEKDAY(S$9)=7,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="991" priority="52623" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1018" priority="52638" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:X14 S16:AG16 S34:AG34 S36:AG36 S38:AG38 S40:AG42 S44:AG46 S30:AG32 S54:AG54 S52:AG52 S62:AG62 S64:AG64 S82:AG82 S74:AG74 S80:AG80 S78:AG78 S76:AG76 S92:AG92 S84:AG84 S90:AG90 S88:AG88 S86:AG86 S106:AG106 S72:AG72 S58:AG60 S66:AG66 S70:AG70 S112:AG112 S110:AG110 S118:AG118 S108:AG108 S128:AG128 S122:AG122 S120:AG120 S126:AG126 S124:AG124 S114:AG116">
-    <cfRule type="expression" dxfId="990" priority="67132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1017" priority="67147" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="67133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1016" priority="67148" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=S$9,S$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="67134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1015" priority="67149" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=S$9,S$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:R128 B33:G36 I33:R34 B11:R14 B15:E16 J117:J118 M117:R118 B117:C118 M51:R52 E117:G118 M61:R62 G61:G62 M71:R72 G71:G72 G15:R16 I35:K36 M35:R36">
-    <cfRule type="expression" dxfId="987" priority="67150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1014" priority="67165" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$L11&lt;&gt;"",$M11=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="67151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1013" priority="67166" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$J11&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="67152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1012" priority="67167" stopIfTrue="1">
       <formula>IF(OR(AND($B11&lt;&gt;"",$I11&lt;&gt;"",$J11&lt;&gt;"",$K11&lt;&gt;"",$M11&lt;100),AND($I11&lt;&gt;"",$J11&lt;&gt;"",TODAY()&gt;=$I11)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:AG33 S37:AG37 S35:AG35 S39:AG39 S43:AG43 S57:AG57 S65:AG65 S71:AG71 S79:AG79 S75:AG75 S89:AG89 S85:AG85 S113:AG113 S109:AG109 S111:AG111 S117:AG117 S127:AG127 S121:AG121 S119:AG119 S125:AG125 S123:AG123">
-    <cfRule type="expression" dxfId="984" priority="67327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1011" priority="67342" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="983" priority="67328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1010" priority="67343" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"", $I33&lt;=S$9,S$9&lt;=$J33),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="67329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1009" priority="67344" stopIfTrue="1">
       <formula>IF(AND($B33="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:X15">
-    <cfRule type="expression" dxfId="981" priority="67339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1008" priority="67354" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="67340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1007" priority="67355" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=S$9,S$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="979" priority="67341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1006" priority="67356" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=S$9,S$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:X11">
-    <cfRule type="expression" dxfId="978" priority="67381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1005" priority="67396" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="67382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1004" priority="67397" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=S$9,S$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="67383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1003" priority="67398" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:AD8">
-    <cfRule type="expression" dxfId="975" priority="1713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1002" priority="1728" stopIfTrue="1">
       <formula>IF(TEXT(Y$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="1714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1001" priority="1729" stopIfTrue="1">
       <formula>OR(IF(TEXT(Y$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:AD14">
-    <cfRule type="expression" dxfId="973" priority="1707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1000" priority="1722" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="1708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="999" priority="1723" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=Y$9,Y$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="971" priority="1709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="998" priority="1724" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=Y$9,Y$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15:AD15">
-    <cfRule type="expression" dxfId="970" priority="1701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="997" priority="1716" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="1702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="996" priority="1717" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=Y$9,Y$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="1703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="995" priority="1718" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=Y$9,Y$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:AD11">
-    <cfRule type="expression" dxfId="967" priority="1698" stopIfTrue="1">
+    <cfRule type="expression" dxfId="994" priority="1713" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(Y$9)=7,WEEKDAY(Y$9)=1,IF(ISNA(MATCH(Y$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="1699" stopIfTrue="1">
+    <cfRule type="expression" dxfId="993" priority="1714" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=Y$9,Y$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="1700" stopIfTrue="1">
+    <cfRule type="expression" dxfId="992" priority="1715" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=Y$9,Y$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AG8">
-    <cfRule type="expression" dxfId="964" priority="1684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="991" priority="1699" stopIfTrue="1">
       <formula>IF(TEXT(AE$9,"d")="1",TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="963" priority="1685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="990" priority="1700" stopIfTrue="1">
       <formula>OR(IF(TEXT(AE$9,"d")&lt;&gt;"1",TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AG14">
-    <cfRule type="expression" dxfId="962" priority="1681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="989" priority="1696" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="1682" stopIfTrue="1">
+    <cfRule type="expression" dxfId="988" priority="1697" stopIfTrue="1">
       <formula>IF(AND($B12&lt;&gt;"",$I12&lt;&gt;"", $I12&lt;=AE$9,AE$9&lt;=$J12),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="1683" stopIfTrue="1">
+    <cfRule type="expression" dxfId="987" priority="1698" stopIfTrue="1">
       <formula>IF(AND($B12="", $K11&lt;&gt;"",$K11&lt;=AE$9,AE$9&lt;=$L11),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:AG15">
-    <cfRule type="expression" dxfId="959" priority="1675" stopIfTrue="1">
+    <cfRule type="expression" dxfId="986" priority="1690" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="1676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="985" priority="1691" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"", $I15&lt;=AE$9,AE$9&lt;=$J15),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="1677" stopIfTrue="1">
+    <cfRule type="expression" dxfId="984" priority="1692" stopIfTrue="1">
       <formula>IF(AND($B15="", $K10&lt;&gt;"",$K10&lt;=AE$9,AE$9&lt;=$L10),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AG11">
-    <cfRule type="expression" dxfId="956" priority="1672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="983" priority="1687" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(AE$9)=7,WEEKDAY(AE$9)=1,IF(ISNA(MATCH(AE$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="955" priority="1673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="982" priority="1688" stopIfTrue="1">
       <formula>IF(AND($B11&lt;&gt;"",$I11&lt;&gt;"", $I11&lt;=AE$9,AE$9&lt;=$J11),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="1674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="981" priority="1689" stopIfTrue="1">
       <formula>IF(AND($B11="", #REF!&lt;&gt;"",#REF!&lt;=AE$9,AE$9&lt;=#REF!),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H36">
-    <cfRule type="expression" dxfId="953" priority="1657" stopIfTrue="1">
+    <cfRule type="expression" dxfId="980" priority="1672" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="1658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="979" priority="1673" stopIfTrue="1">
       <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="951" priority="1659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="978" priority="1674" stopIfTrue="1">
       <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="expression" dxfId="950" priority="1654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="977" priority="1669" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$L33&lt;&gt;"",$M33=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="1655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="976" priority="1670" stopIfTrue="1">
       <formula>IF(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$J33&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="1656" stopIfTrue="1">
+    <cfRule type="expression" dxfId="975" priority="1671" stopIfTrue="1">
       <formula>IF(OR(AND($B33&lt;&gt;"",$I33&lt;&gt;"",$J33&lt;&gt;"",$K33&lt;&gt;"",$M33&lt;100),AND($I33&lt;&gt;"",$J33&lt;&gt;"",TODAY()&gt;=$I33)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:R54 B37:G42 I39:I42 M109:R114 B109:G114 B53:G54 J109:J114 M37:R42">
-    <cfRule type="expression" dxfId="947" priority="1627" stopIfTrue="1">
+  <conditionalFormatting sqref="I53:R54 B37:G42 I39:I42 M37:R42 M109:R114 B109:G114 B53:G54 J109:J114">
+    <cfRule type="expression" dxfId="974" priority="1642" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="1628" stopIfTrue="1">
+    <cfRule type="expression" dxfId="973" priority="1643" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="1629" stopIfTrue="1">
+    <cfRule type="expression" dxfId="972" priority="1644" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H110">
-    <cfRule type="expression" dxfId="944" priority="1585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="971" priority="1600" stopIfTrue="1">
       <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="943" priority="1586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="970" priority="1601" stopIfTrue="1">
       <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="1587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="969" priority="1602" stopIfTrue="1">
       <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H40">
-    <cfRule type="expression" dxfId="941" priority="1600" stopIfTrue="1">
+    <cfRule type="expression" dxfId="968" priority="1615" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="1601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="967" priority="1616" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="939" priority="1602" stopIfTrue="1">
+    <cfRule type="expression" dxfId="966" priority="1617" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H38">
-    <cfRule type="expression" dxfId="938" priority="1597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="965" priority="1612" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="1598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="964" priority="1613" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="1599" stopIfTrue="1">
+    <cfRule type="expression" dxfId="963" priority="1614" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="expression" dxfId="935" priority="1594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="962" priority="1609" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="1595" stopIfTrue="1">
+    <cfRule type="expression" dxfId="961" priority="1610" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="1596" stopIfTrue="1">
+    <cfRule type="expression" dxfId="960" priority="1611" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53:H54">
-    <cfRule type="expression" dxfId="932" priority="1591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="959" priority="1606" stopIfTrue="1">
       <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$L53&lt;&gt;"",$M53=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="931" priority="1592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="958" priority="1607" stopIfTrue="1">
       <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$J53&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="1593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="957" priority="1608" stopIfTrue="1">
       <formula>IF(OR(AND($B53&lt;&gt;"",$I53&lt;&gt;"",$J53&lt;&gt;"",$K53&lt;&gt;"",$M53&lt;100),AND($I53&lt;&gt;"",$J53&lt;&gt;"",TODAY()&gt;=$I53)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H114">
-    <cfRule type="expression" dxfId="929" priority="1582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="956" priority="1597" stopIfTrue="1">
       <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="1583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="955" priority="1598" stopIfTrue="1">
       <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="927" priority="1584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="954" priority="1599" stopIfTrue="1">
       <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:H112">
-    <cfRule type="expression" dxfId="926" priority="1588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="953" priority="1603" stopIfTrue="1">
       <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="1589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="952" priority="1604" stopIfTrue="1">
       <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="1590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="951" priority="1605" stopIfTrue="1">
       <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I38">
-    <cfRule type="expression" dxfId="923" priority="1579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="950" priority="1594" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="1580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="949" priority="1595" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="1581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="948" priority="1596" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K40">
-    <cfRule type="expression" dxfId="920" priority="1555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="947" priority="1570" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="919" priority="1556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="946" priority="1571" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="1557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="945" priority="1572" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K38">
-    <cfRule type="expression" dxfId="917" priority="1573" stopIfTrue="1">
+    <cfRule type="expression" dxfId="944" priority="1588" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="1574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="943" priority="1589" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="915" priority="1575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="942" priority="1590" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L42">
+    <cfRule type="expression" dxfId="941" priority="1561" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="940" priority="1562" stopIfTrue="1">
+      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="939" priority="1563" stopIfTrue="1">
+      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J37:J38">
-    <cfRule type="expression" dxfId="911" priority="1564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="938" priority="1579" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="1565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="937" priority="1580" stopIfTrue="1">
       <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="1566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="936" priority="1581" stopIfTrue="1">
       <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J40">
-    <cfRule type="expression" dxfId="908" priority="1561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="935" priority="1576" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="907" priority="1562" stopIfTrue="1">
+    <cfRule type="expression" dxfId="934" priority="1577" stopIfTrue="1">
       <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="1563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="933" priority="1578" stopIfTrue="1">
       <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:J42">
-    <cfRule type="expression" dxfId="905" priority="1558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="932" priority="1573" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="1559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="931" priority="1574" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="903" priority="1560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="930" priority="1575" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:K42">
-    <cfRule type="expression" dxfId="902" priority="1552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="929" priority="1567" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="1553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="928" priority="1568" stopIfTrue="1">
       <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="1554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="927" priority="1569" stopIfTrue="1">
       <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:AG18">
-    <cfRule type="expression" dxfId="899" priority="1543" stopIfTrue="1">
+    <cfRule type="expression" dxfId="926" priority="1558" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="1544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="925" priority="1559" stopIfTrue="1">
       <formula>IF(AND($B18&lt;&gt;"",$I18&lt;&gt;"", $I18&lt;=S$9,S$9&lt;=$J18),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="1545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="924" priority="1560" stopIfTrue="1">
       <formula>IF(AND($B18="", $K17&lt;&gt;"",$K17&lt;=S$9,S$9&lt;=$L17),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E18 G17:K18 M17:R18">
-    <cfRule type="expression" dxfId="896" priority="1540" stopIfTrue="1">
+    <cfRule type="expression" dxfId="923" priority="1555" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="895" priority="1541" stopIfTrue="1">
+    <cfRule type="expression" dxfId="922" priority="1556" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="1542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="921" priority="1557" stopIfTrue="1">
       <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AG17 S69:AG69">
-    <cfRule type="expression" dxfId="893" priority="1537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="920" priority="1552" stopIfTrue="1">
       <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="1538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="919" priority="1553" stopIfTrue="1">
       <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"", $I17&lt;=S$9,S$9&lt;=$J17),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="891" priority="1539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="918" priority="1554" stopIfTrue="1">
       <formula>IF(AND($B17="", $K14&lt;&gt;"",$K14&lt;=S$9,S$9&lt;=$L14),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="890" priority="1534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="917" priority="1549" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$L15&lt;&gt;"",$M15=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="1535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="916" priority="1550" stopIfTrue="1">
       <formula>IF(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$J15&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="1536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="915" priority="1551" stopIfTrue="1">
       <formula>IF(OR(AND($B15&lt;&gt;"",$I15&lt;&gt;"",$J15&lt;&gt;"",$K15&lt;&gt;"",$M15&lt;100),AND($I15&lt;&gt;"",$J15&lt;&gt;"",TODAY()&gt;=$I15)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107:R108 B59:E60 I59:I60 M57:R60 B57:C58 E57:E58 B107:G108 G57:G60">
-    <cfRule type="expression" dxfId="887" priority="1528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="914" priority="1543" stopIfTrue="1">
       <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="1529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="913" priority="1544" stopIfTrue="1">
       <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="1530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="912" priority="1545" stopIfTrue="1">
       <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H58">
-    <cfRule type="expression" dxfId="884" priority="1525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="911" priority="1540" stopIfTrue="1">
       <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="883" priority="1526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="910" priority="1541" stopIfTrue="1">
       <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="1527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="909" priority="1542" stopIfTrue="1">
       <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="expression" dxfId="881" priority="1522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="908" priority="1537" stopIfTrue="1">
       <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="1523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="907" priority="1538" stopIfTrue="1">
       <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="879" priority="1524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="906" priority="1539" stopIfTrue="1">
       <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:H108">
-    <cfRule type="expression" dxfId="878" priority="1519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="905" priority="1534" stopIfTrue="1">
       <formula>IF(AND($B107&lt;&gt;"",$I107&lt;&gt;"",$J107&lt;&gt;"",$K107&lt;&gt;"",$L107&lt;&gt;"",$M107=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="1520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="904" priority="1535" stopIfTrue="1">
       <formula>IF(AND($B107&lt;&gt;"",$I107&lt;&gt;"",$J107&lt;&gt;"",$J107&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="1521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="903" priority="1536" stopIfTrue="1">
       <formula>IF(OR(AND($B107&lt;&gt;"",$I107&lt;&gt;"",$J107&lt;&gt;"",$K107&lt;&gt;"",$M107&lt;100),AND($I107&lt;&gt;"",$J107&lt;&gt;"",TODAY()&gt;=$I107)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J57:J58">
+    <cfRule type="expression" dxfId="899" priority="1522" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="898" priority="1523" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="897" priority="1524" stopIfTrue="1">
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109:I110">
+    <cfRule type="expression" dxfId="896" priority="1510" stopIfTrue="1">
+      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="895" priority="1511" stopIfTrue="1">
+      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="894" priority="1512" stopIfTrue="1">
+      <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111:I112">
+    <cfRule type="expression" dxfId="893" priority="1507" stopIfTrue="1">
+      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="892" priority="1508" stopIfTrue="1">
+      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="891" priority="1509" stopIfTrue="1">
+      <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113:I114">
+    <cfRule type="expression" dxfId="890" priority="1504" stopIfTrue="1">
+      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="889" priority="1505" stopIfTrue="1">
+      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="888" priority="1506" stopIfTrue="1">
+      <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109:K110">
+    <cfRule type="expression" dxfId="887" priority="1501" stopIfTrue="1">
+      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="886" priority="1502" stopIfTrue="1">
+      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="885" priority="1503" stopIfTrue="1">
+      <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:K112">
+    <cfRule type="expression" dxfId="884" priority="1498" stopIfTrue="1">
+      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="883" priority="1499" stopIfTrue="1">
+      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="882" priority="1500" stopIfTrue="1">
+      <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K113:K114">
+    <cfRule type="expression" dxfId="881" priority="1495" stopIfTrue="1">
+      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="880" priority="1496" stopIfTrue="1">
+      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="879" priority="1497" stopIfTrue="1">
+      <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L109:L110">
+    <cfRule type="expression" dxfId="878" priority="1492" stopIfTrue="1">
+      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="877" priority="1493" stopIfTrue="1">
+      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="876" priority="1494" stopIfTrue="1">
+      <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L111:L112">
+    <cfRule type="expression" dxfId="875" priority="1489" stopIfTrue="1">
+      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="874" priority="1490" stopIfTrue="1">
+      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="873" priority="1491" stopIfTrue="1">
+      <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L113:L114">
+    <cfRule type="expression" dxfId="872" priority="1486" stopIfTrue="1">
+      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="871" priority="1487" stopIfTrue="1">
+      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="870" priority="1488" stopIfTrue="1">
+      <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D58">
+    <cfRule type="expression" dxfId="869" priority="1483" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="868" priority="1484" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="867" priority="1485" stopIfTrue="1">
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117:H118">
+    <cfRule type="expression" dxfId="866" priority="1471" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="865" priority="1472" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="864" priority="1473" stopIfTrue="1">
+      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115:R116 B115:G116">
+    <cfRule type="expression" dxfId="863" priority="1459" stopIfTrue="1">
+      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$L115&lt;&gt;"",$M115=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="862" priority="1460" stopIfTrue="1">
+      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$J115&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="861" priority="1461" stopIfTrue="1">
+      <formula>IF(OR(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$M115&lt;100),AND($I115&lt;&gt;"",$J115&lt;&gt;"",TODAY()&gt;=$I115)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115:H116">
+    <cfRule type="expression" dxfId="860" priority="1456" stopIfTrue="1">
+      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$L115&lt;&gt;"",$M115=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="859" priority="1457" stopIfTrue="1">
+      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$J115&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="858" priority="1458" stopIfTrue="1">
+      <formula>IF(OR(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$M115&lt;100),AND($I115&lt;&gt;"",$J115&lt;&gt;"",TODAY()&gt;=$I115)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117:I118">
+    <cfRule type="expression" dxfId="857" priority="1453" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="856" priority="1454" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="855" priority="1455" stopIfTrue="1">
+      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K117:K118">
+    <cfRule type="expression" dxfId="854" priority="1444" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="853" priority="1445" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="852" priority="1446" stopIfTrue="1">
+      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="expression" dxfId="851" priority="1426" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="850" priority="1427" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="849" priority="1428" stopIfTrue="1">
+      <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J121:J122 M121:R122 B121:G122">
+    <cfRule type="expression" dxfId="848" priority="1381" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="847" priority="1382" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="846" priority="1383" stopIfTrue="1">
+      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121:H122">
+    <cfRule type="expression" dxfId="845" priority="1378" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="844" priority="1379" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="843" priority="1380" stopIfTrue="1">
+      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119:R120 B119:G120">
+    <cfRule type="expression" dxfId="842" priority="1375" stopIfTrue="1">
+      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$L119&lt;&gt;"",$M119=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="841" priority="1376" stopIfTrue="1">
+      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$J119&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="840" priority="1377" stopIfTrue="1">
+      <formula>IF(OR(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$M119&lt;100),AND($I119&lt;&gt;"",$J119&lt;&gt;"",TODAY()&gt;=$I119)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H119:H120">
+    <cfRule type="expression" dxfId="839" priority="1372" stopIfTrue="1">
+      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$L119&lt;&gt;"",$M119=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="838" priority="1373" stopIfTrue="1">
+      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$J119&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="837" priority="1374" stopIfTrue="1">
+      <formula>IF(OR(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$M119&lt;100),AND($I119&lt;&gt;"",$J119&lt;&gt;"",TODAY()&gt;=$I119)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121:I122">
+    <cfRule type="expression" dxfId="836" priority="1369" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="835" priority="1370" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="834" priority="1371" stopIfTrue="1">
+      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K121:K122">
+    <cfRule type="expression" dxfId="833" priority="1366" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="832" priority="1367" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="831" priority="1368" stopIfTrue="1">
+      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L121:L122">
+    <cfRule type="expression" dxfId="830" priority="1360" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="829" priority="1361" stopIfTrue="1">
+      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="828" priority="1362" stopIfTrue="1">
+      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125:J126 M125:R126 B125:G126">
+    <cfRule type="expression" dxfId="827" priority="1348" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="826" priority="1349" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="825" priority="1350" stopIfTrue="1">
+      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H125:H126">
+    <cfRule type="expression" dxfId="824" priority="1345" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="823" priority="1346" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="822" priority="1347" stopIfTrue="1">
+      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123:R124 B123:G124">
+    <cfRule type="expression" dxfId="821" priority="1342" stopIfTrue="1">
+      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$L123&lt;&gt;"",$M123=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="820" priority="1343" stopIfTrue="1">
+      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$J123&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="819" priority="1344" stopIfTrue="1">
+      <formula>IF(OR(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$M123&lt;100),AND($I123&lt;&gt;"",$J123&lt;&gt;"",TODAY()&gt;=$I123)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H123:H124">
+    <cfRule type="expression" dxfId="818" priority="1339" stopIfTrue="1">
+      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$L123&lt;&gt;"",$M123=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="817" priority="1340" stopIfTrue="1">
+      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$J123&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="816" priority="1341" stopIfTrue="1">
+      <formula>IF(OR(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$M123&lt;100),AND($I123&lt;&gt;"",$J123&lt;&gt;"",TODAY()&gt;=$I123)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I125:I126">
+    <cfRule type="expression" dxfId="815" priority="1336" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="814" priority="1337" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="813" priority="1338" stopIfTrue="1">
+      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K125:K126">
+    <cfRule type="expression" dxfId="812" priority="1333" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="811" priority="1334" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="810" priority="1335" stopIfTrue="1">
+      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:G46 M43:R46 B43:C44 E43:G44 I43:I46">
+    <cfRule type="expression" dxfId="809" priority="1324" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="808" priority="1325" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="807" priority="1326" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H44">
+    <cfRule type="expression" dxfId="806" priority="1321" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="805" priority="1322" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="804" priority="1323" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H46">
+    <cfRule type="expression" dxfId="803" priority="1318" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="802" priority="1319" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="801" priority="1320" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:K44">
+    <cfRule type="expression" dxfId="800" priority="1312" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="799" priority="1313" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="798" priority="1314" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:L46">
+    <cfRule type="expression" dxfId="797" priority="1309" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="796" priority="1310" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="795" priority="1311" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:K46">
+    <cfRule type="expression" dxfId="794" priority="1300" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="793" priority="1301" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="792" priority="1302" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:L44">
+    <cfRule type="expression" dxfId="791" priority="1297" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="790" priority="1298" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="789" priority="1299" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="expression" dxfId="788" priority="1294" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="787" priority="1295" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="786" priority="1296" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:AG29">
+    <cfRule type="expression" dxfId="785" priority="1285" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="784" priority="1286" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=S$9,S$9&lt;=$J29),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="783" priority="1287" stopIfTrue="1">
+      <formula>IF(AND($B29="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:E32 M29:R32 B29:C30 E29:E30 G29:G32">
+    <cfRule type="expression" dxfId="782" priority="1282" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="781" priority="1283" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="780" priority="1284" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="expression" dxfId="779" priority="1279" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="778" priority="1280" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="777" priority="1281" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H32">
+    <cfRule type="expression" dxfId="776" priority="1276" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="775" priority="1277" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="774" priority="1278" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:L32">
+    <cfRule type="expression" dxfId="770" priority="1270" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="769" priority="1271" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="768" priority="1272" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L30">
+    <cfRule type="expression" dxfId="764" priority="1261" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="763" priority="1262" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="762" priority="1263" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D30">
+    <cfRule type="expression" dxfId="761" priority="1258" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="760" priority="1259" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="759" priority="1260" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F32">
+    <cfRule type="expression" dxfId="758" priority="1249" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="757" priority="1250" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="756" priority="1251" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43:J44">
+    <cfRule type="expression" dxfId="755" priority="1246" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="754" priority="1247" stopIfTrue="1">
+      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="753" priority="1248" stopIfTrue="1">
+      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:J46">
+    <cfRule type="expression" dxfId="752" priority="1243" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="751" priority="1244" stopIfTrue="1">
+      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="750" priority="1245" stopIfTrue="1">
+      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:AG20 S22:AG22 S24:AG24 S26:AG28">
+    <cfRule type="expression" dxfId="749" priority="1240" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="748" priority="1241" stopIfTrue="1">
+      <formula>IF(AND($B20&lt;&gt;"",$I20&lt;&gt;"", $I20&lt;=S$9,S$9&lt;=$J20),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="747" priority="1242" stopIfTrue="1">
+      <formula>IF(AND($B20="", $K19&lt;&gt;"",$K19&lt;=S$9,S$9&lt;=$L19),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:G20 B21:E22 G21:G22 I19:R22">
+    <cfRule type="expression" dxfId="746" priority="1237" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="745" priority="1238" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="744" priority="1239" stopIfTrue="1">
+      <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:AG19 S23:AG23 S21:AG21 S25:AG25">
+    <cfRule type="expression" dxfId="743" priority="1234" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="742" priority="1235" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"", $I19&lt;=S$9,S$9&lt;=$J19),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="741" priority="1236" stopIfTrue="1">
+      <formula>IF(AND($B19="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H22">
+    <cfRule type="expression" dxfId="740" priority="1231" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="739" priority="1232" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="738" priority="1233" stopIfTrue="1">
+      <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H20">
+    <cfRule type="expression" dxfId="737" priority="1228" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="736" priority="1229" stopIfTrue="1">
+      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="735" priority="1230" stopIfTrue="1">
+      <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I28 M23:R28 B23:E28 G23:G28">
+    <cfRule type="expression" dxfId="734" priority="1225" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="733" priority="1226" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="732" priority="1227" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H26">
+    <cfRule type="expression" dxfId="731" priority="1222" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="730" priority="1223" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="729" priority="1224" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="728" priority="1219" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="727" priority="1220" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="726" priority="1221" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="expression" dxfId="725" priority="1216" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="724" priority="1217" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="723" priority="1218" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I24">
+    <cfRule type="expression" dxfId="722" priority="1213" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="721" priority="1214" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="720" priority="1215" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K26">
+    <cfRule type="expression" dxfId="719" priority="1210" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="718" priority="1211" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="717" priority="1212" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K24">
+    <cfRule type="expression" dxfId="716" priority="1207" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="715" priority="1208" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="714" priority="1209" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L28">
+    <cfRule type="expression" dxfId="713" priority="1204" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="712" priority="1205" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="711" priority="1206" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J24">
+    <cfRule type="expression" dxfId="710" priority="1198" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="709" priority="1199" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="708" priority="1200" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J26">
+    <cfRule type="expression" dxfId="707" priority="1195" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="706" priority="1196" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="705" priority="1197" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J28">
+    <cfRule type="expression" dxfId="704" priority="1192" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="703" priority="1193" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="702" priority="1194" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K28">
+    <cfRule type="expression" dxfId="701" priority="1189" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="700" priority="1190" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="699" priority="1191" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F22">
+    <cfRule type="expression" dxfId="698" priority="1183" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="697" priority="1184" stopIfTrue="1">
+      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="696" priority="1185" stopIfTrue="1">
+      <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24">
+    <cfRule type="expression" dxfId="695" priority="1180" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="694" priority="1181" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="693" priority="1182" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F26">
+    <cfRule type="expression" dxfId="692" priority="1177" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="691" priority="1178" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="690" priority="1179" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="expression" dxfId="689" priority="1174" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="688" priority="1175" stopIfTrue="1">
+      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="687" priority="1176" stopIfTrue="1">
+      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F30">
+    <cfRule type="expression" dxfId="686" priority="1171" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="685" priority="1172" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="684" priority="1173" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B81:E82 M81:R82 G81:G82">
+    <cfRule type="expression" dxfId="683" priority="1153" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="682" priority="1154" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="681" priority="1155" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:H82">
+    <cfRule type="expression" dxfId="680" priority="1147" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="679" priority="1148" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="678" priority="1149" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81:L82">
+    <cfRule type="expression" dxfId="677" priority="1141" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="676" priority="1142" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="675" priority="1143" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:K82">
+    <cfRule type="expression" dxfId="674" priority="1132" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="673" priority="1133" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="672" priority="1134" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S48:AG48">
+    <cfRule type="expression" dxfId="671" priority="1123" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="670" priority="1124" stopIfTrue="1">
+      <formula>IF(AND($B48&lt;&gt;"",$I48&lt;&gt;"", $I48&lt;=S$9,S$9&lt;=$J48),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="669" priority="1125" stopIfTrue="1">
+      <formula>IF(AND($B48="", $K47&lt;&gt;"",$K47&lt;=S$9,S$9&lt;=$L47),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:AG51">
+    <cfRule type="expression" dxfId="668" priority="1120" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="667" priority="1121" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"", $I51&lt;=S$9,S$9&lt;=$J51),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="666" priority="1122" stopIfTrue="1">
+      <formula>IF(AND($B51="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:R48 B47:G48">
+    <cfRule type="expression" dxfId="665" priority="1117" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="664" priority="1118" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="663" priority="1119" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H48">
+    <cfRule type="expression" dxfId="662" priority="1114" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="661" priority="1115" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="660" priority="1116" stopIfTrue="1">
+      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:C52 E51:G52">
+    <cfRule type="expression" dxfId="659" priority="1111" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="658" priority="1112" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="657" priority="1113" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H52">
+    <cfRule type="expression" dxfId="656" priority="1108" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="655" priority="1109" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="654" priority="1110" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:K52">
+    <cfRule type="expression" dxfId="653" priority="1102" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="652" priority="1103" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="651" priority="1104" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:L52">
+    <cfRule type="expression" dxfId="650" priority="1087" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="649" priority="1088" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="648" priority="1089" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:D52">
+    <cfRule type="expression" dxfId="647" priority="1084" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="646" priority="1085" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="645" priority="1086" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S47:AG47 S91:AG91 S87:AG87 S83:AG83">
+    <cfRule type="expression" dxfId="644" priority="1081" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="643" priority="1082" stopIfTrue="1">
+      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"", $I47&lt;=S$9,S$9&lt;=$J47),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="642" priority="1083" stopIfTrue="1">
+      <formula>IF(AND($B47="", $K36&lt;&gt;"",$K36&lt;=S$9,S$9&lt;=$L36),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:AG53">
+    <cfRule type="expression" dxfId="641" priority="67507" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="640" priority="67508" stopIfTrue="1">
+      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"", $I53&lt;=S$9,S$9&lt;=$J53),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="639" priority="67509" stopIfTrue="1">
+      <formula>IF(AND($B53="", $K42&lt;&gt;"",$K42&lt;=S$9,S$9&lt;=$L42),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S61:AG61">
+    <cfRule type="expression" dxfId="638" priority="1075" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="637" priority="1076" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"", $I61&lt;=S$9,S$9&lt;=$J61),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="636" priority="1077" stopIfTrue="1">
+      <formula>IF(AND($B61="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:C62 E61:E62">
+    <cfRule type="expression" dxfId="635" priority="1072" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="634" priority="1073" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="633" priority="1074" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:H62">
+    <cfRule type="expression" dxfId="632" priority="1069" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="631" priority="1070" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="630" priority="1071" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:L62">
+    <cfRule type="expression" dxfId="626" priority="1048" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="625" priority="1049" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="624" priority="1050" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:D62">
+    <cfRule type="expression" dxfId="623" priority="1045" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="622" priority="1046" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="621" priority="1047" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F58">
+    <cfRule type="expression" dxfId="620" priority="1042" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="619" priority="1043" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="618" priority="1044" stopIfTrue="1">
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:F60">
+    <cfRule type="expression" dxfId="617" priority="1039" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="616" priority="1040" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="615" priority="1041" stopIfTrue="1">
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61:F62">
+    <cfRule type="expression" dxfId="614" priority="1036" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="613" priority="1037" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="612" priority="1038" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S105:AG105">
+    <cfRule type="expression" dxfId="611" priority="67516" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="610" priority="67517" stopIfTrue="1">
+      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"", $I105&lt;=S$9,S$9&lt;=$J105),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="609" priority="67518" stopIfTrue="1">
+      <formula>IF(AND($B105="", $K74&lt;&gt;"",$K74&lt;=S$9,S$9&lt;=$L74),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:R64 B63:G64">
+    <cfRule type="expression" dxfId="608" priority="1024" stopIfTrue="1">
+      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$L63&lt;&gt;"",$M63=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="607" priority="1025" stopIfTrue="1">
+      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$J63&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="606" priority="1026" stopIfTrue="1">
+      <formula>IF(OR(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$M63&lt;100),AND($I63&lt;&gt;"",$J63&lt;&gt;"",TODAY()&gt;=$I63)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:H64">
+    <cfRule type="expression" dxfId="605" priority="1021" stopIfTrue="1">
+      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$L63&lt;&gt;"",$M63=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="604" priority="1022" stopIfTrue="1">
+      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$J63&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="603" priority="1023" stopIfTrue="1">
+      <formula>IF(OR(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$M63&lt;100),AND($I63&lt;&gt;"",$J63&lt;&gt;"",TODAY()&gt;=$I63)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:E70 M65:R66 B65:C66 E65:E66 G65:G66 G69:G70 M69:R70">
+    <cfRule type="expression" dxfId="602" priority="1018" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="601" priority="1019" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="600" priority="1020" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:H66">
+    <cfRule type="expression" dxfId="599" priority="1015" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="598" priority="1016" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="597" priority="1017" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:H70">
+    <cfRule type="expression" dxfId="596" priority="1012" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="595" priority="1013" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="594" priority="1014" stopIfTrue="1">
+      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:L70">
+    <cfRule type="expression" dxfId="593" priority="1006" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="592" priority="1007" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="591" priority="1008" stopIfTrue="1">
+      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:K70">
+    <cfRule type="expression" dxfId="590" priority="997" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="589" priority="998" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="588" priority="999" stopIfTrue="1">
+      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:L66">
+    <cfRule type="expression" dxfId="587" priority="994" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="586" priority="995" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="585" priority="996" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D66">
+    <cfRule type="expression" dxfId="584" priority="991" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="583" priority="992" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="582" priority="993" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:C72 E71:E72">
+    <cfRule type="expression" dxfId="581" priority="979" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="580" priority="980" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="579" priority="981" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:H72">
+    <cfRule type="expression" dxfId="578" priority="976" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="577" priority="977" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="576" priority="978" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K71:K72">
+    <cfRule type="expression" dxfId="575" priority="970" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="574" priority="971" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="573" priority="972" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L71:L72">
+    <cfRule type="expression" dxfId="572" priority="955" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="571" priority="956" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="570" priority="957" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71:D72">
+    <cfRule type="expression" dxfId="569" priority="952" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="568" priority="953" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="567" priority="954" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F66">
+    <cfRule type="expression" dxfId="566" priority="937" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="565" priority="938" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="564" priority="939" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69:F70">
+    <cfRule type="expression" dxfId="563" priority="934" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="562" priority="935" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="561" priority="936" stopIfTrue="1">
+      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F72">
+    <cfRule type="expression" dxfId="560" priority="931" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="559" priority="932" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="558" priority="933" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:R74 B73:G74">
+    <cfRule type="expression" dxfId="557" priority="892" stopIfTrue="1">
+      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$L73&lt;&gt;"",$M73=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="556" priority="893" stopIfTrue="1">
+      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$J73&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="555" priority="894" stopIfTrue="1">
+      <formula>IF(OR(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$M73&lt;100),AND($I73&lt;&gt;"",$J73&lt;&gt;"",TODAY()&gt;=$I73)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H74">
+    <cfRule type="expression" dxfId="554" priority="889" stopIfTrue="1">
+      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$L73&lt;&gt;"",$M73=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="553" priority="890" stopIfTrue="1">
+      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$J73&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="552" priority="891" stopIfTrue="1">
+      <formula>IF(OR(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$M73&lt;100),AND($I73&lt;&gt;"",$J73&lt;&gt;"",TODAY()&gt;=$I73)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:I80 M79:R80 B79:C80 E79:E80 G79:G80">
+    <cfRule type="expression" dxfId="551" priority="886" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="550" priority="887" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="549" priority="888" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H80">
+    <cfRule type="expression" dxfId="548" priority="883" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="547" priority="884" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="546" priority="885" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:K80">
+    <cfRule type="expression" dxfId="545" priority="880" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="544" priority="881" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="543" priority="882" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:L80">
+    <cfRule type="expression" dxfId="542" priority="874" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="541" priority="875" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="540" priority="876" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D80">
+    <cfRule type="expression" dxfId="539" priority="871" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="538" priority="872" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="537" priority="873" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:E78 M77:R78 I77:I78 G77:G78">
+    <cfRule type="expression" dxfId="536" priority="859" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="535" priority="860" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="534" priority="861" stopIfTrue="1">
+      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:H78">
+    <cfRule type="expression" dxfId="533" priority="856" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="532" priority="857" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="531" priority="858" stopIfTrue="1">
+      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77:L78">
+    <cfRule type="expression" dxfId="530" priority="853" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="529" priority="854" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="528" priority="855" stopIfTrue="1">
+      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77:J78">
+    <cfRule type="expression" dxfId="527" priority="850" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="526" priority="851" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="525" priority="852" stopIfTrue="1">
+      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K77:K78">
+    <cfRule type="expression" dxfId="524" priority="847" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="848" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="522" priority="849" stopIfTrue="1">
+      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75:I76 M75:R76 B75:C76 E75:E76 G75:G76">
+    <cfRule type="expression" dxfId="521" priority="835" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="520" priority="836" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="519" priority="837" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H76">
+    <cfRule type="expression" dxfId="518" priority="832" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="833" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="516" priority="834" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K75:K76">
+    <cfRule type="expression" dxfId="515" priority="829" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="514" priority="830" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="831" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75:J76">
+    <cfRule type="expression" dxfId="512" priority="826" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="511" priority="827" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="510" priority="828" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D76">
+    <cfRule type="expression" dxfId="509" priority="820" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="508" priority="821" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="822" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:F76">
+    <cfRule type="expression" dxfId="506" priority="817" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="818" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="504" priority="819" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:F78">
+    <cfRule type="expression" dxfId="503" priority="814" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="502" priority="815" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="816" stopIfTrue="1">
+      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F80">
+    <cfRule type="expression" dxfId="500" priority="811" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="812" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="498" priority="813" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:F82">
+    <cfRule type="expression" dxfId="497" priority="808" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="496" priority="809" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="495" priority="810" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91:D92 M91:R92 G91:G92">
+    <cfRule type="expression" dxfId="494" priority="802" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="803" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="492" priority="804" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91:H92">
+    <cfRule type="expression" dxfId="491" priority="799" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="490" priority="800" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="801" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L91:L92">
+    <cfRule type="expression" dxfId="488" priority="796" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="487" priority="797" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="798" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:K92">
+    <cfRule type="expression" dxfId="485" priority="790" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="484" priority="791" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="792" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83:R84 B83:G84">
+    <cfRule type="expression" dxfId="482" priority="778" stopIfTrue="1">
+      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$L83&lt;&gt;"",$M83=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="779" stopIfTrue="1">
+      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$J83&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="480" priority="780" stopIfTrue="1">
+      <formula>IF(OR(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$M83&lt;100),AND($I83&lt;&gt;"",$J83&lt;&gt;"",TODAY()&gt;=$I83)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83:H84">
+    <cfRule type="expression" dxfId="479" priority="775" stopIfTrue="1">
+      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$L83&lt;&gt;"",$M83=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="478" priority="776" stopIfTrue="1">
+      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$J83&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="777" stopIfTrue="1">
+      <formula>IF(OR(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$M83&lt;100),AND($I83&lt;&gt;"",$J83&lt;&gt;"",TODAY()&gt;=$I83)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89:R90 B89:C90 G89:G90">
+    <cfRule type="expression" dxfId="476" priority="772" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="773" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="774" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89:H90">
+    <cfRule type="expression" dxfId="473" priority="769" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="472" priority="770" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="471" priority="771" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89:K90">
+    <cfRule type="expression" dxfId="470" priority="766" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="767" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="468" priority="768" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89:L90">
+    <cfRule type="expression" dxfId="467" priority="760" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="466" priority="761" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="762" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89:D90">
+    <cfRule type="expression" dxfId="464" priority="757" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="463" priority="758" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="462" priority="759" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:D88 M87:R88 G87:G88">
+    <cfRule type="expression" dxfId="461" priority="751" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="460" priority="752" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="459" priority="753" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:H88">
+    <cfRule type="expression" dxfId="458" priority="745" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="457" priority="746" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="456" priority="747" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L87:L88">
+    <cfRule type="expression" dxfId="455" priority="742" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="454" priority="743" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="453" priority="744" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87:K88">
+    <cfRule type="expression" dxfId="452" priority="736" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="451" priority="737" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="450" priority="738" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M85:R86 B85:C86 G85:G86">
+    <cfRule type="expression" dxfId="449" priority="724" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="448" priority="725" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="726" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85:H86">
+    <cfRule type="expression" dxfId="446" priority="721" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="722" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="444" priority="723" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:K86">
+    <cfRule type="expression" dxfId="443" priority="718" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="442" priority="719" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="720" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L85:L86">
+    <cfRule type="expression" dxfId="440" priority="712" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="713" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="714" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:D86">
+    <cfRule type="expression" dxfId="437" priority="709" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="436" priority="710" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="711" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="expression" dxfId="434" priority="694" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="695" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="432" priority="696" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F88">
+    <cfRule type="expression" dxfId="431" priority="691" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="692" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="693" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:F90">
+    <cfRule type="expression" dxfId="428" priority="688" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="689" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="426" priority="690" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:F92">
+    <cfRule type="expression" dxfId="425" priority="685" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="424" priority="686" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="423" priority="687" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I105:R106 B105:G106">
+    <cfRule type="expression" dxfId="422" priority="655" stopIfTrue="1">
+      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$L105&lt;&gt;"",$M105=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="421" priority="656" stopIfTrue="1">
+      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$J105&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="420" priority="657" stopIfTrue="1">
+      <formula>IF(OR(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$M105&lt;100),AND($I105&lt;&gt;"",$J105&lt;&gt;"",TODAY()&gt;=$I105)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H105:H106">
+    <cfRule type="expression" dxfId="419" priority="652" stopIfTrue="1">
+      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$L105&lt;&gt;"",$M105=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="418" priority="653" stopIfTrue="1">
+      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$J105&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="654" stopIfTrue="1">
+      <formula>IF(OR(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$M105&lt;100),AND($I105&lt;&gt;"",$J105&lt;&gt;"",TODAY()&gt;=$I105)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117:D118">
+    <cfRule type="expression" dxfId="416" priority="562" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="563" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="414" priority="564" stopIfTrue="1">
+      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S81:AG81">
+    <cfRule type="expression" dxfId="413" priority="67663" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="67664" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"", $I81&lt;=S$9,S$9&lt;=$J81),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="67665" stopIfTrue="1">
+      <formula>IF(AND($B81="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="expression" dxfId="410" priority="553" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="554" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="408" priority="555" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S50:AG50">
+    <cfRule type="expression" dxfId="407" priority="547" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="548" stopIfTrue="1">
+      <formula>IF(AND($B50&lt;&gt;"",$I50&lt;&gt;"", $I50&lt;=S$9,S$9&lt;=$J50),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="549" stopIfTrue="1">
+      <formula>IF(AND($B50="", $K49&lt;&gt;"",$K49&lt;=S$9,S$9&lt;=$L49),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:I50 M49:R50">
+    <cfRule type="expression" dxfId="404" priority="544" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="545" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="546" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S49:AG49">
+    <cfRule type="expression" dxfId="401" priority="541" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="400" priority="542" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=S$9,S$9&lt;=$J49),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="543" stopIfTrue="1">
+      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:C50 E49:E50 G49:G50">
+    <cfRule type="expression" dxfId="398" priority="538" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="539" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="540" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H50">
+    <cfRule type="expression" dxfId="395" priority="535" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="536" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="537" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:J50">
+    <cfRule type="expression" dxfId="389" priority="529" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="530" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="531" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:L50">
+    <cfRule type="expression" dxfId="386" priority="526" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="527" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="528" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="expression" dxfId="383" priority="523" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="524" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="525" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:F50">
+    <cfRule type="expression" dxfId="380" priority="520" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="521" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="522" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="expression" dxfId="377" priority="517" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="518" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="519" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S63:AG63">
+    <cfRule type="expression" dxfId="374" priority="68029" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="68030" stopIfTrue="1">
+      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"", $I63&lt;=S$9,S$9&lt;=$J63),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="68031" stopIfTrue="1">
+      <formula>IF(AND($B63="", $K54&lt;&gt;"",$K54&lt;=S$9,S$9&lt;=$L54),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S77:AG77">
+    <cfRule type="expression" dxfId="371" priority="68161" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="68162" stopIfTrue="1">
+      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"", $I77&lt;=S$9,S$9&lt;=$J77),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="68163" stopIfTrue="1">
+      <formula>IF(AND($B77="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73:AG73">
+    <cfRule type="expression" dxfId="368" priority="68173" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="68174" stopIfTrue="1">
+      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"", $I73&lt;=S$9,S$9&lt;=$J73),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="68175" stopIfTrue="1">
+      <formula>IF(AND($B73="", $K62&lt;&gt;"",$K62&lt;=S$9,S$9&lt;=$L62),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56:AG56">
+    <cfRule type="expression" dxfId="365" priority="514" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="515" stopIfTrue="1">
+      <formula>IF(AND($B56&lt;&gt;"",$I56&lt;&gt;"", $I56&lt;=S$9,S$9&lt;=$J56),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="516" stopIfTrue="1">
+      <formula>IF(AND($B56="", $K55&lt;&gt;"",$K55&lt;=S$9,S$9&lt;=$L55),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55:AG55">
+    <cfRule type="expression" dxfId="362" priority="511" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="512" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"", $I55&lt;=S$9,S$9&lt;=$J55),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="513" stopIfTrue="1">
+      <formula>IF(AND($B55="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55:R56 B55:C56 E55:E56 G55:G56">
+    <cfRule type="expression" dxfId="359" priority="508" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="509" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="510" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H56">
+    <cfRule type="expression" dxfId="356" priority="505" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="506" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="507" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D56">
+    <cfRule type="expression" dxfId="353" priority="493" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="494" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="495" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F56">
+    <cfRule type="expression" dxfId="350" priority="490" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="491" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="492" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S68:AG68">
+    <cfRule type="expression" dxfId="347" priority="487" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="488" stopIfTrue="1">
+      <formula>IF(AND($B68&lt;&gt;"",$I68&lt;&gt;"", $I68&lt;=S$9,S$9&lt;=$J68),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="489" stopIfTrue="1">
+      <formula>IF(AND($B68="", $K67&lt;&gt;"",$K67&lt;=S$9,S$9&lt;=$L67),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S67:AG67">
+    <cfRule type="expression" dxfId="344" priority="484" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="485" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"", $I67&lt;=S$9,S$9&lt;=$J67),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="486" stopIfTrue="1">
+      <formula>IF(AND($B67="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M67:R68 B67:C68 E67:E68 G67:G68">
+    <cfRule type="expression" dxfId="341" priority="481" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="482" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="483" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H68">
+    <cfRule type="expression" dxfId="338" priority="478" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="479" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="480" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67:L68">
+    <cfRule type="expression" dxfId="335" priority="469" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="470" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="471" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67:D68">
+    <cfRule type="expression" dxfId="332" priority="466" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="467" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="468" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:J82">
+    <cfRule type="expression" dxfId="329" priority="451" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="328" priority="452" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="453" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:F68">
+    <cfRule type="expression" dxfId="326" priority="460" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="461" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="462" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S102:AG102 S94:AG94 S100:AG100 S98:AG98 S96:AG96">
+    <cfRule type="expression" dxfId="323" priority="448" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="449" stopIfTrue="1">
+      <formula>IF(AND($B94&lt;&gt;"",$I94&lt;&gt;"", $I94&lt;=S$9,S$9&lt;=$J94),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="450" stopIfTrue="1">
+      <formula>IF(AND($B94="", $K93&lt;&gt;"",$K93&lt;=S$9,S$9&lt;=$L93),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S99:AG99 S95:AG95">
+    <cfRule type="expression" dxfId="320" priority="445" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="446" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"", $I95&lt;=S$9,S$9&lt;=$J95),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="447" stopIfTrue="1">
+      <formula>IF(AND($B95="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S101:AG101 S97:AG97 S93:AG93">
+    <cfRule type="expression" dxfId="317" priority="442" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="443" stopIfTrue="1">
+      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"", $I93&lt;=S$9,S$9&lt;=$J93),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="444" stopIfTrue="1">
+      <formula>IF(AND($B93="", $K82&lt;&gt;"",$K82&lt;=S$9,S$9&lt;=$L82),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:E102 M101:R102 G101:G102">
+    <cfRule type="expression" dxfId="314" priority="439" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="440" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="441" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H102">
+    <cfRule type="expression" dxfId="311" priority="436" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="437" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="438" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L101:L102">
+    <cfRule type="expression" dxfId="308" priority="433" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="434" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="435" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K101:K102">
+    <cfRule type="expression" dxfId="305" priority="427" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="428" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="429" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I93:R94 B93:G94">
+    <cfRule type="expression" dxfId="302" priority="424" stopIfTrue="1">
+      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$L93&lt;&gt;"",$M93=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="425" stopIfTrue="1">
+      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$J93&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="426" stopIfTrue="1">
+      <formula>IF(OR(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$M93&lt;100),AND($I93&lt;&gt;"",$J93&lt;&gt;"",TODAY()&gt;=$I93)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H93:H94">
+    <cfRule type="expression" dxfId="299" priority="421" stopIfTrue="1">
+      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$L93&lt;&gt;"",$M93=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="422" stopIfTrue="1">
+      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$J93&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="423" stopIfTrue="1">
+      <formula>IF(OR(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$M93&lt;100),AND($I93&lt;&gt;"",$J93&lt;&gt;"",TODAY()&gt;=$I93)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M99:R100 B99:C100 E99:E100 G99:G100">
+    <cfRule type="expression" dxfId="296" priority="418" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="419" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="420" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99:H100">
+    <cfRule type="expression" dxfId="293" priority="415" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="416" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="417" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:K100">
+    <cfRule type="expression" dxfId="290" priority="412" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="413" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="414" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99:L100">
+    <cfRule type="expression" dxfId="287" priority="406" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="407" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="408" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D100">
+    <cfRule type="expression" dxfId="284" priority="403" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="404" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="405" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97:E98 M97:R98 G97:G98">
+    <cfRule type="expression" dxfId="281" priority="400" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="401" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="402" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97:H98">
+    <cfRule type="expression" dxfId="278" priority="397" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="398" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="399" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L97:L98">
+    <cfRule type="expression" dxfId="275" priority="394" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="395" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="396" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97:K98">
+    <cfRule type="expression" dxfId="272" priority="388" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="389" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="390" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95:I96 M95:R96 B95:C96 E95:E96 G95:G96">
+    <cfRule type="expression" dxfId="269" priority="385" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="386" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="387" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95:H96">
+    <cfRule type="expression" dxfId="266" priority="382" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="383" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="384" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95:D96">
+    <cfRule type="expression" dxfId="263" priority="370" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="371" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="372" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F96">
+    <cfRule type="expression" dxfId="260" priority="355" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="356" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="357" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:F98">
+    <cfRule type="expression" dxfId="257" priority="352" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="353" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="354" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:F100">
+    <cfRule type="expression" dxfId="254" priority="349" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="350" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="351" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:F102">
+    <cfRule type="expression" dxfId="251" priority="346" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="347" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="348" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S107:AG107">
+    <cfRule type="expression" dxfId="248" priority="68260" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="68261" stopIfTrue="1">
+      <formula>IF(AND($B107&lt;&gt;"",$I107&lt;&gt;"", $I107&lt;=S$9,S$9&lt;=$J107),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="68262" stopIfTrue="1">
+      <formula>IF(AND($B107="", $K60&lt;&gt;"",$K60&lt;=S$9,S$9&lt;=$L60),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S104:AG104">
+    <cfRule type="expression" dxfId="245" priority="343" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="344" stopIfTrue="1">
+      <formula>IF(AND($B104&lt;&gt;"",$I104&lt;&gt;"", $I104&lt;=S$9,S$9&lt;=$J104),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="345" stopIfTrue="1">
+      <formula>IF(AND($B104="", $K103&lt;&gt;"",$K103&lt;=S$9,S$9&lt;=$L103),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S103:AG103">
+    <cfRule type="expression" dxfId="242" priority="340" stopIfTrue="1">
+      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="341" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"", $I103&lt;=S$9,S$9&lt;=$J103),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="342" stopIfTrue="1">
+      <formula>IF(AND($B103="", $K92&lt;&gt;"",$K92&lt;=S$9,S$9&lt;=$L92),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:E104 M103:R104 G103:G104">
+    <cfRule type="expression" dxfId="239" priority="337" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="338" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="339" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103:H104">
+    <cfRule type="expression" dxfId="236" priority="334" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="335" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="336" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L103:L104">
+    <cfRule type="expression" dxfId="233" priority="331" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="332" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="333" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:K104">
+    <cfRule type="expression" dxfId="230" priority="325" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="326" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="327" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:F104">
+    <cfRule type="expression" dxfId="227" priority="322" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="323" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="324" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L125:L126">
+    <cfRule type="expression" dxfId="224" priority="271" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="272" stopIfTrue="1">
+      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="273" stopIfTrue="1">
+      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:J90">
+    <cfRule type="expression" dxfId="221" priority="244" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="245" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="246" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91:J92">
+    <cfRule type="expression" dxfId="218" priority="241" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="242" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="243" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:I92">
+    <cfRule type="expression" dxfId="215" priority="238" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="239" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="240" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89:I90">
+    <cfRule type="expression" dxfId="212" priority="235" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="236" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="237" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87:I88">
+    <cfRule type="expression" dxfId="209" priority="232" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="233" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="234" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85:I86">
+    <cfRule type="expression" dxfId="206" priority="229" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="230" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="231" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85:J86">
+    <cfRule type="expression" dxfId="203" priority="226" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="227" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="228" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87:J88">
+    <cfRule type="expression" dxfId="200" priority="223" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="224" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="225" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I52">
+    <cfRule type="expression" dxfId="197" priority="208" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="209" stopIfTrue="1">
+      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="210" stopIfTrue="1">
+      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:J62">
+    <cfRule type="expression" dxfId="194" priority="196" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="197" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="198" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:I98">
+    <cfRule type="expression" dxfId="188" priority="187" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="188" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="189" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L117:L118">
+    <cfRule type="expression" dxfId="185" priority="160" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="161" stopIfTrue="1">
+      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="162" stopIfTrue="1">
+      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L18">
+    <cfRule type="expression" dxfId="182" priority="157" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="158" stopIfTrue="1">
+      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="159" stopIfTrue="1">
+      <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L24">
+    <cfRule type="expression" dxfId="179" priority="154" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="155" stopIfTrue="1">
+      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="156" stopIfTrue="1">
+      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L26">
+    <cfRule type="expression" dxfId="176" priority="151" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="152" stopIfTrue="1">
+      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="153" stopIfTrue="1">
+      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I30">
+    <cfRule type="expression" dxfId="173" priority="148" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="149" stopIfTrue="1">
+      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="150" stopIfTrue="1">
+      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I32">
+    <cfRule type="expression" dxfId="170" priority="145" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="146" stopIfTrue="1">
+      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="147" stopIfTrue="1">
+      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L36">
+    <cfRule type="expression" dxfId="167" priority="142" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="143" stopIfTrue="1">
+      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="144" stopIfTrue="1">
+      <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:L38">
+    <cfRule type="expression" dxfId="164" priority="139" stopIfTrue="1">
+      <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="140" stopIfTrue="1">
+      <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="141" stopIfTrue="1">
+      <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L40">
+    <cfRule type="expression" dxfId="161" priority="136" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="137" stopIfTrue="1">
+      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="138" stopIfTrue="1">
+      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57:L58">
+    <cfRule type="expression" dxfId="158" priority="130" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="131" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="132" stopIfTrue="1">
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:I56">
+    <cfRule type="expression" dxfId="155" priority="127" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="128" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="129" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J56">
+    <cfRule type="expression" dxfId="152" priority="124" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="125" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="126" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:K56">
+    <cfRule type="expression" dxfId="149" priority="118" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="119" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="120" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:I62">
+    <cfRule type="expression" dxfId="146" priority="115" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="116" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="117" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:K60">
+    <cfRule type="expression" dxfId="143" priority="112" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="113" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="114" stopIfTrue="1">
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:J60">
+    <cfRule type="expression" dxfId="140" priority="109" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="110" stopIfTrue="1">
+      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="111" stopIfTrue="1">
+      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65:I66">
+    <cfRule type="expression" dxfId="137" priority="106" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="107" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="108" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:I68">
+    <cfRule type="expression" dxfId="134" priority="103" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="104" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="105" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65:J66">
+    <cfRule type="expression" dxfId="131" priority="100" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="101" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="102" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:J68">
+    <cfRule type="expression" dxfId="128" priority="97" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="98" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="99" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:K66">
+    <cfRule type="expression" dxfId="125" priority="94" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="95" stopIfTrue="1">
+      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="96" stopIfTrue="1">
+      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:K68">
+    <cfRule type="expression" dxfId="122" priority="91" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="92" stopIfTrue="1">
+      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="93" stopIfTrue="1">
+      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I70">
+    <cfRule type="expression" dxfId="119" priority="88" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="89" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="90" stopIfTrue="1">
+      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:I72">
+    <cfRule type="expression" dxfId="116" priority="85" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="86" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="87" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:J70">
+    <cfRule type="expression" dxfId="113" priority="82" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="83" stopIfTrue="1">
+      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="84" stopIfTrue="1">
+      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71:J72">
+    <cfRule type="expression" dxfId="110" priority="79" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="80" stopIfTrue="1">
+      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="81" stopIfTrue="1">
+      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79:J80">
+    <cfRule type="expression" dxfId="107" priority="76" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="77" stopIfTrue="1">
+      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="78" stopIfTrue="1">
+      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81:I82">
+    <cfRule type="expression" dxfId="104" priority="73" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="74" stopIfTrue="1">
+      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="75" stopIfTrue="1">
+      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97:J98">
+    <cfRule type="expression" dxfId="101" priority="70" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="71" stopIfTrue="1">
+      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="72" stopIfTrue="1">
+      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99:I100">
+    <cfRule type="expression" dxfId="98" priority="67" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="68" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="69" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99:J100">
+    <cfRule type="expression" dxfId="95" priority="64" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="65" stopIfTrue="1">
+      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="66" stopIfTrue="1">
+      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101:I102">
+    <cfRule type="expression" dxfId="92" priority="61" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="62" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="63" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101:J102">
+    <cfRule type="expression" dxfId="89" priority="58" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="59" stopIfTrue="1">
+      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="60" stopIfTrue="1">
+      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I104">
+    <cfRule type="expression" dxfId="86" priority="55" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="56" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="57" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103:J104">
+    <cfRule type="expression" dxfId="83" priority="52" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="53" stopIfTrue="1">
+      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="54" stopIfTrue="1">
+      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L75:L76">
+    <cfRule type="expression" dxfId="80" priority="49" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="50" stopIfTrue="1">
+      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="51" stopIfTrue="1">
+      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95:J96">
+    <cfRule type="expression" dxfId="77" priority="46" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="47" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="48" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K95:K96">
+    <cfRule type="expression" dxfId="74" priority="43" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="44" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="45" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L95:L96">
+    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
+      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="42" stopIfTrue="1">
+      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:L56">
+    <cfRule type="expression" dxfId="68" priority="37" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="38" stopIfTrue="1">
+      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="39" stopIfTrue="1">
+      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57:I58">
+    <cfRule type="expression" dxfId="65" priority="34" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="35" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="36" stopIfTrue="1">
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57:K58">
+    <cfRule type="expression" dxfId="62" priority="31" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="32" stopIfTrue="1">
+      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="33" stopIfTrue="1">
+      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="expression" dxfId="59" priority="28" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="29" stopIfTrue="1">
+      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="30" stopIfTrue="1">
+      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
+      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:E90">
+    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91:E92">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L59:L60">
-    <cfRule type="expression" dxfId="875" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
       <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
       <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
       <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J58">
-    <cfRule type="expression" dxfId="872" priority="1507" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="871" priority="1508" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="870" priority="1509" stopIfTrue="1">
-      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109:I110">
-    <cfRule type="expression" dxfId="869" priority="1495" stopIfTrue="1">
-      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="868" priority="1496" stopIfTrue="1">
-      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="867" priority="1497" stopIfTrue="1">
-      <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I111:I112">
-    <cfRule type="expression" dxfId="866" priority="1492" stopIfTrue="1">
-      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="865" priority="1493" stopIfTrue="1">
-      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="864" priority="1494" stopIfTrue="1">
-      <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113:I114">
-    <cfRule type="expression" dxfId="863" priority="1489" stopIfTrue="1">
-      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="862" priority="1490" stopIfTrue="1">
-      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="861" priority="1491" stopIfTrue="1">
-      <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K109:K110">
-    <cfRule type="expression" dxfId="860" priority="1486" stopIfTrue="1">
-      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="859" priority="1487" stopIfTrue="1">
-      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="858" priority="1488" stopIfTrue="1">
-      <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K111:K112">
-    <cfRule type="expression" dxfId="857" priority="1483" stopIfTrue="1">
-      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="856" priority="1484" stopIfTrue="1">
-      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="855" priority="1485" stopIfTrue="1">
-      <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K113:K114">
-    <cfRule type="expression" dxfId="854" priority="1480" stopIfTrue="1">
-      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="853" priority="1481" stopIfTrue="1">
-      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="852" priority="1482" stopIfTrue="1">
-      <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L109:L110">
-    <cfRule type="expression" dxfId="851" priority="1477" stopIfTrue="1">
-      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$L109&lt;&gt;"",$M109=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="850" priority="1478" stopIfTrue="1">
-      <formula>IF(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$J109&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="849" priority="1479" stopIfTrue="1">
-      <formula>IF(OR(AND($B109&lt;&gt;"",$I109&lt;&gt;"",$J109&lt;&gt;"",$K109&lt;&gt;"",$M109&lt;100),AND($I109&lt;&gt;"",$J109&lt;&gt;"",TODAY()&gt;=$I109)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L111:L112">
-    <cfRule type="expression" dxfId="848" priority="1474" stopIfTrue="1">
-      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$L111&lt;&gt;"",$M111=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="847" priority="1475" stopIfTrue="1">
-      <formula>IF(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$J111&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="846" priority="1476" stopIfTrue="1">
-      <formula>IF(OR(AND($B111&lt;&gt;"",$I111&lt;&gt;"",$J111&lt;&gt;"",$K111&lt;&gt;"",$M111&lt;100),AND($I111&lt;&gt;"",$J111&lt;&gt;"",TODAY()&gt;=$I111)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L113:L114">
-    <cfRule type="expression" dxfId="845" priority="1471" stopIfTrue="1">
-      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$L113&lt;&gt;"",$M113=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="844" priority="1472" stopIfTrue="1">
-      <formula>IF(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$J113&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="843" priority="1473" stopIfTrue="1">
-      <formula>IF(OR(AND($B113&lt;&gt;"",$I113&lt;&gt;"",$J113&lt;&gt;"",$K113&lt;&gt;"",$M113&lt;100),AND($I113&lt;&gt;"",$J113&lt;&gt;"",TODAY()&gt;=$I113)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
-    <cfRule type="expression" dxfId="842" priority="1468" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="841" priority="1469" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="840" priority="1470" stopIfTrue="1">
-      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H117:H118">
-    <cfRule type="expression" dxfId="839" priority="1456" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="838" priority="1457" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="837" priority="1458" stopIfTrue="1">
-      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:R116 B115:G116">
-    <cfRule type="expression" dxfId="836" priority="1444" stopIfTrue="1">
-      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$L115&lt;&gt;"",$M115=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="835" priority="1445" stopIfTrue="1">
-      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$J115&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="834" priority="1446" stopIfTrue="1">
-      <formula>IF(OR(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$M115&lt;100),AND($I115&lt;&gt;"",$J115&lt;&gt;"",TODAY()&gt;=$I115)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115:H116">
-    <cfRule type="expression" dxfId="833" priority="1441" stopIfTrue="1">
-      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$L115&lt;&gt;"",$M115=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="832" priority="1442" stopIfTrue="1">
-      <formula>IF(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$J115&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="831" priority="1443" stopIfTrue="1">
-      <formula>IF(OR(AND($B115&lt;&gt;"",$I115&lt;&gt;"",$J115&lt;&gt;"",$K115&lt;&gt;"",$M115&lt;100),AND($I115&lt;&gt;"",$J115&lt;&gt;"",TODAY()&gt;=$I115)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117:I118">
-    <cfRule type="expression" dxfId="830" priority="1438" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="829" priority="1439" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="828" priority="1440" stopIfTrue="1">
-      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K117:K118">
-    <cfRule type="expression" dxfId="827" priority="1429" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="826" priority="1430" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="825" priority="1431" stopIfTrue="1">
-      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="824" priority="1411" stopIfTrue="1">
-      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="823" priority="1412" stopIfTrue="1">
-      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="822" priority="1413" stopIfTrue="1">
-      <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J121:J122 M121:R122 B121:G122">
-    <cfRule type="expression" dxfId="821" priority="1366" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="820" priority="1367" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="819" priority="1368" stopIfTrue="1">
-      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H121:H122">
-    <cfRule type="expression" dxfId="818" priority="1363" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="817" priority="1364" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="816" priority="1365" stopIfTrue="1">
-      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119:R120 B119:G120">
-    <cfRule type="expression" dxfId="815" priority="1360" stopIfTrue="1">
-      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$L119&lt;&gt;"",$M119=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="814" priority="1361" stopIfTrue="1">
-      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$J119&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="813" priority="1362" stopIfTrue="1">
-      <formula>IF(OR(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$M119&lt;100),AND($I119&lt;&gt;"",$J119&lt;&gt;"",TODAY()&gt;=$I119)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H119:H120">
-    <cfRule type="expression" dxfId="812" priority="1357" stopIfTrue="1">
-      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$L119&lt;&gt;"",$M119=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="811" priority="1358" stopIfTrue="1">
-      <formula>IF(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$J119&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="810" priority="1359" stopIfTrue="1">
-      <formula>IF(OR(AND($B119&lt;&gt;"",$I119&lt;&gt;"",$J119&lt;&gt;"",$K119&lt;&gt;"",$M119&lt;100),AND($I119&lt;&gt;"",$J119&lt;&gt;"",TODAY()&gt;=$I119)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121:I122">
-    <cfRule type="expression" dxfId="809" priority="1354" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="808" priority="1355" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="807" priority="1356" stopIfTrue="1">
-      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K121:K122">
-    <cfRule type="expression" dxfId="806" priority="1351" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="805" priority="1352" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="804" priority="1353" stopIfTrue="1">
-      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L121:L122">
-    <cfRule type="expression" dxfId="803" priority="1345" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$L121&lt;&gt;"",$M121=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="802" priority="1346" stopIfTrue="1">
-      <formula>IF(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$J121&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="801" priority="1347" stopIfTrue="1">
-      <formula>IF(OR(AND($B121&lt;&gt;"",$I121&lt;&gt;"",$J121&lt;&gt;"",$K121&lt;&gt;"",$M121&lt;100),AND($I121&lt;&gt;"",$J121&lt;&gt;"",TODAY()&gt;=$I121)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J125:J126 M125:R126 B125:G126">
-    <cfRule type="expression" dxfId="800" priority="1333" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="799" priority="1334" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="798" priority="1335" stopIfTrue="1">
-      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H125:H126">
-    <cfRule type="expression" dxfId="797" priority="1330" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="796" priority="1331" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="795" priority="1332" stopIfTrue="1">
-      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I123:R124 B123:G124">
-    <cfRule type="expression" dxfId="794" priority="1327" stopIfTrue="1">
-      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$L123&lt;&gt;"",$M123=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="793" priority="1328" stopIfTrue="1">
-      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$J123&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="792" priority="1329" stopIfTrue="1">
-      <formula>IF(OR(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$M123&lt;100),AND($I123&lt;&gt;"",$J123&lt;&gt;"",TODAY()&gt;=$I123)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123:H124">
-    <cfRule type="expression" dxfId="791" priority="1324" stopIfTrue="1">
-      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$L123&lt;&gt;"",$M123=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="790" priority="1325" stopIfTrue="1">
-      <formula>IF(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$J123&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="789" priority="1326" stopIfTrue="1">
-      <formula>IF(OR(AND($B123&lt;&gt;"",$I123&lt;&gt;"",$J123&lt;&gt;"",$K123&lt;&gt;"",$M123&lt;100),AND($I123&lt;&gt;"",$J123&lt;&gt;"",TODAY()&gt;=$I123)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:I126">
-    <cfRule type="expression" dxfId="788" priority="1321" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="787" priority="1322" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="786" priority="1323" stopIfTrue="1">
-      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K125:K126">
-    <cfRule type="expression" dxfId="785" priority="1318" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="784" priority="1319" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="783" priority="1320" stopIfTrue="1">
-      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:G46 M43:R46 B43:C44 E43:G44 I43:I46">
-    <cfRule type="expression" dxfId="782" priority="1309" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="781" priority="1310" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="780" priority="1311" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H44">
-    <cfRule type="expression" dxfId="779" priority="1306" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="778" priority="1307" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="777" priority="1308" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H46">
-    <cfRule type="expression" dxfId="776" priority="1303" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="775" priority="1304" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="774" priority="1305" stopIfTrue="1">
-      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:K44">
-    <cfRule type="expression" dxfId="773" priority="1297" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="772" priority="1298" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="771" priority="1299" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45:L46">
-    <cfRule type="expression" dxfId="770" priority="1294" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="769" priority="1295" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="768" priority="1296" stopIfTrue="1">
-      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45:K46">
-    <cfRule type="expression" dxfId="767" priority="1285" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="766" priority="1286" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="765" priority="1287" stopIfTrue="1">
-      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43:L44">
-    <cfRule type="expression" dxfId="764" priority="1282" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="763" priority="1283" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="762" priority="1284" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="expression" dxfId="761" priority="1279" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="760" priority="1280" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="759" priority="1281" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:AG29">
-    <cfRule type="expression" dxfId="758" priority="1270" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="757" priority="1271" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"", $I29&lt;=S$9,S$9&lt;=$J29),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="756" priority="1272" stopIfTrue="1">
-      <formula>IF(AND($B29="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E32 M29:R32 B29:C30 E29:E30 G29:G32">
-    <cfRule type="expression" dxfId="755" priority="1267" stopIfTrue="1">
+  <conditionalFormatting sqref="K61:K62">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K30">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="1268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="1269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
       <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H30">
-    <cfRule type="expression" dxfId="752" priority="1264" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="751" priority="1265" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="750" priority="1266" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="expression" dxfId="749" priority="1261" stopIfTrue="1">
+  <conditionalFormatting sqref="K31:K32">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
       <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="1262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
       <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="1263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="746" priority="1258" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="745" priority="1259" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="744" priority="1260" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32">
-    <cfRule type="expression" dxfId="743" priority="1255" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="742" priority="1256" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="741" priority="1257" stopIfTrue="1">
-      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K32">
-    <cfRule type="expression" dxfId="740" priority="1249" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="739" priority="1250" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="738" priority="1251" stopIfTrue="1">
-      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L30">
-    <cfRule type="expression" dxfId="737" priority="1246" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="736" priority="1247" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="735" priority="1248" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30">
-    <cfRule type="expression" dxfId="734" priority="1243" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="733" priority="1244" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="732" priority="1245" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F32">
-    <cfRule type="expression" dxfId="731" priority="1234" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="730" priority="1235" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="729" priority="1236" stopIfTrue="1">
-      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J43:J44">
-    <cfRule type="expression" dxfId="728" priority="1231" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$L43&lt;&gt;"",$M43=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="727" priority="1232" stopIfTrue="1">
-      <formula>IF(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$J43&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="726" priority="1233" stopIfTrue="1">
-      <formula>IF(OR(AND($B43&lt;&gt;"",$I43&lt;&gt;"",$J43&lt;&gt;"",$K43&lt;&gt;"",$M43&lt;100),AND($I43&lt;&gt;"",$J43&lt;&gt;"",TODAY()&gt;=$I43)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:J46">
-    <cfRule type="expression" dxfId="725" priority="1228" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$L45&lt;&gt;"",$M45=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="724" priority="1229" stopIfTrue="1">
-      <formula>IF(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$J45&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="723" priority="1230" stopIfTrue="1">
-      <formula>IF(OR(AND($B45&lt;&gt;"",$I45&lt;&gt;"",$J45&lt;&gt;"",$K45&lt;&gt;"",$M45&lt;100),AND($I45&lt;&gt;"",$J45&lt;&gt;"",TODAY()&gt;=$I45)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:AG20 S22:AG22 S24:AG24 S26:AG28">
-    <cfRule type="expression" dxfId="722" priority="1225" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="721" priority="1226" stopIfTrue="1">
-      <formula>IF(AND($B20&lt;&gt;"",$I20&lt;&gt;"", $I20&lt;=S$9,S$9&lt;=$J20),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="720" priority="1227" stopIfTrue="1">
-      <formula>IF(AND($B20="", $K19&lt;&gt;"",$K19&lt;=S$9,S$9&lt;=$L19),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:G20 B21:E22 G21:G22 I19:R22">
-    <cfRule type="expression" dxfId="719" priority="1222" stopIfTrue="1">
-      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="718" priority="1223" stopIfTrue="1">
-      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="717" priority="1224" stopIfTrue="1">
-      <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:AG19 S23:AG23 S21:AG21 S25:AG25">
-    <cfRule type="expression" dxfId="716" priority="1219" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="715" priority="1220" stopIfTrue="1">
-      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"", $I19&lt;=S$9,S$9&lt;=$J19),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="714" priority="1221" stopIfTrue="1">
-      <formula>IF(AND($B19="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H22">
-    <cfRule type="expression" dxfId="713" priority="1216" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="712" priority="1217" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="711" priority="1218" stopIfTrue="1">
-      <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H20">
-    <cfRule type="expression" dxfId="710" priority="1213" stopIfTrue="1">
-      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$L19&lt;&gt;"",$M19=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="709" priority="1214" stopIfTrue="1">
-      <formula>IF(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$J19&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="708" priority="1215" stopIfTrue="1">
-      <formula>IF(OR(AND($B19&lt;&gt;"",$I19&lt;&gt;"",$J19&lt;&gt;"",$K19&lt;&gt;"",$M19&lt;100),AND($I19&lt;&gt;"",$J19&lt;&gt;"",TODAY()&gt;=$I19)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I28 M23:R28 B23:E28 G23:G28">
-    <cfRule type="expression" dxfId="707" priority="1210" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="706" priority="1211" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="705" priority="1212" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H26">
-    <cfRule type="expression" dxfId="704" priority="1207" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="703" priority="1208" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="702" priority="1209" stopIfTrue="1">
-      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
-    <cfRule type="expression" dxfId="701" priority="1204" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="700" priority="1205" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="699" priority="1206" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H28">
-    <cfRule type="expression" dxfId="698" priority="1201" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="697" priority="1202" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="696" priority="1203" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I24">
-    <cfRule type="expression" dxfId="695" priority="1198" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="694" priority="1199" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="693" priority="1200" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K26">
-    <cfRule type="expression" dxfId="692" priority="1195" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="691" priority="1196" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="690" priority="1197" stopIfTrue="1">
-      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K24">
-    <cfRule type="expression" dxfId="689" priority="1192" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="688" priority="1193" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="687" priority="1194" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L28">
-    <cfRule type="expression" dxfId="686" priority="1189" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="685" priority="1190" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="684" priority="1191" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J24">
-    <cfRule type="expression" dxfId="683" priority="1183" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="682" priority="1184" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="681" priority="1185" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J26">
-    <cfRule type="expression" dxfId="680" priority="1180" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="679" priority="1181" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="678" priority="1182" stopIfTrue="1">
-      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J28">
-    <cfRule type="expression" dxfId="677" priority="1177" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="676" priority="1178" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="675" priority="1179" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="674" priority="1174" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="673" priority="1175" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="672" priority="1176" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="671" priority="1168" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$L21&lt;&gt;"",$M21=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="670" priority="1169" stopIfTrue="1">
-      <formula>IF(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$J21&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="669" priority="1170" stopIfTrue="1">
-      <formula>IF(OR(AND($B21&lt;&gt;"",$I21&lt;&gt;"",$J21&lt;&gt;"",$K21&lt;&gt;"",$M21&lt;100),AND($I21&lt;&gt;"",$J21&lt;&gt;"",TODAY()&gt;=$I21)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="expression" dxfId="668" priority="1165" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="667" priority="1166" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="666" priority="1167" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F26">
-    <cfRule type="expression" dxfId="665" priority="1162" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="664" priority="1163" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="663" priority="1164" stopIfTrue="1">
-      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
-    <cfRule type="expression" dxfId="662" priority="1159" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$L27&lt;&gt;"",$M27=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="661" priority="1160" stopIfTrue="1">
-      <formula>IF(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$J27&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="660" priority="1161" stopIfTrue="1">
-      <formula>IF(OR(AND($B27&lt;&gt;"",$I27&lt;&gt;"",$J27&lt;&gt;"",$K27&lt;&gt;"",$M27&lt;100),AND($I27&lt;&gt;"",$J27&lt;&gt;"",TODAY()&gt;=$I27)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F30">
-    <cfRule type="expression" dxfId="659" priority="1156" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="658" priority="1157" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="657" priority="1158" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:E82 M81:R82 G81:G82">
-    <cfRule type="expression" dxfId="656" priority="1138" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="655" priority="1139" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="654" priority="1140" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81:H82">
-    <cfRule type="expression" dxfId="653" priority="1132" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="652" priority="1133" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="651" priority="1134" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L81:L82">
-    <cfRule type="expression" dxfId="650" priority="1126" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="649" priority="1127" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="648" priority="1128" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K82">
-    <cfRule type="expression" dxfId="647" priority="1117" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="646" priority="1118" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="645" priority="1119" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S48:AG48">
-    <cfRule type="expression" dxfId="644" priority="1108" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="643" priority="1109" stopIfTrue="1">
-      <formula>IF(AND($B48&lt;&gt;"",$I48&lt;&gt;"", $I48&lt;=S$9,S$9&lt;=$J48),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="642" priority="1110" stopIfTrue="1">
-      <formula>IF(AND($B48="", $K47&lt;&gt;"",$K47&lt;=S$9,S$9&lt;=$L47),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S51:AG51">
-    <cfRule type="expression" dxfId="641" priority="1105" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="640" priority="1106" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"", $I51&lt;=S$9,S$9&lt;=$J51),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="639" priority="1107" stopIfTrue="1">
-      <formula>IF(AND($B51="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:R48 B47:G48">
-    <cfRule type="expression" dxfId="638" priority="1102" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="637" priority="1103" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="636" priority="1104" stopIfTrue="1">
-      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="635" priority="1099" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$L47&lt;&gt;"",$M47=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="634" priority="1100" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$J47&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="633" priority="1101" stopIfTrue="1">
-      <formula>IF(OR(AND($B47&lt;&gt;"",$I47&lt;&gt;"",$J47&lt;&gt;"",$K47&lt;&gt;"",$M47&lt;100),AND($I47&lt;&gt;"",$J47&lt;&gt;"",TODAY()&gt;=$I47)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:C52 E51:G52">
-    <cfRule type="expression" dxfId="632" priority="1096" stopIfTrue="1">
+  <conditionalFormatting sqref="K49:K50">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:J52">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="1097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="1098" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H52">
-    <cfRule type="expression" dxfId="629" priority="1093" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="628" priority="1094" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="627" priority="1095" stopIfTrue="1">
-      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51:K52">
-    <cfRule type="expression" dxfId="626" priority="1087" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="625" priority="1088" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="624" priority="1089" stopIfTrue="1">
-      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51:L52">
-    <cfRule type="expression" dxfId="623" priority="1072" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="622" priority="1073" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="621" priority="1074" stopIfTrue="1">
-      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D52">
-    <cfRule type="expression" dxfId="620" priority="1069" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="619" priority="1070" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="618" priority="1071" stopIfTrue="1">
-      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S47:AG47 S91:AG91 S87:AG87 S83:AG83">
-    <cfRule type="expression" dxfId="617" priority="1066" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="616" priority="1067" stopIfTrue="1">
-      <formula>IF(AND($B47&lt;&gt;"",$I47&lt;&gt;"", $I47&lt;=S$9,S$9&lt;=$J47),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="615" priority="1068" stopIfTrue="1">
-      <formula>IF(AND($B47="", $K36&lt;&gt;"",$K36&lt;=S$9,S$9&lt;=$L36),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S53:AG53">
-    <cfRule type="expression" dxfId="614" priority="67492" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="613" priority="67493" stopIfTrue="1">
-      <formula>IF(AND($B53&lt;&gt;"",$I53&lt;&gt;"", $I53&lt;=S$9,S$9&lt;=$J53),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="612" priority="67494" stopIfTrue="1">
-      <formula>IF(AND($B53="", $K42&lt;&gt;"",$K42&lt;=S$9,S$9&lt;=$L42),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S61:AG61">
-    <cfRule type="expression" dxfId="611" priority="1060" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="610" priority="1061" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"", $I61&lt;=S$9,S$9&lt;=$J61),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="609" priority="1062" stopIfTrue="1">
-      <formula>IF(AND($B61="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:C62 E61:E62">
-    <cfRule type="expression" dxfId="608" priority="1057" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="607" priority="1058" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="606" priority="1059" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
-    <cfRule type="expression" dxfId="605" priority="1054" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="604" priority="1055" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="603" priority="1056" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:K62">
-    <cfRule type="expression" dxfId="602" priority="1048" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="601" priority="1049" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="600" priority="1050" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61:L62">
-    <cfRule type="expression" dxfId="599" priority="1033" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="598" priority="1034" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="597" priority="1035" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="expression" dxfId="596" priority="1030" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="595" priority="1031" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="594" priority="1032" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F58">
-    <cfRule type="expression" dxfId="593" priority="1027" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="592" priority="1028" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="591" priority="1029" stopIfTrue="1">
-      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59:F60">
-    <cfRule type="expression" dxfId="590" priority="1024" stopIfTrue="1">
-      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="1025" stopIfTrue="1">
-      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="588" priority="1026" stopIfTrue="1">
-      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F62">
-    <cfRule type="expression" dxfId="587" priority="1021" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="586" priority="1022" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="585" priority="1023" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S105:AG105">
-    <cfRule type="expression" dxfId="584" priority="67501" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="67502" stopIfTrue="1">
-      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"", $I105&lt;=S$9,S$9&lt;=$J105),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="582" priority="67503" stopIfTrue="1">
-      <formula>IF(AND($B105="", $K74&lt;&gt;"",$K74&lt;=S$9,S$9&lt;=$L74),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:R64 B63:G64">
-    <cfRule type="expression" dxfId="581" priority="1009" stopIfTrue="1">
-      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$L63&lt;&gt;"",$M63=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="580" priority="1010" stopIfTrue="1">
-      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$J63&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="1011" stopIfTrue="1">
-      <formula>IF(OR(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$M63&lt;100),AND($I63&lt;&gt;"",$J63&lt;&gt;"",TODAY()&gt;=$I63)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63:H64">
-    <cfRule type="expression" dxfId="578" priority="1006" stopIfTrue="1">
-      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$L63&lt;&gt;"",$M63=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="1007" stopIfTrue="1">
-      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$J63&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="576" priority="1008" stopIfTrue="1">
-      <formula>IF(OR(AND($B63&lt;&gt;"",$I63&lt;&gt;"",$J63&lt;&gt;"",$K63&lt;&gt;"",$M63&lt;100),AND($I63&lt;&gt;"",$J63&lt;&gt;"",TODAY()&gt;=$I63)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:E70 N65:R66 B65:C66 E65:E66 G65:G66 G69:G70 M69:R70">
-    <cfRule type="expression" dxfId="575" priority="1003" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="574" priority="1004" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="573" priority="1005" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65:H66">
-    <cfRule type="expression" dxfId="572" priority="1000" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="571" priority="1001" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="570" priority="1002" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H70">
-    <cfRule type="expression" dxfId="569" priority="997" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="998" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="567" priority="999" stopIfTrue="1">
-      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69:L70">
-    <cfRule type="expression" dxfId="566" priority="991" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="565" priority="992" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="564" priority="993" stopIfTrue="1">
-      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69:K70">
-    <cfRule type="expression" dxfId="563" priority="982" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="562" priority="983" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="561" priority="984" stopIfTrue="1">
-      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D66">
-    <cfRule type="expression" dxfId="557" priority="976" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="977" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="555" priority="978" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:C72 E71:E72">
-    <cfRule type="expression" dxfId="554" priority="964" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="553" priority="965" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="552" priority="966" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71:H72">
-    <cfRule type="expression" dxfId="551" priority="961" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="550" priority="962" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="549" priority="963" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K71:K72">
-    <cfRule type="expression" dxfId="548" priority="955" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="956" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="546" priority="957" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L71:L72">
-    <cfRule type="expression" dxfId="545" priority="940" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="544" priority="941" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="543" priority="942" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D72">
-    <cfRule type="expression" dxfId="542" priority="937" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="938" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="540" priority="939" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65:F66">
-    <cfRule type="expression" dxfId="539" priority="922" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="538" priority="923" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="537" priority="924" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:F70">
-    <cfRule type="expression" dxfId="536" priority="919" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="920" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="534" priority="921" stopIfTrue="1">
-      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F72">
-    <cfRule type="expression" dxfId="533" priority="916" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="532" priority="917" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="531" priority="918" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:R74 B73:G74">
-    <cfRule type="expression" dxfId="530" priority="877" stopIfTrue="1">
-      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$L73&lt;&gt;"",$M73=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="878" stopIfTrue="1">
-      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$J73&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="528" priority="879" stopIfTrue="1">
-      <formula>IF(OR(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$M73&lt;100),AND($I73&lt;&gt;"",$J73&lt;&gt;"",TODAY()&gt;=$I73)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H74">
-    <cfRule type="expression" dxfId="527" priority="874" stopIfTrue="1">
-      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$L73&lt;&gt;"",$M73=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="526" priority="875" stopIfTrue="1">
-      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$J73&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="876" stopIfTrue="1">
-      <formula>IF(OR(AND($B73&lt;&gt;"",$I73&lt;&gt;"",$J73&lt;&gt;"",$K73&lt;&gt;"",$M73&lt;100),AND($I73&lt;&gt;"",$J73&lt;&gt;"",TODAY()&gt;=$I73)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:I80 M79:R80 B79:C80 E79:E80 G79:G80">
-    <cfRule type="expression" dxfId="524" priority="871" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="872" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="522" priority="873" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H80">
-    <cfRule type="expression" dxfId="521" priority="868" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="520" priority="869" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="519" priority="870" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79:K80">
-    <cfRule type="expression" dxfId="518" priority="865" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="866" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="867" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:L80">
-    <cfRule type="expression" dxfId="515" priority="859" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="514" priority="860" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="861" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D80">
-    <cfRule type="expression" dxfId="512" priority="856" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="857" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="510" priority="858" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:E78 M77:R78 I77:I78 G77:G78">
-    <cfRule type="expression" dxfId="509" priority="844" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="845" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="846" stopIfTrue="1">
-      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H78">
-    <cfRule type="expression" dxfId="506" priority="841" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="842" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="843" stopIfTrue="1">
-      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77:L78">
-    <cfRule type="expression" dxfId="503" priority="838" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="839" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="840" stopIfTrue="1">
-      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77:J78">
-    <cfRule type="expression" dxfId="500" priority="835" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="836" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="498" priority="837" stopIfTrue="1">
-      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K77:K78">
-    <cfRule type="expression" dxfId="497" priority="832" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="496" priority="833" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="834" stopIfTrue="1">
-      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:I76 M75:R76 B75:C76 E75:E76 G75:G76">
-    <cfRule type="expression" dxfId="494" priority="820" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="821" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="822" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H76">
-    <cfRule type="expression" dxfId="491" priority="817" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="490" priority="818" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="819" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K75:K76">
-    <cfRule type="expression" dxfId="488" priority="814" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="815" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="486" priority="816" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75:J76">
-    <cfRule type="expression" dxfId="485" priority="811" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="812" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="813" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D76">
-    <cfRule type="expression" dxfId="482" priority="805" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="806" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="807" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75:F76">
-    <cfRule type="expression" dxfId="479" priority="802" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="803" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="804" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F78">
-    <cfRule type="expression" dxfId="476" priority="799" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$L77&lt;&gt;"",$M77=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="800" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$J77&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="801" stopIfTrue="1">
-      <formula>IF(OR(AND($B77&lt;&gt;"",$I77&lt;&gt;"",$J77&lt;&gt;"",$K77&lt;&gt;"",$M77&lt;100),AND($I77&lt;&gt;"",$J77&lt;&gt;"",TODAY()&gt;=$I77)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F80">
-    <cfRule type="expression" dxfId="473" priority="796" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="797" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="798" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F82">
-    <cfRule type="expression" dxfId="470" priority="793" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="794" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="795" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91:E92 M91:R92 G91:G92">
-    <cfRule type="expression" dxfId="467" priority="787" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="788" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="789" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H92">
-    <cfRule type="expression" dxfId="464" priority="784" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="785" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="462" priority="786" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L91:L92">
-    <cfRule type="expression" dxfId="461" priority="781" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="782" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="783" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K91:K92">
-    <cfRule type="expression" dxfId="458" priority="775" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="776" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="456" priority="777" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I83:R84 B83:G84">
-    <cfRule type="expression" dxfId="455" priority="763" stopIfTrue="1">
-      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$L83&lt;&gt;"",$M83=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="454" priority="764" stopIfTrue="1">
-      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$J83&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="765" stopIfTrue="1">
-      <formula>IF(OR(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$M83&lt;100),AND($I83&lt;&gt;"",$J83&lt;&gt;"",TODAY()&gt;=$I83)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83:H84">
-    <cfRule type="expression" dxfId="452" priority="760" stopIfTrue="1">
-      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$L83&lt;&gt;"",$M83=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="761" stopIfTrue="1">
-      <formula>IF(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$J83&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="450" priority="762" stopIfTrue="1">
-      <formula>IF(OR(AND($B83&lt;&gt;"",$I83&lt;&gt;"",$J83&lt;&gt;"",$K83&lt;&gt;"",$M83&lt;100),AND($I83&lt;&gt;"",$J83&lt;&gt;"",TODAY()&gt;=$I83)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M89:R90 B89:C90 E89:E90 G89:G90">
-    <cfRule type="expression" dxfId="449" priority="757" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="448" priority="758" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="759" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H90">
-    <cfRule type="expression" dxfId="446" priority="754" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="755" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="444" priority="756" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:K90">
-    <cfRule type="expression" dxfId="443" priority="751" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="442" priority="752" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="753" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L89:L90">
-    <cfRule type="expression" dxfId="440" priority="745" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="746" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="438" priority="747" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89:D90">
-    <cfRule type="expression" dxfId="437" priority="742" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="436" priority="743" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="744" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87:E88 M87:R88 G87:G88">
-    <cfRule type="expression" dxfId="434" priority="736" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="737" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="432" priority="738" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87:H88">
-    <cfRule type="expression" dxfId="431" priority="730" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="430" priority="731" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="732" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L87:L88">
-    <cfRule type="expression" dxfId="428" priority="727" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="728" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="426" priority="729" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K87:K88">
-    <cfRule type="expression" dxfId="425" priority="721" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="424" priority="722" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="723" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M85:R86 B85:C86 E85:E86 G85:G86">
-    <cfRule type="expression" dxfId="422" priority="709" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="710" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="420" priority="711" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85:H86">
-    <cfRule type="expression" dxfId="419" priority="706" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="418" priority="707" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="708" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K85:K86">
-    <cfRule type="expression" dxfId="416" priority="703" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="704" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="705" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L85:L86">
-    <cfRule type="expression" dxfId="413" priority="697" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="698" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="699" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D86">
-    <cfRule type="expression" dxfId="410" priority="694" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="695" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="696" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
-    <cfRule type="expression" dxfId="407" priority="679" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="680" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="681" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F88">
-    <cfRule type="expression" dxfId="404" priority="676" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="677" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="678" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:F90">
-    <cfRule type="expression" dxfId="401" priority="673" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="674" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="675" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:F92">
-    <cfRule type="expression" dxfId="398" priority="670" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="671" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="672" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105:R106 B105:G106">
-    <cfRule type="expression" dxfId="395" priority="640" stopIfTrue="1">
-      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$L105&lt;&gt;"",$M105=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="394" priority="641" stopIfTrue="1">
-      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$J105&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="642" stopIfTrue="1">
-      <formula>IF(OR(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$M105&lt;100),AND($I105&lt;&gt;"",$J105&lt;&gt;"",TODAY()&gt;=$I105)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H105:H106">
-    <cfRule type="expression" dxfId="392" priority="637" stopIfTrue="1">
-      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$L105&lt;&gt;"",$M105=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="638" stopIfTrue="1">
-      <formula>IF(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$J105&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="390" priority="639" stopIfTrue="1">
-      <formula>IF(OR(AND($B105&lt;&gt;"",$I105&lt;&gt;"",$J105&lt;&gt;"",$K105&lt;&gt;"",$M105&lt;100),AND($I105&lt;&gt;"",$J105&lt;&gt;"",TODAY()&gt;=$I105)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117:D118">
-    <cfRule type="expression" dxfId="389" priority="547" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="548" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="549" stopIfTrue="1">
-      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S81:AG81">
-    <cfRule type="expression" dxfId="386" priority="67648" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="67649" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"", $I81&lt;=S$9,S$9&lt;=$J81),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="67650" stopIfTrue="1">
-      <formula>IF(AND($B81="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="expression" dxfId="383" priority="538" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="539" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="540" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S50:AG50">
-    <cfRule type="expression" dxfId="380" priority="532" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="533" stopIfTrue="1">
-      <formula>IF(AND($B50&lt;&gt;"",$I50&lt;&gt;"", $I50&lt;=S$9,S$9&lt;=$J50),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="378" priority="534" stopIfTrue="1">
-      <formula>IF(AND($B50="", $K49&lt;&gt;"",$K49&lt;=S$9,S$9&lt;=$L49),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I50 M49:R50">
-    <cfRule type="expression" dxfId="377" priority="529" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="530" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="531" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S49:AG49">
-    <cfRule type="expression" dxfId="374" priority="526" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="527" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"", $I49&lt;=S$9,S$9&lt;=$J49),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="528" stopIfTrue="1">
-      <formula>IF(AND($B49="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C50 E49:E50 G49:G50">
-    <cfRule type="expression" dxfId="371" priority="523" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="370" priority="524" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="525" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H50">
-    <cfRule type="expression" dxfId="368" priority="520" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="521" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="522" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:K50">
-    <cfRule type="expression" dxfId="365" priority="517" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="518" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="519" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J50">
-    <cfRule type="expression" dxfId="362" priority="514" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="515" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="516" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49:L50">
-    <cfRule type="expression" dxfId="359" priority="511" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="512" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="513" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="356" priority="508" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="509" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="510" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F50">
-    <cfRule type="expression" dxfId="353" priority="505" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$L49&lt;&gt;"",$M49=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="506" stopIfTrue="1">
-      <formula>IF(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$J49&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="507" stopIfTrue="1">
-      <formula>IF(OR(AND($B49&lt;&gt;"",$I49&lt;&gt;"",$J49&lt;&gt;"",$K49&lt;&gt;"",$M49&lt;100),AND($I49&lt;&gt;"",$J49&lt;&gt;"",TODAY()&gt;=$I49)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J32">
-    <cfRule type="expression" dxfId="350" priority="502" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="503" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="504" stopIfTrue="1">
-      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S63:AG63">
-    <cfRule type="expression" dxfId="347" priority="68014" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="68015" stopIfTrue="1">
-      <formula>IF(AND($B63&lt;&gt;"",$I63&lt;&gt;"", $I63&lt;=S$9,S$9&lt;=$J63),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="68016" stopIfTrue="1">
-      <formula>IF(AND($B63="", $K54&lt;&gt;"",$K54&lt;=S$9,S$9&lt;=$L54),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S77:AG77">
-    <cfRule type="expression" dxfId="344" priority="68146" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="68147" stopIfTrue="1">
-      <formula>IF(AND($B77&lt;&gt;"",$I77&lt;&gt;"", $I77&lt;=S$9,S$9&lt;=$J77),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="68148" stopIfTrue="1">
-      <formula>IF(AND($B77="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S73:AG73">
-    <cfRule type="expression" dxfId="341" priority="68158" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="68159" stopIfTrue="1">
-      <formula>IF(AND($B73&lt;&gt;"",$I73&lt;&gt;"", $I73&lt;=S$9,S$9&lt;=$J73),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="339" priority="68160" stopIfTrue="1">
-      <formula>IF(AND($B73="", $K62&lt;&gt;"",$K62&lt;=S$9,S$9&lt;=$L62),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S56:AG56">
-    <cfRule type="expression" dxfId="338" priority="499" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="500" stopIfTrue="1">
-      <formula>IF(AND($B56&lt;&gt;"",$I56&lt;&gt;"", $I56&lt;=S$9,S$9&lt;=$J56),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="501" stopIfTrue="1">
-      <formula>IF(AND($B56="", $K55&lt;&gt;"",$K55&lt;=S$9,S$9&lt;=$L55),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S55:AG55">
-    <cfRule type="expression" dxfId="335" priority="496" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="497" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"", $I55&lt;=S$9,S$9&lt;=$J55),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="498" stopIfTrue="1">
-      <formula>IF(AND($B55="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M55:R56 B55:C56 E55:E56 G55:G56">
-    <cfRule type="expression" dxfId="332" priority="493" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="494" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="330" priority="495" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H56">
-    <cfRule type="expression" dxfId="329" priority="490" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="491" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="492" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D56">
-    <cfRule type="expression" dxfId="326" priority="478" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="479" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="480" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55:F56">
-    <cfRule type="expression" dxfId="323" priority="475" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="476" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="477" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S68:AG68">
-    <cfRule type="expression" dxfId="320" priority="472" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="473" stopIfTrue="1">
-      <formula>IF(AND($B68&lt;&gt;"",$I68&lt;&gt;"", $I68&lt;=S$9,S$9&lt;=$J68),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="474" stopIfTrue="1">
-      <formula>IF(AND($B68="", $K67&lt;&gt;"",$K67&lt;=S$9,S$9&lt;=$L67),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S67:AG67">
-    <cfRule type="expression" dxfId="317" priority="469" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="470" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"", $I67&lt;=S$9,S$9&lt;=$J67),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="471" stopIfTrue="1">
-      <formula>IF(AND($B67="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N67:R68 B67:C68 E67:E68 G67:G68">
-    <cfRule type="expression" dxfId="314" priority="466" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="467" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="468" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H68">
-    <cfRule type="expression" dxfId="311" priority="463" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="464" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="465" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D68">
-    <cfRule type="expression" dxfId="305" priority="451" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="452" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="453" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J82">
-    <cfRule type="expression" dxfId="302" priority="436" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="437" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="438" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F68">
-    <cfRule type="expression" dxfId="299" priority="445" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="446" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="447" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S102:AG102 S94:AG94 S100:AG100 S98:AG98 S96:AG96">
-    <cfRule type="expression" dxfId="296" priority="433" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="434" stopIfTrue="1">
-      <formula>IF(AND($B94&lt;&gt;"",$I94&lt;&gt;"", $I94&lt;=S$9,S$9&lt;=$J94),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="435" stopIfTrue="1">
-      <formula>IF(AND($B94="", $K93&lt;&gt;"",$K93&lt;=S$9,S$9&lt;=$L93),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S99:AG99 S95:AG95">
-    <cfRule type="expression" dxfId="293" priority="430" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="431" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"", $I95&lt;=S$9,S$9&lt;=$J95),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="432" stopIfTrue="1">
-      <formula>IF(AND($B95="", #REF!&lt;&gt;"",#REF!&lt;=S$9,S$9&lt;=#REF!),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S101:AG101 S97:AG97 S93:AG93">
-    <cfRule type="expression" dxfId="290" priority="427" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="428" stopIfTrue="1">
-      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"", $I93&lt;=S$9,S$9&lt;=$J93),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="429" stopIfTrue="1">
-      <formula>IF(AND($B93="", $K82&lt;&gt;"",$K82&lt;=S$9,S$9&lt;=$L82),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101:E102 M101:R102 G101:G102">
-    <cfRule type="expression" dxfId="287" priority="424" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="425" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="426" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H102">
-    <cfRule type="expression" dxfId="284" priority="421" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="422" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="423" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L101:L102">
-    <cfRule type="expression" dxfId="281" priority="418" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="419" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="420" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K101:K102">
-    <cfRule type="expression" dxfId="278" priority="412" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="413" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="414" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I93:R94 B93:G94">
-    <cfRule type="expression" dxfId="275" priority="409" stopIfTrue="1">
-      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$L93&lt;&gt;"",$M93=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="410" stopIfTrue="1">
-      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$J93&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="411" stopIfTrue="1">
-      <formula>IF(OR(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$M93&lt;100),AND($I93&lt;&gt;"",$J93&lt;&gt;"",TODAY()&gt;=$I93)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93:H94">
-    <cfRule type="expression" dxfId="272" priority="406" stopIfTrue="1">
-      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$L93&lt;&gt;"",$M93=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="407" stopIfTrue="1">
-      <formula>IF(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$J93&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="408" stopIfTrue="1">
-      <formula>IF(OR(AND($B93&lt;&gt;"",$I93&lt;&gt;"",$J93&lt;&gt;"",$K93&lt;&gt;"",$M93&lt;100),AND($I93&lt;&gt;"",$J93&lt;&gt;"",TODAY()&gt;=$I93)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M99:R100 B99:C100 E99:E100 G99:G100">
-    <cfRule type="expression" dxfId="269" priority="403" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="404" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="405" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H100">
-    <cfRule type="expression" dxfId="266" priority="400" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="401" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="402" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K99:K100">
-    <cfRule type="expression" dxfId="263" priority="397" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="398" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="399" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L99:L100">
-    <cfRule type="expression" dxfId="260" priority="391" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="392" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="393" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D100">
-    <cfRule type="expression" dxfId="257" priority="388" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="389" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="390" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:E98 M97:R98 G97:G98">
-    <cfRule type="expression" dxfId="254" priority="385" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="386" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="387" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97:H98">
-    <cfRule type="expression" dxfId="251" priority="382" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="383" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="384" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L97:L98">
-    <cfRule type="expression" dxfId="248" priority="379" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="380" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="381" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K97:K98">
-    <cfRule type="expression" dxfId="245" priority="373" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="374" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="375" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I95:I96 M95:R96 B95:C96 E95:E96 G95:G96">
-    <cfRule type="expression" dxfId="242" priority="370" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="371" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="372" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95:H96">
-    <cfRule type="expression" dxfId="239" priority="367" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="368" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="369" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D96">
-    <cfRule type="expression" dxfId="236" priority="355" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="356" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="357" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F96">
-    <cfRule type="expression" dxfId="233" priority="340" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="341" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="342" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F98">
-    <cfRule type="expression" dxfId="230" priority="337" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="338" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="339" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F100">
-    <cfRule type="expression" dxfId="227" priority="334" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="335" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="336" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F102">
-    <cfRule type="expression" dxfId="224" priority="331" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="332" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="333" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S107:AG107">
-    <cfRule type="expression" dxfId="221" priority="68245" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="68246" stopIfTrue="1">
-      <formula>IF(AND($B107&lt;&gt;"",$I107&lt;&gt;"", $I107&lt;=S$9,S$9&lt;=$J107),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="68247" stopIfTrue="1">
-      <formula>IF(AND($B107="", $K60&lt;&gt;"",$K60&lt;=S$9,S$9&lt;=$L60),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S104:AG104">
-    <cfRule type="expression" dxfId="218" priority="328" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="329" stopIfTrue="1">
-      <formula>IF(AND($B104&lt;&gt;"",$I104&lt;&gt;"", $I104&lt;=S$9,S$9&lt;=$J104),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="330" stopIfTrue="1">
-      <formula>IF(AND($B104="", $K103&lt;&gt;"",$K103&lt;=S$9,S$9&lt;=$L103),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S103:AG103">
-    <cfRule type="expression" dxfId="215" priority="325" stopIfTrue="1">
-      <formula>IF(OR(WEEKDAY(S$9)=7,WEEKDAY(S$9)=1,IF(ISNA(MATCH(S$9,Holiday,0)),FALSE,TRUE)),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="326" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"", $I103&lt;=S$9,S$9&lt;=$J103),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="327" stopIfTrue="1">
-      <formula>IF(AND($B103="", $K92&lt;&gt;"",$K92&lt;=S$9,S$9&lt;=$L92),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:E104 M103:R104 G103:G104">
-    <cfRule type="expression" dxfId="212" priority="322" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="323" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="324" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H104">
-    <cfRule type="expression" dxfId="209" priority="319" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="320" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="321" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L103:L104">
-    <cfRule type="expression" dxfId="206" priority="316" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="317" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="318" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K103:K104">
-    <cfRule type="expression" dxfId="203" priority="310" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="311" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="312" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F104">
-    <cfRule type="expression" dxfId="200" priority="307" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="308" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="309" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L125:L126">
-    <cfRule type="expression" dxfId="197" priority="256" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$L125&lt;&gt;"",$M125=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="257" stopIfTrue="1">
-      <formula>IF(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$J125&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="258" stopIfTrue="1">
-      <formula>IF(OR(AND($B125&lt;&gt;"",$I125&lt;&gt;"",$J125&lt;&gt;"",$K125&lt;&gt;"",$M125&lt;100),AND($I125&lt;&gt;"",$J125&lt;&gt;"",TODAY()&gt;=$I125)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89:J90">
-    <cfRule type="expression" dxfId="194" priority="229" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="230" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="231" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91:J92">
-    <cfRule type="expression" dxfId="191" priority="226" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="227" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="228" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:I92">
-    <cfRule type="expression" dxfId="188" priority="223" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$L91&lt;&gt;"",$M91=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="224" stopIfTrue="1">
-      <formula>IF(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$J91&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="225" stopIfTrue="1">
-      <formula>IF(OR(AND($B91&lt;&gt;"",$I91&lt;&gt;"",$J91&lt;&gt;"",$K91&lt;&gt;"",$M91&lt;100),AND($I91&lt;&gt;"",$J91&lt;&gt;"",TODAY()&gt;=$I91)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:I90">
-    <cfRule type="expression" dxfId="185" priority="220" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$L89&lt;&gt;"",$M89=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="221" stopIfTrue="1">
-      <formula>IF(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$J89&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="222" stopIfTrue="1">
-      <formula>IF(OR(AND($B89&lt;&gt;"",$I89&lt;&gt;"",$J89&lt;&gt;"",$K89&lt;&gt;"",$M89&lt;100),AND($I89&lt;&gt;"",$J89&lt;&gt;"",TODAY()&gt;=$I89)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:I88">
-    <cfRule type="expression" dxfId="182" priority="217" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="218" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="219" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85:I86">
-    <cfRule type="expression" dxfId="179" priority="214" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="215" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="216" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85:J86">
-    <cfRule type="expression" dxfId="176" priority="211" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$L85&lt;&gt;"",$M85=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="212" stopIfTrue="1">
-      <formula>IF(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$J85&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="213" stopIfTrue="1">
-      <formula>IF(OR(AND($B85&lt;&gt;"",$I85&lt;&gt;"",$J85&lt;&gt;"",$K85&lt;&gt;"",$M85&lt;100),AND($I85&lt;&gt;"",$J85&lt;&gt;"",TODAY()&gt;=$I85)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87:J88">
-    <cfRule type="expression" dxfId="173" priority="208" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$L87&lt;&gt;"",$M87=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="209" stopIfTrue="1">
-      <formula>IF(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$J87&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="210" stopIfTrue="1">
-      <formula>IF(OR(AND($B87&lt;&gt;"",$I87&lt;&gt;"",$J87&lt;&gt;"",$K87&lt;&gt;"",$M87&lt;100),AND($I87&lt;&gt;"",$J87&lt;&gt;"",TODAY()&gt;=$I87)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I52">
-    <cfRule type="expression" dxfId="170" priority="193" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="194" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="195" stopIfTrue="1">
-      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:J62">
-    <cfRule type="expression" dxfId="167" priority="181" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="182" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="183" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J52">
-    <cfRule type="expression" dxfId="164" priority="178" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$L51&lt;&gt;"",$M51=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="179" stopIfTrue="1">
-      <formula>IF(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$J51&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="180" stopIfTrue="1">
-      <formula>IF(OR(AND($B51&lt;&gt;"",$I51&lt;&gt;"",$J51&lt;&gt;"",$K51&lt;&gt;"",$M51&lt;100),AND($I51&lt;&gt;"",$J51&lt;&gt;"",TODAY()&gt;=$I51)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I98">
-    <cfRule type="expression" dxfId="161" priority="172" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="173" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="174" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L117:L118">
-    <cfRule type="expression" dxfId="158" priority="145" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$L117&lt;&gt;"",$M117=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="146" stopIfTrue="1">
-      <formula>IF(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$J117&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="147" stopIfTrue="1">
-      <formula>IF(OR(AND($B117&lt;&gt;"",$I117&lt;&gt;"",$J117&lt;&gt;"",$K117&lt;&gt;"",$M117&lt;100),AND($I117&lt;&gt;"",$J117&lt;&gt;"",TODAY()&gt;=$I117)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L18">
-    <cfRule type="expression" dxfId="155" priority="142" stopIfTrue="1">
-      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$L17&lt;&gt;"",$M17=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="143" stopIfTrue="1">
-      <formula>IF(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$J17&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="144" stopIfTrue="1">
-      <formula>IF(OR(AND($B17&lt;&gt;"",$I17&lt;&gt;"",$J17&lt;&gt;"",$K17&lt;&gt;"",$M17&lt;100),AND($I17&lt;&gt;"",$J17&lt;&gt;"",TODAY()&gt;=$I17)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:L24">
-    <cfRule type="expression" dxfId="152" priority="139" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$L23&lt;&gt;"",$M23=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="140" stopIfTrue="1">
-      <formula>IF(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$J23&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="141" stopIfTrue="1">
-      <formula>IF(OR(AND($B23&lt;&gt;"",$I23&lt;&gt;"",$J23&lt;&gt;"",$K23&lt;&gt;"",$M23&lt;100),AND($I23&lt;&gt;"",$J23&lt;&gt;"",TODAY()&gt;=$I23)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L26">
-    <cfRule type="expression" dxfId="149" priority="136" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$L25&lt;&gt;"",$M25=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="137" stopIfTrue="1">
-      <formula>IF(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$J25&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="138" stopIfTrue="1">
-      <formula>IF(OR(AND($B25&lt;&gt;"",$I25&lt;&gt;"",$J25&lt;&gt;"",$K25&lt;&gt;"",$M25&lt;100),AND($I25&lt;&gt;"",$J25&lt;&gt;"",TODAY()&gt;=$I25)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I30">
-    <cfRule type="expression" dxfId="146" priority="133" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$L29&lt;&gt;"",$M29=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="134" stopIfTrue="1">
-      <formula>IF(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$J29&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="135" stopIfTrue="1">
-      <formula>IF(OR(AND($B29&lt;&gt;"",$I29&lt;&gt;"",$J29&lt;&gt;"",$K29&lt;&gt;"",$M29&lt;100),AND($I29&lt;&gt;"",$J29&lt;&gt;"",TODAY()&gt;=$I29)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:I32">
-    <cfRule type="expression" dxfId="143" priority="130" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$L31&lt;&gt;"",$M31=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="131" stopIfTrue="1">
-      <formula>IF(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$J31&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="132" stopIfTrue="1">
-      <formula>IF(OR(AND($B31&lt;&gt;"",$I31&lt;&gt;"",$J31&lt;&gt;"",$K31&lt;&gt;"",$M31&lt;100),AND($I31&lt;&gt;"",$J31&lt;&gt;"",TODAY()&gt;=$I31)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35:L36">
-    <cfRule type="expression" dxfId="140" priority="127" stopIfTrue="1">
-      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$L35&lt;&gt;"",$M35=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="128" stopIfTrue="1">
-      <formula>IF(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$J35&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="129" stopIfTrue="1">
-      <formula>IF(OR(AND($B35&lt;&gt;"",$I35&lt;&gt;"",$J35&lt;&gt;"",$K35&lt;&gt;"",$M35&lt;100),AND($I35&lt;&gt;"",$J35&lt;&gt;"",TODAY()&gt;=$I35)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L38">
-    <cfRule type="expression" dxfId="137" priority="124" stopIfTrue="1">
-      <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$L37&lt;&gt;"",$M37=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="125" stopIfTrue="1">
-      <formula>IF(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$J37&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="126" stopIfTrue="1">
-      <formula>IF(OR(AND($B37&lt;&gt;"",$I37&lt;&gt;"",$J37&lt;&gt;"",$K37&lt;&gt;"",$M37&lt;100),AND($I37&lt;&gt;"",$J37&lt;&gt;"",TODAY()&gt;=$I37)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L39:L40">
-    <cfRule type="expression" dxfId="134" priority="121" stopIfTrue="1">
-      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$L39&lt;&gt;"",$M39=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="122" stopIfTrue="1">
-      <formula>IF(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$J39&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="123" stopIfTrue="1">
-      <formula>IF(OR(AND($B39&lt;&gt;"",$I39&lt;&gt;"",$J39&lt;&gt;"",$K39&lt;&gt;"",$M39&lt;100),AND($I39&lt;&gt;"",$J39&lt;&gt;"",TODAY()&gt;=$I39)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57:L58">
-    <cfRule type="expression" dxfId="131" priority="115" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="116" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="117" stopIfTrue="1">
-      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I56">
-    <cfRule type="expression" dxfId="128" priority="112" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="113" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="114" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J56">
-    <cfRule type="expression" dxfId="125" priority="109" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="110" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="111" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:K56">
-    <cfRule type="expression" dxfId="122" priority="103" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="104" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="105" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:I62">
-    <cfRule type="expression" dxfId="119" priority="100" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$L61&lt;&gt;"",$M61=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="101" stopIfTrue="1">
-      <formula>IF(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$J61&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="102" stopIfTrue="1">
-      <formula>IF(OR(AND($B61&lt;&gt;"",$I61&lt;&gt;"",$J61&lt;&gt;"",$K61&lt;&gt;"",$M61&lt;100),AND($I61&lt;&gt;"",$J61&lt;&gt;"",TODAY()&gt;=$I61)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59:K60">
-    <cfRule type="expression" dxfId="116" priority="97" stopIfTrue="1">
-      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="98" stopIfTrue="1">
-      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="99" stopIfTrue="1">
-      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59:J60">
-    <cfRule type="expression" dxfId="113" priority="94" stopIfTrue="1">
-      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$L59&lt;&gt;"",$M59=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="95" stopIfTrue="1">
-      <formula>IF(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$J59&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="96" stopIfTrue="1">
-      <formula>IF(OR(AND($B59&lt;&gt;"",$I59&lt;&gt;"",$J59&lt;&gt;"",$K59&lt;&gt;"",$M59&lt;100),AND($I59&lt;&gt;"",$J59&lt;&gt;"",TODAY()&gt;=$I59)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65:I66">
-    <cfRule type="expression" dxfId="110" priority="91" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="92" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="93" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
-    <cfRule type="expression" dxfId="107" priority="88" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="89" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="90" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65:J66">
-    <cfRule type="expression" dxfId="104" priority="85" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="86" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="87" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:J68">
-    <cfRule type="expression" dxfId="101" priority="82" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="83" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="84" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:K66">
-    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="80" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="81" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K67:K68">
-    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="77" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="78" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I70">
-    <cfRule type="expression" dxfId="92" priority="73" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="74" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="75" stopIfTrue="1">
-      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:I72">
-    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="71" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="72" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J70">
-    <cfRule type="expression" dxfId="86" priority="67" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$L69&lt;&gt;"",$M69=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="68" stopIfTrue="1">
-      <formula>IF(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$J69&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="69" stopIfTrue="1">
-      <formula>IF(OR(AND($B69&lt;&gt;"",$I69&lt;&gt;"",$J69&lt;&gt;"",$K69&lt;&gt;"",$M69&lt;100),AND($I69&lt;&gt;"",$J69&lt;&gt;"",TODAY()&gt;=$I69)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71:J72">
-    <cfRule type="expression" dxfId="83" priority="64" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$L71&lt;&gt;"",$M71=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="65" stopIfTrue="1">
-      <formula>IF(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$J71&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="66" stopIfTrue="1">
-      <formula>IF(OR(AND($B71&lt;&gt;"",$I71&lt;&gt;"",$J71&lt;&gt;"",$K71&lt;&gt;"",$M71&lt;100),AND($I71&lt;&gt;"",$J71&lt;&gt;"",TODAY()&gt;=$I71)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J80">
-    <cfRule type="expression" dxfId="80" priority="61" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$L79&lt;&gt;"",$M79=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="62" stopIfTrue="1">
-      <formula>IF(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$J79&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="63" stopIfTrue="1">
-      <formula>IF(OR(AND($B79&lt;&gt;"",$I79&lt;&gt;"",$J79&lt;&gt;"",$K79&lt;&gt;"",$M79&lt;100),AND($I79&lt;&gt;"",$J79&lt;&gt;"",TODAY()&gt;=$I79)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81:I82">
-    <cfRule type="expression" dxfId="77" priority="58" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$L81&lt;&gt;"",$M81=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="59" stopIfTrue="1">
-      <formula>IF(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$J81&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="60" stopIfTrue="1">
-      <formula>IF(OR(AND($B81&lt;&gt;"",$I81&lt;&gt;"",$J81&lt;&gt;"",$K81&lt;&gt;"",$M81&lt;100),AND($I81&lt;&gt;"",$J81&lt;&gt;"",TODAY()&gt;=$I81)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J97:J98">
-    <cfRule type="expression" dxfId="74" priority="55" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$L97&lt;&gt;"",$M97=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="56" stopIfTrue="1">
-      <formula>IF(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$J97&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
-      <formula>IF(OR(AND($B97&lt;&gt;"",$I97&lt;&gt;"",$J97&lt;&gt;"",$K97&lt;&gt;"",$M97&lt;100),AND($I97&lt;&gt;"",$J97&lt;&gt;"",TODAY()&gt;=$I97)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I100">
-    <cfRule type="expression" dxfId="71" priority="52" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="53" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="54" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99:J100">
-    <cfRule type="expression" dxfId="68" priority="49" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$L99&lt;&gt;"",$M99=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="50" stopIfTrue="1">
-      <formula>IF(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$J99&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="51" stopIfTrue="1">
-      <formula>IF(OR(AND($B99&lt;&gt;"",$I99&lt;&gt;"",$J99&lt;&gt;"",$K99&lt;&gt;"",$M99&lt;100),AND($I99&lt;&gt;"",$J99&lt;&gt;"",TODAY()&gt;=$I99)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101:I102">
-    <cfRule type="expression" dxfId="65" priority="46" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="47" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="48" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101:J102">
-    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$L101&lt;&gt;"",$M101=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
-      <formula>IF(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$J101&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
-      <formula>IF(OR(AND($B101&lt;&gt;"",$I101&lt;&gt;"",$J101&lt;&gt;"",$K101&lt;&gt;"",$M101&lt;100),AND($I101&lt;&gt;"",$J101&lt;&gt;"",TODAY()&gt;=$I101)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I104">
-    <cfRule type="expression" dxfId="59" priority="40" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J104">
-    <cfRule type="expression" dxfId="56" priority="37" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$L103&lt;&gt;"",$M103=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
-      <formula>IF(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$J103&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="39" stopIfTrue="1">
-      <formula>IF(OR(AND($B103&lt;&gt;"",$I103&lt;&gt;"",$J103&lt;&gt;"",$K103&lt;&gt;"",$M103&lt;100),AND($I103&lt;&gt;"",$J103&lt;&gt;"",TODAY()&gt;=$I103)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L75:L76">
-    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$L75&lt;&gt;"",$M75=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
-      <formula>IF(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$J75&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
-      <formula>IF(OR(AND($B75&lt;&gt;"",$I75&lt;&gt;"",$J75&lt;&gt;"",$K75&lt;&gt;"",$M75&lt;100),AND($I75&lt;&gt;"",$J75&lt;&gt;"",TODAY()&gt;=$I75)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95:J96">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K95:K96">
-    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L95:L96">
-    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$L95&lt;&gt;"",$M95=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="26" stopIfTrue="1">
-      <formula>IF(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$J95&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
-      <formula>IF(OR(AND($B95&lt;&gt;"",$I95&lt;&gt;"",$J95&lt;&gt;"",$K95&lt;&gt;"",$M95&lt;100),AND($I95&lt;&gt;"",$J95&lt;&gt;"",TODAY()&gt;=$I95)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55:L56">
-    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$L55&lt;&gt;"",$M55=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
-      <formula>IF(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$J55&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
-      <formula>IF(OR(AND($B55&lt;&gt;"",$I55&lt;&gt;"",$J55&lt;&gt;"",$K55&lt;&gt;"",$M55&lt;100),AND($I55&lt;&gt;"",$J55&lt;&gt;"",TODAY()&gt;=$I55)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57:I58">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
-      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K58">
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$L57&lt;&gt;"",$M57=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
-      <formula>IF(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$J57&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
-      <formula>IF(OR(AND($B57&lt;&gt;"",$I57&lt;&gt;"",$J57&lt;&gt;"",$K57&lt;&gt;"",$M57&lt;100),AND($I57&lt;&gt;"",$J57&lt;&gt;"",TODAY()&gt;=$I57)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65:L66">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L67:L68">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41:L42">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$L41&lt;&gt;"",$M41=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
-      <formula>IF(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$J41&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
-      <formula>IF(OR(AND($B41&lt;&gt;"",$I41&lt;&gt;"",$J41&lt;&gt;"",$K41&lt;&gt;"",$M41&lt;100),AND($I41&lt;&gt;"",$J41&lt;&gt;"",TODAY()&gt;=$I41)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M65:M66">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$L65&lt;&gt;"",$M65=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>IF(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$J65&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
-      <formula>IF(OR(AND($B65&lt;&gt;"",$I65&lt;&gt;"",$J65&lt;&gt;"",$K65&lt;&gt;"",$M65&lt;100),AND($I65&lt;&gt;"",$J65&lt;&gt;"",TODAY()&gt;=$I65)),TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67:M68">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$L67&lt;&gt;"",$M67=100),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>IF(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$J67&lt;TODAY()),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>IF(OR(AND($B67&lt;&gt;"",$I67&lt;&gt;"",$J67&lt;&gt;"",$K67&lt;&gt;"",$M67&lt;100),AND($I67&lt;&gt;"",$J67&lt;&gt;"",TODAY()&gt;=$I67)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/management/【JAPTOOL】Project Schedule Offshore.xlsx
+++ b/management/【JAPTOOL】Project Schedule Offshore.xlsx
@@ -1811,14 +1811,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1827,33 +1819,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1901,6 +1879,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1932,20 +1918,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14999,10 +14999,10 @@
       <c r="H1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="144" t="s">
+      <c r="I1" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="144"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="46"/>
       <c r="L1" s="47" t="s">
         <v>47</v>
@@ -15010,8 +15010,8 @@
       <c r="M1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="49"/>
       <c r="Q1" s="50"/>
       <c r="R1" s="50"/>
@@ -15102,7 +15102,7 @@
       <c r="AQ2" s="44"/>
       <c r="AR2" s="58" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," mm/dd/yyyy")</f>
-        <v>Date： 07/08/2015</v>
+        <v>Date： 07/10/2015</v>
       </c>
       <c r="AS2" s="44"/>
     </row>
@@ -15122,11 +15122,11 @@
       </c>
       <c r="J3" s="61">
         <f ca="1">COUNTIF(N15:N234,"=△") + COUNTIF(N15:N234,"=▲")  +  COUNTIF(N15:N234,"=★")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="61">
         <f ca="1">COUNTIF(N15:N234,"=◇")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="61">
         <f ca="1">COUNTIF(N15:N234,"=▲")</f>
@@ -15134,7 +15134,7 @@
       </c>
       <c r="M3" s="61">
         <f ca="1">COUNTIF(N15:N234,"=★")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
@@ -15268,19 +15268,19 @@
     </row>
     <row r="7" spans="1:46" ht="18.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="141" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="143"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="137"/>
       <c r="M7" s="71"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15297,13 +15297,13 @@
     </row>
     <row r="8" spans="1:46" ht="18.75" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="72">
         <f>MIN(I15:I234)</f>
         <v>42172</v>
@@ -15325,16 +15325,16 @@
         <f>TEXT(T9,"yyyy")</f>
         <v>2015</v>
       </c>
-      <c r="O8" s="153">
+      <c r="O8" s="123">
         <f>SUM(P15:P234)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="153">
+      <c r="P8" s="124"/>
+      <c r="Q8" s="123">
         <f>SUM(R15:R234)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="154"/>
+      <c r="R8" s="124"/>
       <c r="S8" s="75">
         <v>6</v>
       </c>
@@ -15401,52 +15401,52 @@
       <c r="AO8" s="89"/>
       <c r="AP8" s="89"/>
       <c r="AQ8" s="89"/>
-      <c r="AR8" s="152" t="s">
+      <c r="AR8" s="148" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="18.75" customHeight="1">
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="145" t="s">
+      <c r="E9" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="148" t="s">
+      <c r="F9" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="125" t="s">
+      <c r="G9" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="127" t="s">
+      <c r="I9" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="127" t="s">
+      <c r="J9" s="150"/>
+      <c r="K9" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="129"/>
-      <c r="M9" s="130" t="s">
+      <c r="L9" s="151"/>
+      <c r="M9" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="131"/>
-      <c r="O9" s="155" t="s">
+      <c r="N9" s="153"/>
+      <c r="O9" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="157" t="s">
+      <c r="P9" s="126"/>
+      <c r="Q9" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="156"/>
+      <c r="R9" s="126"/>
       <c r="S9" s="77">
         <v>42171</v>
       </c>
@@ -15522,16 +15522,16 @@
       <c r="AQ9" s="77">
         <v>42195</v>
       </c>
-      <c r="AR9" s="152"/>
+      <c r="AR9" s="148"/>
     </row>
     <row r="10" spans="1:46" ht="18.75" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="151"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="147"/>
       <c r="I10" s="78" t="s">
         <v>18</v>
       </c>
@@ -15544,8 +15544,8 @@
       <c r="L10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="133"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="155"/>
       <c r="O10" s="82" t="s">
         <v>3</v>
       </c>
@@ -15658,7 +15658,7 @@
         <f t="shared" si="2"/>
         <v>42195</v>
       </c>
-      <c r="AR10" s="152"/>
+      <c r="AR10" s="148"/>
     </row>
     <row r="11" spans="1:46" ht="13.5" hidden="1" customHeight="1">
       <c r="B11" s="93">
@@ -15670,7 +15670,7 @@
       <c r="E11" s="97"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="123"/>
+      <c r="H11" s="121"/>
       <c r="I11" s="103"/>
       <c r="J11" s="103"/>
       <c r="K11" s="103"/>
@@ -15730,7 +15730,7 @@
       <c r="E12" s="98"/>
       <c r="F12" s="100"/>
       <c r="G12" s="100"/>
-      <c r="H12" s="124"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="104"/>
       <c r="J12" s="104"/>
       <c r="K12" s="104"/>
@@ -15778,7 +15778,7 @@
       <c r="E13" s="97"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="123"/>
+      <c r="H13" s="121"/>
       <c r="I13" s="103"/>
       <c r="J13" s="103"/>
       <c r="K13" s="103"/>
@@ -15838,7 +15838,7 @@
       <c r="E14" s="98"/>
       <c r="F14" s="100"/>
       <c r="G14" s="100"/>
-      <c r="H14" s="124"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="104"/>
       <c r="J14" s="104"/>
       <c r="K14" s="104"/>
@@ -21480,7 +21480,7 @@
       <c r="E109" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="F109" s="121" t="s">
+      <c r="F109" s="156" t="s">
         <v>55</v>
       </c>
       <c r="G109" s="99"/>
@@ -21554,7 +21554,7 @@
       <c r="C110" s="96"/>
       <c r="D110" s="98"/>
       <c r="E110" s="98"/>
-      <c r="F110" s="122"/>
+      <c r="F110" s="157"/>
       <c r="G110" s="100"/>
       <c r="H110" s="102"/>
       <c r="I110" s="104"/>
@@ -22728,7 +22728,7 @@
       <c r="E131" s="97"/>
       <c r="F131" s="99"/>
       <c r="G131" s="99"/>
-      <c r="H131" s="123"/>
+      <c r="H131" s="121"/>
       <c r="I131" s="103"/>
       <c r="J131" s="103"/>
       <c r="K131" s="103"/>
@@ -22788,7 +22788,7 @@
       <c r="E132" s="98"/>
       <c r="F132" s="100"/>
       <c r="G132" s="100"/>
-      <c r="H132" s="124"/>
+      <c r="H132" s="122"/>
       <c r="I132" s="104"/>
       <c r="J132" s="104"/>
       <c r="K132" s="104"/>
@@ -28174,7 +28174,7 @@
       <c r="M225" s="105"/>
       <c r="N225" s="107" t="str">
         <f ca="1">IF(B225="","",IF(AND(I225="",J225="",K225="",L225=""),"",IF(OR(I225="",J225=""),"?",IF(AND(I225&lt;&gt;"",J225&lt;&gt;"",K225&lt;&gt;"",L225&lt;&gt;"",M225=100),"○",IF(AND(I225&lt;=TODAY(),J225&gt;=TODAY(),K225=""),"▲",  IF(J225&lt;TODAY(),"★",IF(K225&lt;&gt;"","△",IF(AND(I225&lt;&gt;""),"◇",""))))))))</f>
-        <v>▲</v>
+        <v>★</v>
       </c>
       <c r="O225" s="109" t="str">
         <f>IF(COUNTA(S225:X225)=0,"",SUMPRODUCT(--(ISNUMBER(S225:X225)),S225:X225)+ (COUNTA(S225:X225)-COUNT(S225:X225))*8)</f>
@@ -28402,7 +28402,7 @@
       <c r="M229" s="105"/>
       <c r="N229" s="107" t="str">
         <f ca="1">IF(B229="","",IF(AND(I229="",J229="",K229="",L229=""),"",IF(OR(I229="",J229=""),"?",IF(AND(I229&lt;&gt;"",J229&lt;&gt;"",K229&lt;&gt;"",L229&lt;&gt;"",M229=100),"○",IF(AND(I229&lt;=TODAY(),J229&gt;=TODAY(),K229=""),"▲",  IF(J229&lt;TODAY(),"★",IF(K229&lt;&gt;"","△",IF(AND(I229&lt;&gt;""),"◇",""))))))))</f>
-        <v>◇</v>
+        <v>▲</v>
       </c>
       <c r="O229" s="109" t="str">
         <f>IF(COUNTA(S229:X229)=0,"",SUMPRODUCT(--(ISNUMBER(S229:X229)),S229:X229)+ (COUNTA(S229:X229)-COUNT(S229:X229))*8)</f>
@@ -28706,37 +28706,1978 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="2035">
-    <mergeCell ref="AR231:AR232"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="E229:E230"/>
-    <mergeCell ref="F229:F230"/>
-    <mergeCell ref="G229:G230"/>
-    <mergeCell ref="H229:H230"/>
-    <mergeCell ref="I229:I230"/>
-    <mergeCell ref="J229:J230"/>
-    <mergeCell ref="K229:K230"/>
-    <mergeCell ref="L229:L230"/>
-    <mergeCell ref="M229:M230"/>
-    <mergeCell ref="N229:N230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="F231:F232"/>
-    <mergeCell ref="G231:G232"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="I231:I232"/>
-    <mergeCell ref="J231:J232"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="L231:L232"/>
-    <mergeCell ref="M231:M232"/>
-    <mergeCell ref="N231:N232"/>
-    <mergeCell ref="O231:O232"/>
-    <mergeCell ref="P231:P232"/>
-    <mergeCell ref="Q231:Q232"/>
-    <mergeCell ref="R231:R232"/>
+    <mergeCell ref="AR227:AR228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="G227:G228"/>
+    <mergeCell ref="H227:H228"/>
+    <mergeCell ref="I227:I228"/>
+    <mergeCell ref="J227:J228"/>
+    <mergeCell ref="K227:K228"/>
+    <mergeCell ref="L227:L228"/>
+    <mergeCell ref="M227:M228"/>
+    <mergeCell ref="N227:N228"/>
+    <mergeCell ref="O227:O228"/>
+    <mergeCell ref="P227:P228"/>
+    <mergeCell ref="Q227:Q228"/>
+    <mergeCell ref="R227:R228"/>
+    <mergeCell ref="AR215:AR216"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="E221:E222"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="J221:J222"/>
+    <mergeCell ref="K221:K222"/>
+    <mergeCell ref="L221:L222"/>
+    <mergeCell ref="M221:M222"/>
+    <mergeCell ref="N221:N222"/>
+    <mergeCell ref="O221:O222"/>
+    <mergeCell ref="P221:P222"/>
+    <mergeCell ref="Q221:Q222"/>
+    <mergeCell ref="R221:R222"/>
+    <mergeCell ref="AR221:AR222"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="K215:K216"/>
+    <mergeCell ref="L215:L216"/>
+    <mergeCell ref="M215:M216"/>
+    <mergeCell ref="N215:N216"/>
+    <mergeCell ref="AR219:AR220"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="I225:I226"/>
+    <mergeCell ref="J225:J226"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="L225:L226"/>
+    <mergeCell ref="M225:M226"/>
+    <mergeCell ref="N225:N226"/>
+    <mergeCell ref="O225:O226"/>
+    <mergeCell ref="P225:P226"/>
+    <mergeCell ref="Q225:Q226"/>
+    <mergeCell ref="R225:R226"/>
+    <mergeCell ref="AR225:AR226"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="J219:J220"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="M219:M220"/>
+    <mergeCell ref="N219:N220"/>
+    <mergeCell ref="O219:O220"/>
+    <mergeCell ref="P219:P220"/>
+    <mergeCell ref="Q219:Q220"/>
+    <mergeCell ref="R219:R220"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="F203:F204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="H203:H204"/>
+    <mergeCell ref="I203:I204"/>
+    <mergeCell ref="J203:J204"/>
+    <mergeCell ref="K203:K204"/>
+    <mergeCell ref="L203:L204"/>
+    <mergeCell ref="M203:M204"/>
+    <mergeCell ref="N203:N204"/>
+    <mergeCell ref="O203:O204"/>
+    <mergeCell ref="P203:P204"/>
+    <mergeCell ref="Q203:Q204"/>
+    <mergeCell ref="R203:R204"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="N211:N212"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="O217:O218"/>
+    <mergeCell ref="P217:P218"/>
+    <mergeCell ref="Q217:Q218"/>
+    <mergeCell ref="R217:R218"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="AR195:AR196"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="E199:E200"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="I199:I200"/>
+    <mergeCell ref="J199:J200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="L199:L200"/>
+    <mergeCell ref="M199:M200"/>
+    <mergeCell ref="N199:N200"/>
+    <mergeCell ref="O199:O200"/>
+    <mergeCell ref="P199:P200"/>
+    <mergeCell ref="Q199:Q200"/>
+    <mergeCell ref="R199:R200"/>
+    <mergeCell ref="AR199:AR200"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="L193:L194"/>
+    <mergeCell ref="M193:M194"/>
+    <mergeCell ref="N193:N194"/>
+    <mergeCell ref="O193:O194"/>
+    <mergeCell ref="P193:P194"/>
+    <mergeCell ref="Q193:Q194"/>
+    <mergeCell ref="R193:R194"/>
+    <mergeCell ref="AR193:AR194"/>
+    <mergeCell ref="AR203:AR204"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="L207:L208"/>
+    <mergeCell ref="M207:M208"/>
+    <mergeCell ref="N207:N208"/>
+    <mergeCell ref="O207:O208"/>
+    <mergeCell ref="P207:P208"/>
+    <mergeCell ref="Q207:Q208"/>
+    <mergeCell ref="R207:R208"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="AR207:AR208"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="H135:H136"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="N135:N136"/>
+    <mergeCell ref="O135:O136"/>
+    <mergeCell ref="P135:P136"/>
+    <mergeCell ref="Q135:Q136"/>
+    <mergeCell ref="R135:R136"/>
+    <mergeCell ref="AR135:AR136"/>
+    <mergeCell ref="AR205:AR206"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="E205:E206"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="H205:H206"/>
+    <mergeCell ref="I205:I206"/>
+    <mergeCell ref="J205:J206"/>
+    <mergeCell ref="K205:K206"/>
+    <mergeCell ref="L205:L206"/>
+    <mergeCell ref="M205:M206"/>
+    <mergeCell ref="N217:N218"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="M213:M214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="O215:O216"/>
+    <mergeCell ref="P215:P216"/>
+    <mergeCell ref="L217:L218"/>
+    <mergeCell ref="M217:M218"/>
+    <mergeCell ref="P213:P214"/>
+    <mergeCell ref="Q215:Q216"/>
+    <mergeCell ref="R215:R216"/>
+    <mergeCell ref="AR217:AR218"/>
+    <mergeCell ref="AR223:AR224"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="R103:R104"/>
+    <mergeCell ref="AR103:AR104"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="H217:H218"/>
+    <mergeCell ref="I217:I218"/>
+    <mergeCell ref="J217:J218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="D223:D224"/>
+    <mergeCell ref="E223:E224"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="H223:H224"/>
+    <mergeCell ref="I223:I224"/>
+    <mergeCell ref="J223:J224"/>
+    <mergeCell ref="K223:K224"/>
+    <mergeCell ref="L223:L224"/>
+    <mergeCell ref="M223:M224"/>
+    <mergeCell ref="N223:N224"/>
+    <mergeCell ref="O223:O224"/>
+    <mergeCell ref="P223:P224"/>
+    <mergeCell ref="Q223:Q224"/>
+    <mergeCell ref="R223:R224"/>
+    <mergeCell ref="Q213:Q214"/>
+    <mergeCell ref="R213:R214"/>
+    <mergeCell ref="AR213:AR214"/>
+    <mergeCell ref="O209:O210"/>
+    <mergeCell ref="P209:P210"/>
+    <mergeCell ref="Q209:Q210"/>
+    <mergeCell ref="R209:R210"/>
+    <mergeCell ref="AR209:AR210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="K209:K210"/>
+    <mergeCell ref="L209:L210"/>
+    <mergeCell ref="M209:M210"/>
+    <mergeCell ref="N209:N210"/>
+    <mergeCell ref="Q211:Q212"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="AR211:AR212"/>
+    <mergeCell ref="N205:N206"/>
+    <mergeCell ref="O205:O206"/>
+    <mergeCell ref="P205:P206"/>
+    <mergeCell ref="Q205:Q206"/>
+    <mergeCell ref="R205:R206"/>
+    <mergeCell ref="AR145:AR146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="O147:O148"/>
+    <mergeCell ref="P147:P148"/>
+    <mergeCell ref="Q147:Q148"/>
+    <mergeCell ref="R147:R148"/>
+    <mergeCell ref="AR147:AR148"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="Q143:Q144"/>
+    <mergeCell ref="R143:R144"/>
+    <mergeCell ref="AR143:AR144"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="R145:R146"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="O141:O142"/>
+    <mergeCell ref="P141:P142"/>
+    <mergeCell ref="Q141:Q142"/>
+    <mergeCell ref="R141:R142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="N143:N144"/>
+    <mergeCell ref="AR109:AR110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="AR21:AR22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="AR23:AR24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="O195:O196"/>
+    <mergeCell ref="P195:P196"/>
+    <mergeCell ref="Q195:Q196"/>
+    <mergeCell ref="R195:R196"/>
+    <mergeCell ref="AR201:AR202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="I201:I202"/>
+    <mergeCell ref="J201:J202"/>
+    <mergeCell ref="K201:K202"/>
+    <mergeCell ref="L201:L202"/>
+    <mergeCell ref="M201:M202"/>
+    <mergeCell ref="N201:N202"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="N195:N196"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="O201:O202"/>
+    <mergeCell ref="P201:P202"/>
+    <mergeCell ref="Q201:Q202"/>
+    <mergeCell ref="R201:R202"/>
+    <mergeCell ref="AR191:AR192"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="E197:E198"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="G197:G198"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="J197:J198"/>
+    <mergeCell ref="K197:K198"/>
+    <mergeCell ref="L197:L198"/>
+    <mergeCell ref="M197:M198"/>
+    <mergeCell ref="N197:N198"/>
+    <mergeCell ref="O197:O198"/>
+    <mergeCell ref="P197:P198"/>
+    <mergeCell ref="Q197:Q198"/>
+    <mergeCell ref="R197:R198"/>
+    <mergeCell ref="AR197:AR198"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="AR189:AR190"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="H191:H192"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="M191:M192"/>
+    <mergeCell ref="N191:N192"/>
+    <mergeCell ref="O191:O192"/>
+    <mergeCell ref="P191:P192"/>
+    <mergeCell ref="Q191:Q192"/>
+    <mergeCell ref="R191:R192"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="Q189:Q190"/>
+    <mergeCell ref="R189:R190"/>
+    <mergeCell ref="AR185:AR186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="N187:N188"/>
+    <mergeCell ref="O187:O188"/>
+    <mergeCell ref="P187:P188"/>
+    <mergeCell ref="Q187:Q188"/>
+    <mergeCell ref="R187:R188"/>
+    <mergeCell ref="AR187:AR188"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="E185:E186"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="G185:G186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="N185:N186"/>
+    <mergeCell ref="O185:O186"/>
+    <mergeCell ref="P185:P186"/>
+    <mergeCell ref="Q185:Q186"/>
+    <mergeCell ref="R185:R186"/>
+    <mergeCell ref="AR181:AR182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="N183:N184"/>
+    <mergeCell ref="O183:O184"/>
+    <mergeCell ref="P183:P184"/>
+    <mergeCell ref="Q183:Q184"/>
+    <mergeCell ref="R183:R184"/>
+    <mergeCell ref="AR183:AR184"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="H181:H182"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="L181:L182"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="N181:N182"/>
+    <mergeCell ref="O181:O182"/>
+    <mergeCell ref="P181:P182"/>
+    <mergeCell ref="Q181:Q182"/>
+    <mergeCell ref="R181:R182"/>
+    <mergeCell ref="AR177:AR178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="N179:N180"/>
+    <mergeCell ref="O179:O180"/>
+    <mergeCell ref="P179:P180"/>
+    <mergeCell ref="Q179:Q180"/>
+    <mergeCell ref="R179:R180"/>
+    <mergeCell ref="AR179:AR180"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="N177:N178"/>
+    <mergeCell ref="O177:O178"/>
+    <mergeCell ref="P177:P178"/>
+    <mergeCell ref="Q177:Q178"/>
+    <mergeCell ref="R177:R178"/>
+    <mergeCell ref="AR173:AR174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="E175:E176"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="N175:N176"/>
+    <mergeCell ref="O175:O176"/>
+    <mergeCell ref="P175:P176"/>
+    <mergeCell ref="Q175:Q176"/>
+    <mergeCell ref="R175:R176"/>
+    <mergeCell ref="AR175:AR176"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="O173:O174"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="R173:R174"/>
+    <mergeCell ref="AR171:AR172"/>
+    <mergeCell ref="R171:R172"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="P171:P172"/>
+    <mergeCell ref="Q171:Q172"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="N163:N164"/>
+    <mergeCell ref="O163:O164"/>
+    <mergeCell ref="P163:P164"/>
+    <mergeCell ref="R163:R164"/>
+    <mergeCell ref="O155:O156"/>
+    <mergeCell ref="P155:P156"/>
+    <mergeCell ref="Q155:Q156"/>
+    <mergeCell ref="R155:R156"/>
+    <mergeCell ref="O151:O152"/>
+    <mergeCell ref="P151:P152"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="R151:R152"/>
+    <mergeCell ref="N151:N152"/>
+    <mergeCell ref="O167:O168"/>
+    <mergeCell ref="P167:P168"/>
+    <mergeCell ref="Q167:Q168"/>
+    <mergeCell ref="R167:R168"/>
+    <mergeCell ref="AR167:AR168"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="O159:O160"/>
+    <mergeCell ref="P159:P160"/>
+    <mergeCell ref="Q159:Q160"/>
+    <mergeCell ref="R159:R160"/>
+    <mergeCell ref="AR159:AR160"/>
+    <mergeCell ref="AR163:AR164"/>
+    <mergeCell ref="AR155:AR156"/>
+    <mergeCell ref="AR141:AR142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="P143:P144"/>
+    <mergeCell ref="Q165:Q166"/>
+    <mergeCell ref="AR151:AR152"/>
+    <mergeCell ref="AR165:AR166"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="AR169:AR170"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="N167:N168"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="O157:O158"/>
+    <mergeCell ref="P157:P158"/>
+    <mergeCell ref="Q157:Q158"/>
+    <mergeCell ref="R165:R166"/>
+    <mergeCell ref="AR157:AR158"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="N161:N162"/>
+    <mergeCell ref="O161:O162"/>
+    <mergeCell ref="P161:P162"/>
+    <mergeCell ref="Q161:Q162"/>
+    <mergeCell ref="R161:R162"/>
+    <mergeCell ref="AR161:AR162"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="N159:N160"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="H153:H154"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="N153:N154"/>
+    <mergeCell ref="O153:O154"/>
+    <mergeCell ref="P153:P154"/>
+    <mergeCell ref="Q153:Q154"/>
+    <mergeCell ref="R153:R154"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="N137:N138"/>
+    <mergeCell ref="O137:O138"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="N149:N150"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="O143:O144"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="AR137:AR138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="N139:N140"/>
+    <mergeCell ref="O139:O140"/>
+    <mergeCell ref="P139:P140"/>
+    <mergeCell ref="Q139:Q140"/>
+    <mergeCell ref="R139:R140"/>
+    <mergeCell ref="AR139:AR140"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="P137:P138"/>
+    <mergeCell ref="Q137:Q138"/>
+    <mergeCell ref="R137:R138"/>
+    <mergeCell ref="AR131:AR132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="N133:N134"/>
+    <mergeCell ref="O133:O134"/>
+    <mergeCell ref="P133:P134"/>
+    <mergeCell ref="Q133:Q134"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="R101:R102"/>
+    <mergeCell ref="AR101:AR102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="N131:N132"/>
+    <mergeCell ref="O131:O132"/>
+    <mergeCell ref="P131:P132"/>
+    <mergeCell ref="Q131:Q132"/>
+    <mergeCell ref="R131:R132"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="AR105:AR106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="AR95:AR96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="AR99:AR100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="AR93:AR94"/>
+    <mergeCell ref="AR91:AR92"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="AR25:AR26"/>
+    <mergeCell ref="AR87:AR88"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="AR85:AR86"/>
+    <mergeCell ref="AR81:AR82"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="R111:R112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="AR89:AR90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="AR79:AR80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="AR83:AR84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="AR77:AR78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="AR75:AR76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="AR73:AR74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="AR69:AR70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="AR71:AR72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="AR67:AR68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="AR59:AR60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="AR31:AR32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="AR37:AR38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="AR29:AR30"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="AR35:AR36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="AR41:AR42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="AR33:AR34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="AR55:AR56"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="AR53:AR54"/>
+    <mergeCell ref="O123:O124"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="R123:R124"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="AR65:AR66"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="R115:R116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="AR51:AR52"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="AR57:AR58"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="AR47:AR48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="AR49:AR50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="AR43:AR44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="AR45:AR46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="P233:P234"/>
+    <mergeCell ref="Q233:Q234"/>
+    <mergeCell ref="R233:R234"/>
+    <mergeCell ref="AR233:AR234"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AR39:AR40"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="F233:F234"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="I233:I234"/>
+    <mergeCell ref="J233:J234"/>
+    <mergeCell ref="K233:K234"/>
+    <mergeCell ref="E233:E234"/>
+    <mergeCell ref="L233:L234"/>
+    <mergeCell ref="G233:G234"/>
+    <mergeCell ref="M233:M234"/>
+    <mergeCell ref="N233:N234"/>
+    <mergeCell ref="O233:O234"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="O113:O114"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="AR127:AR128"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="N121:N122"/>
+    <mergeCell ref="O121:O122"/>
+    <mergeCell ref="P121:P122"/>
+    <mergeCell ref="P113:P114"/>
+    <mergeCell ref="Q113:Q114"/>
+    <mergeCell ref="R113:R114"/>
+    <mergeCell ref="AR113:AR114"/>
+    <mergeCell ref="AR115:AR116"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="AR61:AR62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="AR63:AR64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="AR97:AR98"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="AR117:AR118"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="N127:N128"/>
+    <mergeCell ref="O127:O128"/>
+    <mergeCell ref="P127:P128"/>
+    <mergeCell ref="Q127:Q128"/>
+    <mergeCell ref="R127:R128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="N129:N130"/>
+    <mergeCell ref="O129:O130"/>
+    <mergeCell ref="P129:P130"/>
+    <mergeCell ref="Q129:Q130"/>
+    <mergeCell ref="R129:R130"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="R119:R120"/>
+    <mergeCell ref="Q121:Q122"/>
+    <mergeCell ref="R121:R122"/>
+    <mergeCell ref="AR121:AR122"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="R107:R108"/>
+    <mergeCell ref="AR107:AR108"/>
+    <mergeCell ref="AR111:AR112"/>
+    <mergeCell ref="O229:O230"/>
+    <mergeCell ref="P229:P230"/>
+    <mergeCell ref="Q229:Q230"/>
+    <mergeCell ref="R229:R230"/>
+    <mergeCell ref="AR229:AR230"/>
+    <mergeCell ref="AR129:AR130"/>
+    <mergeCell ref="AR125:AR126"/>
+    <mergeCell ref="AR123:AR124"/>
+    <mergeCell ref="R133:R134"/>
+    <mergeCell ref="AR133:AR134"/>
+    <mergeCell ref="P149:P150"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="R157:R158"/>
+    <mergeCell ref="AR149:AR150"/>
+    <mergeCell ref="AR153:AR154"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="AR119:AR120"/>
+    <mergeCell ref="P165:P166"/>
     <mergeCell ref="F97:F98"/>
     <mergeCell ref="G97:G98"/>
     <mergeCell ref="H97:H98"/>
@@ -28769,1978 +30710,37 @@
     <mergeCell ref="J123:J124"/>
     <mergeCell ref="F117:F118"/>
     <mergeCell ref="G117:G118"/>
-    <mergeCell ref="N119:N120"/>
-    <mergeCell ref="O119:O120"/>
-    <mergeCell ref="P119:P120"/>
-    <mergeCell ref="Q119:Q120"/>
-    <mergeCell ref="R119:R120"/>
-    <mergeCell ref="Q121:Q122"/>
-    <mergeCell ref="R121:R122"/>
-    <mergeCell ref="AR121:AR122"/>
-    <mergeCell ref="L119:L120"/>
-    <mergeCell ref="M119:M120"/>
-    <mergeCell ref="R107:R108"/>
-    <mergeCell ref="AR107:AR108"/>
-    <mergeCell ref="AR111:AR112"/>
-    <mergeCell ref="O229:O230"/>
-    <mergeCell ref="P229:P230"/>
-    <mergeCell ref="Q229:Q230"/>
-    <mergeCell ref="R229:R230"/>
-    <mergeCell ref="AR229:AR230"/>
-    <mergeCell ref="AR129:AR130"/>
-    <mergeCell ref="AR125:AR126"/>
-    <mergeCell ref="AR123:AR124"/>
-    <mergeCell ref="R133:R134"/>
-    <mergeCell ref="AR133:AR134"/>
-    <mergeCell ref="P149:P150"/>
-    <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="R157:R158"/>
-    <mergeCell ref="AR149:AR150"/>
-    <mergeCell ref="AR153:AR154"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="M129:M130"/>
-    <mergeCell ref="N129:N130"/>
-    <mergeCell ref="O129:O130"/>
-    <mergeCell ref="P129:P130"/>
-    <mergeCell ref="Q129:Q130"/>
-    <mergeCell ref="R129:R130"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="M127:M128"/>
-    <mergeCell ref="N127:N128"/>
-    <mergeCell ref="O127:O128"/>
-    <mergeCell ref="P127:P128"/>
-    <mergeCell ref="Q127:Q128"/>
-    <mergeCell ref="R127:R128"/>
-    <mergeCell ref="AR119:AR120"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="J121:J122"/>
-    <mergeCell ref="AR61:AR62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="AR63:AR64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="AR97:AR98"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="AR117:AR118"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="AR127:AR128"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="N121:N122"/>
-    <mergeCell ref="O121:O122"/>
-    <mergeCell ref="P121:P122"/>
-    <mergeCell ref="P113:P114"/>
-    <mergeCell ref="Q113:Q114"/>
-    <mergeCell ref="R113:R114"/>
-    <mergeCell ref="AR113:AR114"/>
-    <mergeCell ref="AR115:AR116"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="O117:O118"/>
-    <mergeCell ref="P117:P118"/>
-    <mergeCell ref="Q117:Q118"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AR17:AR18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="F233:F234"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="I233:I234"/>
-    <mergeCell ref="J233:J234"/>
-    <mergeCell ref="K233:K234"/>
-    <mergeCell ref="E233:E234"/>
-    <mergeCell ref="L233:L234"/>
-    <mergeCell ref="G233:G234"/>
-    <mergeCell ref="M233:M234"/>
-    <mergeCell ref="N233:N234"/>
-    <mergeCell ref="O233:O234"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="L113:L114"/>
-    <mergeCell ref="M113:M114"/>
-    <mergeCell ref="N113:N114"/>
-    <mergeCell ref="O113:O114"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="P233:P234"/>
-    <mergeCell ref="Q233:Q234"/>
-    <mergeCell ref="R233:R234"/>
-    <mergeCell ref="AR233:AR234"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AR39:AR40"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="AR43:AR44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="AR45:AR46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="AR47:AR48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="AR49:AR50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="AR51:AR52"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="AR57:AR58"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:L116"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="N115:N116"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="P115:P116"/>
-    <mergeCell ref="Q115:Q116"/>
-    <mergeCell ref="R115:R116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="AR55:AR56"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="AR53:AR54"/>
-    <mergeCell ref="O123:O124"/>
-    <mergeCell ref="P123:P124"/>
-    <mergeCell ref="Q123:Q124"/>
-    <mergeCell ref="R123:R124"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="AR65:AR66"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="AR33:AR34"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="AR29:AR30"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="AR35:AR36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="AR41:AR42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="AR31:AR32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="AR37:AR38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="AR27:AR28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="AR59:AR60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="AR67:AR68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="AR69:AR70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="AR71:AR72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="AR75:AR76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="AR73:AR74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="P77:P78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="AR77:AR78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="AR79:AR80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="AR83:AR84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="P89:P90"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="AR89:AR90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="L111:L112"/>
-    <mergeCell ref="M111:M112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="Q111:Q112"/>
-    <mergeCell ref="R111:R112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="AR93:AR94"/>
-    <mergeCell ref="AR91:AR92"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="L91:L92"/>
-    <mergeCell ref="M91:M92"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="O91:O92"/>
-    <mergeCell ref="P91:P92"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="AR25:AR26"/>
-    <mergeCell ref="AR87:AR88"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="AR85:AR86"/>
-    <mergeCell ref="AR81:AR82"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="AR95:AR96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="M99:M100"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="P99:P100"/>
-    <mergeCell ref="Q99:Q100"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="AR99:AR100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="R101:R102"/>
-    <mergeCell ref="AR101:AR102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="L131:L132"/>
-    <mergeCell ref="M131:M132"/>
-    <mergeCell ref="N131:N132"/>
-    <mergeCell ref="O131:O132"/>
-    <mergeCell ref="P131:P132"/>
-    <mergeCell ref="Q131:Q132"/>
-    <mergeCell ref="R131:R132"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="L105:L106"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="O105:O106"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="AR105:AR106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="M107:M108"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="Q107:Q108"/>
-    <mergeCell ref="P137:P138"/>
-    <mergeCell ref="Q137:Q138"/>
-    <mergeCell ref="R137:R138"/>
-    <mergeCell ref="AR131:AR132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="L133:L134"/>
-    <mergeCell ref="M133:M134"/>
-    <mergeCell ref="N133:N134"/>
-    <mergeCell ref="O133:O134"/>
-    <mergeCell ref="P133:P134"/>
-    <mergeCell ref="Q133:Q134"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="AR137:AR138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="J139:J140"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="L139:L140"/>
-    <mergeCell ref="M139:M140"/>
-    <mergeCell ref="N139:N140"/>
-    <mergeCell ref="O139:O140"/>
-    <mergeCell ref="P139:P140"/>
-    <mergeCell ref="Q139:Q140"/>
-    <mergeCell ref="R139:R140"/>
-    <mergeCell ref="AR139:AR140"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="J137:J138"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="M137:M138"/>
-    <mergeCell ref="N137:N138"/>
-    <mergeCell ref="O137:O138"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="J149:J150"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="M149:M150"/>
-    <mergeCell ref="N149:N150"/>
-    <mergeCell ref="O149:O150"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="O143:O144"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="G153:G154"/>
-    <mergeCell ref="H153:H154"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="L153:L154"/>
-    <mergeCell ref="M153:M154"/>
-    <mergeCell ref="N153:N154"/>
-    <mergeCell ref="O153:O154"/>
-    <mergeCell ref="P153:P154"/>
-    <mergeCell ref="Q153:Q154"/>
-    <mergeCell ref="R153:R154"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="N159:N160"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="O157:O158"/>
-    <mergeCell ref="P157:P158"/>
-    <mergeCell ref="Q157:Q158"/>
-    <mergeCell ref="R165:R166"/>
-    <mergeCell ref="AR157:AR158"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="N161:N162"/>
-    <mergeCell ref="O161:O162"/>
-    <mergeCell ref="P161:P162"/>
-    <mergeCell ref="Q161:Q162"/>
-    <mergeCell ref="R161:R162"/>
-    <mergeCell ref="AR161:AR162"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="N167:N168"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="Q165:Q166"/>
-    <mergeCell ref="AR151:AR152"/>
-    <mergeCell ref="AR165:AR166"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="O169:O170"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="AR169:AR170"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="R163:R164"/>
-    <mergeCell ref="O155:O156"/>
-    <mergeCell ref="P155:P156"/>
-    <mergeCell ref="Q155:Q156"/>
-    <mergeCell ref="R155:R156"/>
-    <mergeCell ref="O151:O152"/>
-    <mergeCell ref="P151:P152"/>
-    <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="R151:R152"/>
-    <mergeCell ref="N151:N152"/>
-    <mergeCell ref="O167:O168"/>
-    <mergeCell ref="P167:P168"/>
-    <mergeCell ref="Q167:Q168"/>
-    <mergeCell ref="R167:R168"/>
-    <mergeCell ref="AR167:AR168"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="O159:O160"/>
-    <mergeCell ref="P159:P160"/>
-    <mergeCell ref="Q159:Q160"/>
-    <mergeCell ref="R159:R160"/>
-    <mergeCell ref="AR159:AR160"/>
-    <mergeCell ref="AR163:AR164"/>
-    <mergeCell ref="AR155:AR156"/>
-    <mergeCell ref="AR141:AR142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="P171:P172"/>
-    <mergeCell ref="Q171:Q172"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="G163:G164"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="N163:N164"/>
-    <mergeCell ref="O163:O164"/>
-    <mergeCell ref="P163:P164"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="N173:N174"/>
-    <mergeCell ref="O173:O174"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="Q173:Q174"/>
-    <mergeCell ref="R173:R174"/>
-    <mergeCell ref="AR171:AR172"/>
-    <mergeCell ref="R171:R172"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="N177:N178"/>
-    <mergeCell ref="O177:O178"/>
-    <mergeCell ref="P177:P178"/>
-    <mergeCell ref="Q177:Q178"/>
-    <mergeCell ref="R177:R178"/>
-    <mergeCell ref="AR173:AR174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="E175:E176"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="N175:N176"/>
-    <mergeCell ref="O175:O176"/>
-    <mergeCell ref="P175:P176"/>
-    <mergeCell ref="Q175:Q176"/>
-    <mergeCell ref="R175:R176"/>
-    <mergeCell ref="AR175:AR176"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="L181:L182"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="N181:N182"/>
-    <mergeCell ref="O181:O182"/>
-    <mergeCell ref="P181:P182"/>
-    <mergeCell ref="Q181:Q182"/>
-    <mergeCell ref="R181:R182"/>
-    <mergeCell ref="AR177:AR178"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="H179:H180"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="N179:N180"/>
-    <mergeCell ref="O179:O180"/>
-    <mergeCell ref="P179:P180"/>
-    <mergeCell ref="Q179:Q180"/>
-    <mergeCell ref="R179:R180"/>
-    <mergeCell ref="AR179:AR180"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="O185:O186"/>
-    <mergeCell ref="P185:P186"/>
-    <mergeCell ref="Q185:Q186"/>
-    <mergeCell ref="R185:R186"/>
-    <mergeCell ref="AR181:AR182"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:G184"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="N183:N184"/>
-    <mergeCell ref="O183:O184"/>
-    <mergeCell ref="P183:P184"/>
-    <mergeCell ref="Q183:Q184"/>
-    <mergeCell ref="R183:R184"/>
-    <mergeCell ref="AR183:AR184"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="H181:H182"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="AR185:AR186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="N187:N188"/>
-    <mergeCell ref="O187:O188"/>
-    <mergeCell ref="P187:P188"/>
-    <mergeCell ref="Q187:Q188"/>
-    <mergeCell ref="R187:R188"/>
-    <mergeCell ref="AR187:AR188"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="E185:E186"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="G185:G186"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="J185:J186"/>
-    <mergeCell ref="K185:K186"/>
-    <mergeCell ref="L185:L186"/>
-    <mergeCell ref="M185:M186"/>
-    <mergeCell ref="N185:N186"/>
-    <mergeCell ref="AR189:AR190"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="H191:H192"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="L191:L192"/>
-    <mergeCell ref="M191:M192"/>
-    <mergeCell ref="N191:N192"/>
-    <mergeCell ref="O191:O192"/>
-    <mergeCell ref="P191:P192"/>
-    <mergeCell ref="Q191:Q192"/>
-    <mergeCell ref="R191:R192"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="Q189:Q190"/>
-    <mergeCell ref="R189:R190"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="O201:O202"/>
-    <mergeCell ref="P201:P202"/>
-    <mergeCell ref="Q201:Q202"/>
-    <mergeCell ref="R201:R202"/>
-    <mergeCell ref="AR191:AR192"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="E197:E198"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="G197:G198"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="I197:I198"/>
-    <mergeCell ref="J197:J198"/>
-    <mergeCell ref="K197:K198"/>
-    <mergeCell ref="L197:L198"/>
-    <mergeCell ref="M197:M198"/>
-    <mergeCell ref="N197:N198"/>
-    <mergeCell ref="O197:O198"/>
-    <mergeCell ref="P197:P198"/>
-    <mergeCell ref="Q197:Q198"/>
-    <mergeCell ref="R197:R198"/>
-    <mergeCell ref="AR197:AR198"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="O195:O196"/>
-    <mergeCell ref="P195:P196"/>
-    <mergeCell ref="Q195:Q196"/>
-    <mergeCell ref="R195:R196"/>
-    <mergeCell ref="AR201:AR202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
-    <mergeCell ref="F201:F202"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I202"/>
-    <mergeCell ref="J201:J202"/>
-    <mergeCell ref="K201:K202"/>
-    <mergeCell ref="L201:L202"/>
-    <mergeCell ref="M201:M202"/>
-    <mergeCell ref="N201:N202"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="M195:M196"/>
-    <mergeCell ref="N195:N196"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="AR21:AR22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="AR23:AR24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="AR109:AR110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="L109:L110"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="P109:P110"/>
-    <mergeCell ref="Q109:Q110"/>
-    <mergeCell ref="R109:R110"/>
-    <mergeCell ref="P143:P144"/>
-    <mergeCell ref="Q143:Q144"/>
-    <mergeCell ref="R143:R144"/>
-    <mergeCell ref="AR143:AR144"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="R145:R146"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="M141:M142"/>
-    <mergeCell ref="N141:N142"/>
-    <mergeCell ref="O141:O142"/>
-    <mergeCell ref="P141:P142"/>
-    <mergeCell ref="Q141:Q142"/>
-    <mergeCell ref="R141:R142"/>
-    <mergeCell ref="M143:M144"/>
-    <mergeCell ref="N143:N144"/>
-    <mergeCell ref="N205:N206"/>
-    <mergeCell ref="O205:O206"/>
-    <mergeCell ref="P205:P206"/>
-    <mergeCell ref="Q205:Q206"/>
-    <mergeCell ref="R205:R206"/>
-    <mergeCell ref="AR145:AR146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="O147:O148"/>
-    <mergeCell ref="P147:P148"/>
-    <mergeCell ref="Q147:Q148"/>
-    <mergeCell ref="R147:R148"/>
-    <mergeCell ref="AR147:AR148"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="Q213:Q214"/>
-    <mergeCell ref="R213:R214"/>
-    <mergeCell ref="AR213:AR214"/>
-    <mergeCell ref="O209:O210"/>
-    <mergeCell ref="P209:P210"/>
-    <mergeCell ref="Q209:Q210"/>
-    <mergeCell ref="R209:R210"/>
-    <mergeCell ref="AR209:AR210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="K209:K210"/>
-    <mergeCell ref="L209:L210"/>
-    <mergeCell ref="M209:M210"/>
-    <mergeCell ref="N209:N210"/>
-    <mergeCell ref="Q211:Q212"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="AR211:AR212"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="D223:D224"/>
-    <mergeCell ref="E223:E224"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="G223:G224"/>
-    <mergeCell ref="H223:H224"/>
-    <mergeCell ref="I223:I224"/>
-    <mergeCell ref="J223:J224"/>
-    <mergeCell ref="K223:K224"/>
-    <mergeCell ref="L223:L224"/>
-    <mergeCell ref="M223:M224"/>
-    <mergeCell ref="N223:N224"/>
-    <mergeCell ref="O223:O224"/>
-    <mergeCell ref="P223:P224"/>
-    <mergeCell ref="Q223:Q224"/>
-    <mergeCell ref="R223:R224"/>
-    <mergeCell ref="Q215:Q216"/>
-    <mergeCell ref="R215:R216"/>
-    <mergeCell ref="AR217:AR218"/>
-    <mergeCell ref="AR223:AR224"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="M103:M104"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="O103:O104"/>
-    <mergeCell ref="P103:P104"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="R103:R104"/>
-    <mergeCell ref="AR103:AR104"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="H217:H218"/>
-    <mergeCell ref="I217:I218"/>
-    <mergeCell ref="J217:J218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="N217:N218"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="M213:M214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="O215:O216"/>
-    <mergeCell ref="P215:P216"/>
-    <mergeCell ref="L217:L218"/>
-    <mergeCell ref="M217:M218"/>
-    <mergeCell ref="P213:P214"/>
-    <mergeCell ref="AR207:AR208"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G135:G136"/>
-    <mergeCell ref="H135:H136"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="J135:J136"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="L135:L136"/>
-    <mergeCell ref="M135:M136"/>
-    <mergeCell ref="N135:N136"/>
-    <mergeCell ref="O135:O136"/>
-    <mergeCell ref="P135:P136"/>
-    <mergeCell ref="Q135:Q136"/>
-    <mergeCell ref="R135:R136"/>
-    <mergeCell ref="AR135:AR136"/>
-    <mergeCell ref="AR205:AR206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="E205:E206"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="H205:H206"/>
-    <mergeCell ref="I205:I206"/>
-    <mergeCell ref="J205:J206"/>
-    <mergeCell ref="K205:K206"/>
-    <mergeCell ref="L205:L206"/>
-    <mergeCell ref="M205:M206"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="L193:L194"/>
-    <mergeCell ref="M193:M194"/>
-    <mergeCell ref="N193:N194"/>
-    <mergeCell ref="O193:O194"/>
-    <mergeCell ref="P193:P194"/>
-    <mergeCell ref="Q193:Q194"/>
-    <mergeCell ref="R193:R194"/>
-    <mergeCell ref="AR193:AR194"/>
-    <mergeCell ref="AR203:AR204"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="F207:F208"/>
-    <mergeCell ref="G207:G208"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="J207:J208"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="L207:L208"/>
-    <mergeCell ref="M207:M208"/>
-    <mergeCell ref="N207:N208"/>
-    <mergeCell ref="O207:O208"/>
-    <mergeCell ref="P207:P208"/>
-    <mergeCell ref="Q207:Q208"/>
-    <mergeCell ref="R207:R208"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="AR195:AR196"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="E199:E200"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="I199:I200"/>
-    <mergeCell ref="J199:J200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="L199:L200"/>
-    <mergeCell ref="M199:M200"/>
-    <mergeCell ref="N199:N200"/>
-    <mergeCell ref="O199:O200"/>
-    <mergeCell ref="P199:P200"/>
-    <mergeCell ref="Q199:Q200"/>
-    <mergeCell ref="R199:R200"/>
-    <mergeCell ref="AR199:AR200"/>
-    <mergeCell ref="O219:O220"/>
-    <mergeCell ref="P219:P220"/>
-    <mergeCell ref="Q219:Q220"/>
-    <mergeCell ref="R219:R220"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="F203:F204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="H203:H204"/>
-    <mergeCell ref="I203:I204"/>
-    <mergeCell ref="J203:J204"/>
-    <mergeCell ref="K203:K204"/>
-    <mergeCell ref="L203:L204"/>
-    <mergeCell ref="M203:M204"/>
-    <mergeCell ref="N203:N204"/>
-    <mergeCell ref="O203:O204"/>
-    <mergeCell ref="P203:P204"/>
-    <mergeCell ref="Q203:Q204"/>
-    <mergeCell ref="R203:R204"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="N211:N212"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="O217:O218"/>
-    <mergeCell ref="P217:P218"/>
-    <mergeCell ref="Q217:Q218"/>
-    <mergeCell ref="R217:R218"/>
-    <mergeCell ref="AR219:AR220"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="F225:F226"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="I225:I226"/>
-    <mergeCell ref="J225:J226"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="L225:L226"/>
-    <mergeCell ref="M225:M226"/>
-    <mergeCell ref="N225:N226"/>
-    <mergeCell ref="O225:O226"/>
-    <mergeCell ref="P225:P226"/>
-    <mergeCell ref="Q225:Q226"/>
-    <mergeCell ref="R225:R226"/>
-    <mergeCell ref="AR225:AR226"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="J219:J220"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="M219:M220"/>
-    <mergeCell ref="N219:N220"/>
-    <mergeCell ref="AR215:AR216"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E221:E222"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="J221:J222"/>
-    <mergeCell ref="K221:K222"/>
-    <mergeCell ref="L221:L222"/>
-    <mergeCell ref="M221:M222"/>
-    <mergeCell ref="N221:N222"/>
-    <mergeCell ref="O221:O222"/>
-    <mergeCell ref="P221:P222"/>
-    <mergeCell ref="Q221:Q222"/>
-    <mergeCell ref="R221:R222"/>
-    <mergeCell ref="AR221:AR222"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="I215:I216"/>
-    <mergeCell ref="J215:J216"/>
-    <mergeCell ref="K215:K216"/>
-    <mergeCell ref="L215:L216"/>
-    <mergeCell ref="M215:M216"/>
-    <mergeCell ref="N215:N216"/>
-    <mergeCell ref="AR227:AR228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="G227:G228"/>
-    <mergeCell ref="H227:H228"/>
-    <mergeCell ref="I227:I228"/>
-    <mergeCell ref="J227:J228"/>
-    <mergeCell ref="K227:K228"/>
-    <mergeCell ref="L227:L228"/>
-    <mergeCell ref="M227:M228"/>
-    <mergeCell ref="N227:N228"/>
-    <mergeCell ref="O227:O228"/>
-    <mergeCell ref="P227:P228"/>
-    <mergeCell ref="Q227:Q228"/>
-    <mergeCell ref="R227:R228"/>
+    <mergeCell ref="AR231:AR232"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="F229:F230"/>
+    <mergeCell ref="G229:G230"/>
+    <mergeCell ref="H229:H230"/>
+    <mergeCell ref="I229:I230"/>
+    <mergeCell ref="J229:J230"/>
+    <mergeCell ref="K229:K230"/>
+    <mergeCell ref="L229:L230"/>
+    <mergeCell ref="M229:M230"/>
+    <mergeCell ref="N229:N230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="I231:I232"/>
+    <mergeCell ref="J231:J232"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="L231:L232"/>
+    <mergeCell ref="M231:M232"/>
+    <mergeCell ref="N231:N232"/>
+    <mergeCell ref="O231:O232"/>
+    <mergeCell ref="P231:P232"/>
+    <mergeCell ref="Q231:Q232"/>
+    <mergeCell ref="R231:R232"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="S8:X8">
